--- a/data/hotels_by_city/Houston/Houston_shard_469.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_469.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="432">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d12339696-Reviews-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Le-Meridien-Houston-Downtown.h18465864.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1184 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r604487903-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>12339696</t>
+  </si>
+  <si>
+    <t>604487903</t>
+  </si>
+  <si>
+    <t>08/08/2018</t>
+  </si>
+  <si>
+    <t>AMAZING STAY !!</t>
+  </si>
+  <si>
+    <t>Usually don’t do reviews but my stay at the Le Meridien was beautiful and amazing. I checked in with Ricky. Greeted me with a smile &amp; thanked me on my Platiumn status. Nice Rooms Great Staff!!! Rooftop bar was a nice touch..</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r603788033-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>603788033</t>
+  </si>
+  <si>
+    <t>08/07/2018</t>
+  </si>
+  <si>
+    <t>Nice hotel for business trip</t>
+  </si>
+  <si>
+    <t>I stayed at the hotel for five nights when I was attending a conference. I had my qualms about not staying at the conference hotel but my choice was vindicated by the service and comfort I received during my stay at Le Meridien. The hotel is at a very convenient location in the downtown area from restaurants, bars, shopping areas and other hotels where some of my colleagues were staying. The room was really spacious, had all the amenities I needed and it was especially great to have a lot of USB charging points. I mostly used the hotel for sleeping in since I was outside for business meeting most of the time but it allowed me the perfect blend of rest to recharge for the next day. The rooftop bar is great and so is the restaurant who even improvised and made a special, delicious vegetarian meal when there was nothing on the menu. The staff was very friendly and helped me with a smooth check-in experience which was great after long inter-continental flights. The work area in the lobby is great for preparing last minute presentations.Overall, a great, satisfying and comfortable stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>I stayed at the hotel for five nights when I was attending a conference. I had my qualms about not staying at the conference hotel but my choice was vindicated by the service and comfort I received during my stay at Le Meridien. The hotel is at a very convenient location in the downtown area from restaurants, bars, shopping areas and other hotels where some of my colleagues were staying. The room was really spacious, had all the amenities I needed and it was especially great to have a lot of USB charging points. I mostly used the hotel for sleeping in since I was outside for business meeting most of the time but it allowed me the perfect blend of rest to recharge for the next day. The rooftop bar is great and so is the restaurant who even improvised and made a special, delicious vegetarian meal when there was nothing on the menu. The staff was very friendly and helped me with a smooth check-in experience which was great after long inter-continental flights. The work area in the lobby is great for preparing last minute presentations.Overall, a great, satisfying and comfortable stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r603533466-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>603533466</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>Nice birthday weekend</t>
+  </si>
+  <si>
+    <t>My girlfriend suprised me with a night at Le Meridien Houston for my birthday in June.  It was a really nice place, we didn’t get to try the restaurant but the roof was awesome.  I’d wait until the sun starts to set otherwise its too hot</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r601110098-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>601110098</t>
+  </si>
+  <si>
+    <t>07/30/2018</t>
+  </si>
+  <si>
+    <t>Wonderful Anniversary Stay</t>
+  </si>
+  <si>
+    <t>Although we are in our sixties, my wife and I were celebrating our fourth anniversary over this past weekend. Our stay was really wonderful. Check-in was on the 2nd floor and after a small wait, we were relaxing in our rooms. The hotel has been renovated in a exquisite contemporary style which we very much enjoyed. The well-designed and adorned room had a very comfortable bed and we stayed cool throughout the blazing hot July weekend. The roomy bathroom had a beautiful glass shower (be sure to stand next to the shower handle when you turn it on and the very cold water shoots out). We had hoped for a nice view of downtown, but the tall buildings across the street blocked most of the view. For a good view, I would suggest asking for a south-facing room.The hotel is really well situated and within walking distance of Minute Maid Field, the George R Brown Convention Center/Discovery Green, and tons of restaurants and clubs. But probably the feature we enjoyed the most was the roof-top bar. The first night we experienced it, there was a full moon and the sky was clear with a beautiful breeze. So relaxing, especially with a drink!Two things to consider before you stay there: 1) There is no pool, and 2) there is public parking all around, and though it too is not cheap, it surely beats the $34 for valet parking.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>Although we are in our sixties, my wife and I were celebrating our fourth anniversary over this past weekend. Our stay was really wonderful. Check-in was on the 2nd floor and after a small wait, we were relaxing in our rooms. The hotel has been renovated in a exquisite contemporary style which we very much enjoyed. The well-designed and adorned room had a very comfortable bed and we stayed cool throughout the blazing hot July weekend. The roomy bathroom had a beautiful glass shower (be sure to stand next to the shower handle when you turn it on and the very cold water shoots out). We had hoped for a nice view of downtown, but the tall buildings across the street blocked most of the view. For a good view, I would suggest asking for a south-facing room.The hotel is really well situated and within walking distance of Minute Maid Field, the George R Brown Convention Center/Discovery Green, and tons of restaurants and clubs. But probably the feature we enjoyed the most was the roof-top bar. The first night we experienced it, there was a full moon and the sky was clear with a beautiful breeze. So relaxing, especially with a drink!Two things to consider before you stay there: 1) There is no pool, and 2) there is public parking all around, and though it too is not cheap, it surely beats the $34 for valet parking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r599593948-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>599593948</t>
+  </si>
+  <si>
+    <t>07/25/2018</t>
+  </si>
+  <si>
+    <t>Great Hotel, Great Service</t>
+  </si>
+  <si>
+    <t>A wonderful and safe place to stay in downtown Houston.  Friendly/Helpful staff, good food and great roof top bar. Not far from MD Anderson. the only negative is paying to park.  a little pricy for me.  However overall everything was excellent.  I would definitely stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Alan C, General Manager at Le Meridien Houston Downtown, responded to this reviewResponded 3 days ago</t>
+  </si>
+  <si>
+    <t>Responded 3 days ago</t>
+  </si>
+  <si>
+    <t>A wonderful and safe place to stay in downtown Houston.  Friendly/Helpful staff, good food and great roof top bar. Not far from MD Anderson. the only negative is paying to park.  a little pricy for me.  However overall everything was excellent.  I would definitely stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r599197382-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>599197382</t>
+  </si>
+  <si>
+    <t>07/24/2018</t>
+  </si>
+  <si>
+    <t>40th Birthday Party Bash</t>
+  </si>
+  <si>
+    <t>I wanted to plan something special for my husband's 40th birthday. I did a search of some downtown locations and stumbled upon Le Meridien. I contacted Lauren Hernandez to see if I could come to view their party venues and from the moment I made contact with her, I knew that this was the place I wanted to have his party. Lauren and her staff were so attentive and helpful during the planning process, providing suggestions and assistance along the way. They were open to all of my ideas and went out of their way to make my vision come true. On the day of the event, everything went perfectly. I could not have asked for anything more. We had a custom made chef's menu with custom drink pairings for a party of 30 guests, with passed appetizers while they waited for the guest of honor. After dinner, we then had an around the world whiskey tasting for all of our guests. Lastly, we retired at the rooftop bar with custom cigars and drinks. The night was amazing and I wish I could do it all over again. Everyone that attended made mention of how epic the party was and everyone had a blast. Two thumbs up and 5 stars just don't seem like enough to express my gratitude for such a wonderfully executed party. My husband had such an amazing time and it will be one he will never...I wanted to plan something special for my husband's 40th birthday. I did a search of some downtown locations and stumbled upon Le Meridien. I contacted Lauren Hernandez to see if I could come to view their party venues and from the moment I made contact with her, I knew that this was the place I wanted to have his party. Lauren and her staff were so attentive and helpful during the planning process, providing suggestions and assistance along the way. They were open to all of my ideas and went out of their way to make my vision come true. On the day of the event, everything went perfectly. I could not have asked for anything more. We had a custom made chef's menu with custom drink pairings for a party of 30 guests, with passed appetizers while they waited for the guest of honor. After dinner, we then had an around the world whiskey tasting for all of our guests. Lastly, we retired at the rooftop bar with custom cigars and drinks. The night was amazing and I wish I could do it all over again. Everyone that attended made mention of how epic the party was and everyone had a blast. Two thumbs up and 5 stars just don't seem like enough to express my gratitude for such a wonderfully executed party. My husband had such an amazing time and it will be one he will never forget! I will definitely be back! Thanks to everyone for all their help and assistance!! I truly appreciate everything that was done to make that night so special for us!!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I wanted to plan something special for my husband's 40th birthday. I did a search of some downtown locations and stumbled upon Le Meridien. I contacted Lauren Hernandez to see if I could come to view their party venues and from the moment I made contact with her, I knew that this was the place I wanted to have his party. Lauren and her staff were so attentive and helpful during the planning process, providing suggestions and assistance along the way. They were open to all of my ideas and went out of their way to make my vision come true. On the day of the event, everything went perfectly. I could not have asked for anything more. We had a custom made chef's menu with custom drink pairings for a party of 30 guests, with passed appetizers while they waited for the guest of honor. After dinner, we then had an around the world whiskey tasting for all of our guests. Lastly, we retired at the rooftop bar with custom cigars and drinks. The night was amazing and I wish I could do it all over again. Everyone that attended made mention of how epic the party was and everyone had a blast. Two thumbs up and 5 stars just don't seem like enough to express my gratitude for such a wonderfully executed party. My husband had such an amazing time and it will be one he will never...I wanted to plan something special for my husband's 40th birthday. I did a search of some downtown locations and stumbled upon Le Meridien. I contacted Lauren Hernandez to see if I could come to view their party venues and from the moment I made contact with her, I knew that this was the place I wanted to have his party. Lauren and her staff were so attentive and helpful during the planning process, providing suggestions and assistance along the way. They were open to all of my ideas and went out of their way to make my vision come true. On the day of the event, everything went perfectly. I could not have asked for anything more. We had a custom made chef's menu with custom drink pairings for a party of 30 guests, with passed appetizers while they waited for the guest of honor. After dinner, we then had an around the world whiskey tasting for all of our guests. Lastly, we retired at the rooftop bar with custom cigars and drinks. The night was amazing and I wish I could do it all over again. Everyone that attended made mention of how epic the party was and everyone had a blast. Two thumbs up and 5 stars just don't seem like enough to express my gratitude for such a wonderfully executed party. My husband had such an amazing time and it will be one he will never forget! I will definitely be back! Thanks to everyone for all their help and assistance!! I truly appreciate everything that was done to make that night so special for us!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r598216094-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>598216094</t>
+  </si>
+  <si>
+    <t>07/21/2018</t>
+  </si>
+  <si>
+    <t>Good hotel, Good location</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel to attend a conference.  After multiple issues and a very long wait with the check-in process, we went to the restaurant for a quick meal.  Tiffany, one of the restaurant managers,  greeted us and even provided a complimentary beverage to two very weary travelers.  We saw her at breakfast for the next 3 days...always with the same pleasant smile and welcoming presence.  Erin of the wait staff also gave us great service and a smile to start the day.  The check-in process with Demetrius, however, was not pleasant.MoreShow less</t>
+  </si>
+  <si>
+    <t>Alan C, General Manager at Le Meridien Houston Downtown, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel to attend a conference.  After multiple issues and a very long wait with the check-in process, we went to the restaurant for a quick meal.  Tiffany, one of the restaurant managers,  greeted us and even provided a complimentary beverage to two very weary travelers.  We saw her at breakfast for the next 3 days...always with the same pleasant smile and welcoming presence.  Erin of the wait staff also gave us great service and a smile to start the day.  The check-in process with Demetrius, however, was not pleasant.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r594711619-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>594711619</t>
+  </si>
+  <si>
+    <t>07/09/2018</t>
+  </si>
+  <si>
+    <t>Weekend Rugby trip</t>
+  </si>
+  <si>
+    <t>The hotel is very trendy and the rooms are very nice.  The beds are AMAZINGLY comfortable!! The room service was prompt &amp; the food was delicious.  The only cons were the elevator, valet and window covering.  You have to use your room key in the elevator and we had to swipe it multiple times in order for the scanner to read it.  Upon arrival, the valet gave me a ticket for my car and said to call or text the number 15 mins before we were ready to leave. I text and called the number and neither recognized my ticket number. I requested to speak with someone via the automated system and it transferred me to someone at another hotel.  I had to go downstairs and wait for them to find my vehicle.  After the first incident, valet worked perfectly. The hotel gives great views of downtown Houston but the windows had something that looked like chicken wire on them...I'd have enjoyed the view better without it.I would definitely stay here again, this may be my go-to hotel just for the beds! Great hotel and definitely a great location for anyone visiting Houston for a baseball or soccer match.  The stadiums are only a few blocks away!MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is very trendy and the rooms are very nice.  The beds are AMAZINGLY comfortable!! The room service was prompt &amp; the food was delicious.  The only cons were the elevator, valet and window covering.  You have to use your room key in the elevator and we had to swipe it multiple times in order for the scanner to read it.  Upon arrival, the valet gave me a ticket for my car and said to call or text the number 15 mins before we were ready to leave. I text and called the number and neither recognized my ticket number. I requested to speak with someone via the automated system and it transferred me to someone at another hotel.  I had to go downstairs and wait for them to find my vehicle.  After the first incident, valet worked perfectly. The hotel gives great views of downtown Houston but the windows had something that looked like chicken wire on them...I'd have enjoyed the view better without it.I would definitely stay here again, this may be my go-to hotel just for the beds! Great hotel and definitely a great location for anyone visiting Houston for a baseball or soccer match.  The stadiums are only a few blocks away!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r593038194-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>593038194</t>
+  </si>
+  <si>
+    <t>07/04/2018</t>
+  </si>
+  <si>
+    <t>Comfortable rooms, helpful service</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for 6 nights as part of a church convention. The room was clean and the bed comfortable.The check in process was quick and easy.The staff was helpful when asked questons. We used the metro line to travel to nrg park each day. This hotel was only 2 blocks from a station, which was an easy walk. The hotel is downtown near several shops and restaurants. There is a nice restaurant attached to this hotel too. A very nice place to stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>Alan C, General Manager at Le Meridien Houston Downtown, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for 6 nights as part of a church convention. The room was clean and the bed comfortable.The check in process was quick and easy.The staff was helpful when asked questons. We used the metro line to travel to nrg park each day. This hotel was only 2 blocks from a station, which was an easy walk. The hotel is downtown near several shops and restaurants. There is a nice restaurant attached to this hotel too. A very nice place to stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r588898996-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>588898996</t>
+  </si>
+  <si>
+    <t>06/19/2018</t>
+  </si>
+  <si>
+    <t>Kind &amp; Considerate, Exceptional Service Kudos to Amber!</t>
+  </si>
+  <si>
+    <t>Long story short. Check into LeMeridian for 1 nights. On way to dinner, husband became ill, went to ER at Methodist (superb hospital), he had emergency surgery next morning. So the 2 nights were spent in a hospital room.My daughter spoke with Amber who went above and beyond her responsibilities to help us keep the room where our belongings remained. Amber deserves a compliment from management for her genuine concern for us.BTW, Travis was fun, and helpful, made us smile checking in and checking out!MoreShow less</t>
+  </si>
+  <si>
+    <t>Long story short. Check into LeMeridian for 1 nights. On way to dinner, husband became ill, went to ER at Methodist (superb hospital), he had emergency surgery next morning. So the 2 nights were spent in a hospital room.My daughter spoke with Amber who went above and beyond her responsibilities to help us keep the room where our belongings remained. Amber deserves a compliment from management for her genuine concern for us.BTW, Travis was fun, and helpful, made us smile checking in and checking out!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r588855317-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>588855317</t>
+  </si>
+  <si>
+    <t>Clean hotel with good staff</t>
+  </si>
+  <si>
+    <t>First time at this hotel in the heart of downtown Houston. Very clean with updated rooms and a great rooftop bar. Lobby had free wine &amp; champagne for SPG members every evening for happy hour.Aaliyah at the front desk was tremendously helpful at check-in. Thanks!MoreShow less</t>
+  </si>
+  <si>
+    <t>First time at this hotel in the heart of downtown Houston. Very clean with updated rooms and a great rooftop bar. Lobby had free wine &amp; champagne for SPG members every evening for happy hour.Aaliyah at the front desk was tremendously helpful at check-in. Thanks!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r588154193-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>588154193</t>
+  </si>
+  <si>
+    <t>06/17/2018</t>
+  </si>
+  <si>
+    <t>One Word - Awesome!!</t>
+  </si>
+  <si>
+    <t>The Le Meridien is an absolutely gorgeous hotel.  Very modern.  The staff went out of their way to be helpful to us.  Check in/check out was a breeze, The room was beautiful.  The restaurant was great and the food was delicious.MoreShow less</t>
+  </si>
+  <si>
+    <t>Alan C, General Manager at Le Meridien Houston Downtown, responded to this reviewResponded June 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2018</t>
+  </si>
+  <si>
+    <t>The Le Meridien is an absolutely gorgeous hotel.  Very modern.  The staff went out of their way to be helpful to us.  Check in/check out was a breeze, The room was beautiful.  The restaurant was great and the food was delicious.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r585192293-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>585192293</t>
+  </si>
+  <si>
+    <t>06/04/2018</t>
+  </si>
+  <si>
+    <t>Nice, but a few bumps in the road</t>
+  </si>
+  <si>
+    <t>The rooms here are lovely, the beds extremely comfortable, and the staff excellent.  However, they do have a few kinks to iron out.  For example, the thermostat in my room wasn't functioning and although they sent staff within 10 minutes of my call it wasn't fixed for my entire 5 day stay.  I was traveling with co-workers and there were differences in our experiences too.  The bathrobes were wonderful, but mine didn't have a belt.  A co-worker didn't get a robe, but another also got slippers which none of the rest of us did.  Some floors had complimentary fruit and some didn't.  One thing to watch is the "Make a Green Choice" program -- they offer you a reward of $5 for each night you decline housekeeping.  I put the tag on my doorknob the first night and did not the 2nd night, thinking that I would want housekeeping service the next day. HOWEVER, it turns out that once you hang the tag out you do not get clean towels, more bottled water, additional shampoo, or your trash emptied for your entire stay!  I also did not receive the complimentary voucher after my stay.  It's a good idea, but they need to be more explicit about those rules.  In addition, the computer and printer were broken when it came time to print my boarding passes, but the front desk staff were very helpful and offered to let us use their...The rooms here are lovely, the beds extremely comfortable, and the staff excellent.  However, they do have a few kinks to iron out.  For example, the thermostat in my room wasn't functioning and although they sent staff within 10 minutes of my call it wasn't fixed for my entire 5 day stay.  I was traveling with co-workers and there were differences in our experiences too.  The bathrobes were wonderful, but mine didn't have a belt.  A co-worker didn't get a robe, but another also got slippers which none of the rest of us did.  Some floors had complimentary fruit and some didn't.  One thing to watch is the "Make a Green Choice" program -- they offer you a reward of $5 for each night you decline housekeeping.  I put the tag on my doorknob the first night and did not the 2nd night, thinking that I would want housekeeping service the next day. HOWEVER, it turns out that once you hang the tag out you do not get clean towels, more bottled water, additional shampoo, or your trash emptied for your entire stay!  I also did not receive the complimentary voucher after my stay.  It's a good idea, but they need to be more explicit about those rules.  In addition, the computer and printer were broken when it came time to print my boarding passes, but the front desk staff were very helpful and offered to let us use their computers to do do. Wi-Fi is free if you join the SPG rewards program, otherwise you have to pay.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>The rooms here are lovely, the beds extremely comfortable, and the staff excellent.  However, they do have a few kinks to iron out.  For example, the thermostat in my room wasn't functioning and although they sent staff within 10 minutes of my call it wasn't fixed for my entire 5 day stay.  I was traveling with co-workers and there were differences in our experiences too.  The bathrobes were wonderful, but mine didn't have a belt.  A co-worker didn't get a robe, but another also got slippers which none of the rest of us did.  Some floors had complimentary fruit and some didn't.  One thing to watch is the "Make a Green Choice" program -- they offer you a reward of $5 for each night you decline housekeeping.  I put the tag on my doorknob the first night and did not the 2nd night, thinking that I would want housekeeping service the next day. HOWEVER, it turns out that once you hang the tag out you do not get clean towels, more bottled water, additional shampoo, or your trash emptied for your entire stay!  I also did not receive the complimentary voucher after my stay.  It's a good idea, but they need to be more explicit about those rules.  In addition, the computer and printer were broken when it came time to print my boarding passes, but the front desk staff were very helpful and offered to let us use their...The rooms here are lovely, the beds extremely comfortable, and the staff excellent.  However, they do have a few kinks to iron out.  For example, the thermostat in my room wasn't functioning and although they sent staff within 10 minutes of my call it wasn't fixed for my entire 5 day stay.  I was traveling with co-workers and there were differences in our experiences too.  The bathrobes were wonderful, but mine didn't have a belt.  A co-worker didn't get a robe, but another also got slippers which none of the rest of us did.  Some floors had complimentary fruit and some didn't.  One thing to watch is the "Make a Green Choice" program -- they offer you a reward of $5 for each night you decline housekeeping.  I put the tag on my doorknob the first night and did not the 2nd night, thinking that I would want housekeeping service the next day. HOWEVER, it turns out that once you hang the tag out you do not get clean towels, more bottled water, additional shampoo, or your trash emptied for your entire stay!  I also did not receive the complimentary voucher after my stay.  It's a good idea, but they need to be more explicit about those rules.  In addition, the computer and printer were broken when it came time to print my boarding passes, but the front desk staff were very helpful and offered to let us use their computers to do do. Wi-Fi is free if you join the SPG rewards program, otherwise you have to pay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r584213168-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>584213168</t>
+  </si>
+  <si>
+    <t>05/31/2018</t>
+  </si>
+  <si>
+    <t>Le Meridien Houston</t>
+  </si>
+  <si>
+    <t>The employees we encountered were all friendly. We didn't use room service or the restaurant so I can't review those. The room was spacious and very nicely decorated. It was clean and quiet also. It's within walking distance to many restaurants and activities downtown.The rooftop bar area was very nice with great views.This hotel did not disappoint. I have no complaints. Very nice experience. Lovely hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Alan C, General Manager at Le Meridien Houston Downtown, responded to this reviewResponded June 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2018</t>
+  </si>
+  <si>
+    <t>The employees we encountered were all friendly. We didn't use room service or the restaurant so I can't review those. The room was spacious and very nicely decorated. It was clean and quiet also. It's within walking distance to many restaurants and activities downtown.The rooftop bar area was very nice with great views.This hotel did not disappoint. I have no complaints. Very nice experience. Lovely hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r582877115-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>582877115</t>
+  </si>
+  <si>
+    <t>05/26/2018</t>
+  </si>
+  <si>
+    <t>Perfect!</t>
+  </si>
+  <si>
+    <t>Beautiful hotel with exceptional service.  Room was very nice, amenities were lovely.  We enjoyed a drink and snack at the downstairs bar, as well as the rooftop lounge, they did not disappoint!  The foie gras torchon was delightful.  Valet was very helpful and they offered a complimentary shuttle ride to our concert at the Toyota Center.  We opted for a walk there instead, since it was only a few blocks.  Highly recommend!MoreShow less</t>
+  </si>
+  <si>
+    <t>Alan C, General Manager at Le Meridien Houston Downtown, responded to this reviewResponded June 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2018</t>
+  </si>
+  <si>
+    <t>Beautiful hotel with exceptional service.  Room was very nice, amenities were lovely.  We enjoyed a drink and snack at the downstairs bar, as well as the rooftop lounge, they did not disappoint!  The foie gras torchon was delightful.  Valet was very helpful and they offered a complimentary shuttle ride to our concert at the Toyota Center.  We opted for a walk there instead, since it was only a few blocks.  Highly recommend!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r580637843-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>580637843</t>
+  </si>
+  <si>
+    <t>05/16/2018</t>
+  </si>
+  <si>
+    <t>Bring an extension cord if you plan to dry your hair.</t>
+  </si>
+  <si>
+    <t>This hotel is nice however, the one thing that was a huge issue is that it had NO outlets in the bathroom.  The closest outlet was by the coffee station.  There was not a single outlet near a mirror for drying and straightening my hair.  There wasn't a separate dressing area.  It was just all around impossible to get myself ready in this hotel.  Also, the windows were very thing and loud jazz music was playing until 9:00 p.m. and then it started up again around 8:00 a.m.  I had to turn on white noise on my phone to drown out the street noise to get some rest after a busy week of work travel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Alan C, General Manager at Le Meridien Houston Downtown, responded to this reviewResponded May 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2018</t>
+  </si>
+  <si>
+    <t>This hotel is nice however, the one thing that was a huge issue is that it had NO outlets in the bathroom.  The closest outlet was by the coffee station.  There was not a single outlet near a mirror for drying and straightening my hair.  There wasn't a separate dressing area.  It was just all around impossible to get myself ready in this hotel.  Also, the windows were very thing and loud jazz music was playing until 9:00 p.m. and then it started up again around 8:00 a.m.  I had to turn on white noise on my phone to drown out the street noise to get some rest after a busy week of work travel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r580018023-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>580018023</t>
+  </si>
+  <si>
+    <t>05/13/2018</t>
+  </si>
+  <si>
+    <t>Excellent One Night Stay</t>
+  </si>
+  <si>
+    <t>Stayed here for a Saturday evening for a short trip from Dallas. Booked through Hotwire so I didn't set out to stay at this hotel. But I checked the pictures prior to the stay and they don't do this hotel justice. Very nice modern rooms. Clean bathrooms, strong water pressure in the shower. Just all around very impressive. The only downfall is that the overnight valet is $34 and there weren't any easy alternatives in the area for overnight parking.MoreShow less</t>
+  </si>
+  <si>
+    <t>Alan C, General Manager at Le Meridien Houston Downtown, responded to this reviewResponded May 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2018</t>
+  </si>
+  <si>
+    <t>Stayed here for a Saturday evening for a short trip from Dallas. Booked through Hotwire so I didn't set out to stay at this hotel. But I checked the pictures prior to the stay and they don't do this hotel justice. Very nice modern rooms. Clean bathrooms, strong water pressure in the shower. Just all around very impressive. The only downfall is that the overnight valet is $34 and there weren't any easy alternatives in the area for overnight parking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r579234145-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>579234145</t>
+  </si>
+  <si>
+    <t>05/10/2018</t>
+  </si>
+  <si>
+    <t>very nice hotel in downtown with great service</t>
+  </si>
+  <si>
+    <t>I am not familiar with Houston but was in town for a conference and was looking for a nice hotel not too far from the convention center but still far enough away from the tourism that surrounds a convention center -- the Le Meridien fit the bill location wise.As an SPG Platinum member I was upgraded to a king bedroom suite and it was a very nice and modern room.  Good wifi speed, high quality toiletries (Malin+Goetz), Illy coffee machine, a comfortable bed, and nice and quiet AC.  What more could you ask for?The health club was large and full of new equipment but limited on the weight machines.  There was no one there so I had the place to myself whenever I was there.  The hotel also has a nice roof top bar, but it rained two of the nights so i was not able to use it.  The restaurant breakfast is very good.I would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I am not familiar with Houston but was in town for a conference and was looking for a nice hotel not too far from the convention center but still far enough away from the tourism that surrounds a convention center -- the Le Meridien fit the bill location wise.As an SPG Platinum member I was upgraded to a king bedroom suite and it was a very nice and modern room.  Good wifi speed, high quality toiletries (Malin+Goetz), Illy coffee machine, a comfortable bed, and nice and quiet AC.  What more could you ask for?The health club was large and full of new equipment but limited on the weight machines.  There was no one there so I had the place to myself whenever I was there.  The hotel also has a nice roof top bar, but it rained two of the nights so i was not able to use it.  The restaurant breakfast is very good.I would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r572511364-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>572511364</t>
+  </si>
+  <si>
+    <t>04/10/2018</t>
+  </si>
+  <si>
+    <t>Comfortable Modern hotel</t>
+  </si>
+  <si>
+    <t>My wife and I stayed at this hotel while visiting family. We found the place to be modern, clean, and well decorated. The staff were professional, accommodating, and friendly. We stayed in a beautiful Executive King Suite. The room was large, and very comfortable. We enjoyed their rooftop bar, and their restaurant Oxbow 7. Their breakfast menu had a lot of great choices, and was very good. If you like to work out this hotel has a very nice gym. There is no self parking at this hotel only valet. Valet parking at this hotel will cost you around $35.00 a day with in and out privileges. This hotel has laundry service, but not coin operated washers or dryers. Hotel is within walking distance to nice restaurants, sports bars, and a small mall. When we are back in Houston we will definately stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Alan C, General Manager at Le Meridien Houston Downtown, responded to this reviewResponded April 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2018</t>
+  </si>
+  <si>
+    <t>My wife and I stayed at this hotel while visiting family. We found the place to be modern, clean, and well decorated. The staff were professional, accommodating, and friendly. We stayed in a beautiful Executive King Suite. The room was large, and very comfortable. We enjoyed their rooftop bar, and their restaurant Oxbow 7. Their breakfast menu had a lot of great choices, and was very good. If you like to work out this hotel has a very nice gym. There is no self parking at this hotel only valet. Valet parking at this hotel will cost you around $35.00 a day with in and out privileges. This hotel has laundry service, but not coin operated washers or dryers. Hotel is within walking distance to nice restaurants, sports bars, and a small mall. When we are back in Houston we will definately stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r567941293-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>567941293</t>
+  </si>
+  <si>
+    <t>03/21/2018</t>
+  </si>
+  <si>
+    <t>Volleyball Coach</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at the hotel because we were coaching a team playing in the Cross Court Volleyball Tournament at George R Brown. The staff was very courteous. The rooms were nice, and clean. I especially loved the mattresses on the double beds. I have back problems so I can’t tell you how great it is to stay in a hotel and wake up in the morning and not have my back hurting. I LOVED THE BED.  I would love to find out the name of the mattresses they have for the double beds. I’m hoping someone with the hotel can tell me the name of the mattress after they read this review. It was a great stay and was a short walk to the convention center and restaurants. We will definitely stay there again especially because of the great mattresses. Hope to find out the name of the mattresses so I can purchase one for myself.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stephen S, Director of Sales at Le Meridien Houston Downtown, responded to this reviewResponded March 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2018</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at the hotel because we were coaching a team playing in the Cross Court Volleyball Tournament at George R Brown. The staff was very courteous. The rooms were nice, and clean. I especially loved the mattresses on the double beds. I have back problems so I can’t tell you how great it is to stay in a hotel and wake up in the morning and not have my back hurting. I LOVED THE BED.  I would love to find out the name of the mattresses they have for the double beds. I’m hoping someone with the hotel can tell me the name of the mattress after they read this review. It was a great stay and was a short walk to the convention center and restaurants. We will definitely stay there again especially because of the great mattresses. Hope to find out the name of the mattresses so I can purchase one for myself.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r567578842-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>567578842</t>
+  </si>
+  <si>
+    <t>03/19/2018</t>
+  </si>
+  <si>
+    <t>Modern hotel in business district</t>
+  </si>
+  <si>
+    <t>Modern hotel, spacious comfy rooms and bathroom. Very helpful staff. The best of all was the gym which I really enjoyed. Cool roof terrace. Breakfast a la carte only, bit slow and expensive, but OK. Very large portions of food. I recommend the Texas bowl from the breakfast menu. Compared to other hotels in this area definitely good valueMoreShow less</t>
+  </si>
+  <si>
+    <t>Stephen S, Director of Sales at Le Meridien Houston Downtown, responded to this reviewResponded March 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2018</t>
+  </si>
+  <si>
+    <t>Modern hotel, spacious comfy rooms and bathroom. Very helpful staff. The best of all was the gym which I really enjoyed. Cool roof terrace. Breakfast a la carte only, bit slow and expensive, but OK. Very large portions of food. I recommend the Texas bowl from the breakfast menu. Compared to other hotels in this area definitely good valueMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r565943618-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>565943618</t>
+  </si>
+  <si>
+    <t>03/11/2018</t>
+  </si>
+  <si>
+    <t>Astounding Hotel!</t>
+  </si>
+  <si>
+    <t>My best friend and I stayed here for the weekend on March 9, 10 and 11. We were celebrating my 58th birthday. This was our first visit to this escuisit hotel, surprised beyond words. We were not expecting such a glamorous hotel. The front desk personal and valet personal were extremely friendly and hospitable. They even open the elevator for you. You literally feel like a king staying at this fine hotel. The rooms felt brand new, everything was spotless. The decor is second to none. To top it off they have a fantastic view from the 23rd floor with a full service bar. The ambiance of the balcony with beautiful views of downtown Houston is awe inspiring. I can't say enough great things about this place. This is how a fine hotel should be operated. Hats off to all the people that make this hotel click, fantastic job!MoreShow less</t>
+  </si>
+  <si>
+    <t>Stephen S, Director of Sales at Le Meridien Houston Downtown, responded to this reviewResponded March 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2018</t>
+  </si>
+  <si>
+    <t>My best friend and I stayed here for the weekend on March 9, 10 and 11. We were celebrating my 58th birthday. This was our first visit to this escuisit hotel, surprised beyond words. We were not expecting such a glamorous hotel. The front desk personal and valet personal were extremely friendly and hospitable. They even open the elevator for you. You literally feel like a king staying at this fine hotel. The rooms felt brand new, everything was spotless. The decor is second to none. To top it off they have a fantastic view from the 23rd floor with a full service bar. The ambiance of the balcony with beautiful views of downtown Houston is awe inspiring. I can't say enough great things about this place. This is how a fine hotel should be operated. Hats off to all the people that make this hotel click, fantastic job!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r564444248-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>564444248</t>
+  </si>
+  <si>
+    <t>03/04/2018</t>
+  </si>
+  <si>
+    <t>Anniversary Stay</t>
+  </si>
+  <si>
+    <t>My husband and I had an absolutely FANTASTIC stay at Le Meridien!!  The customer service we received was simply outstanding!  We were greeted by Brittany at the front desk, who offered my husband and I champagne to help celebrate our anniversary!  The next day during check out we met the Front Office Manager Ricky who was also truly wonderful.  Amber was also very nice!  Beyond the outstanding customer service we received, the room was also very well appointed and clean.  Excellent stay!!!  We will be back!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Stephen S, Director of Sales at Le Meridien Houston Downtown, responded to this reviewResponded March 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 5, 2018</t>
+  </si>
+  <si>
+    <t>My husband and I had an absolutely FANTASTIC stay at Le Meridien!!  The customer service we received was simply outstanding!  We were greeted by Brittany at the front desk, who offered my husband and I champagne to help celebrate our anniversary!  The next day during check out we met the Front Office Manager Ricky who was also truly wonderful.  Amber was also very nice!  Beyond the outstanding customer service we received, the room was also very well appointed and clean.  Excellent stay!!!  We will be back!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r563356594-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>563356594</t>
+  </si>
+  <si>
+    <t>02/28/2018</t>
+  </si>
+  <si>
+    <t>This new hotel has some work to do</t>
+  </si>
+  <si>
+    <t>The Le Meridian hotel in Houston has a convenient location, but they have a few issues to work out before I would ever consider staying there again. The water pressure in the shower was really weak and inadequate to rinse shampoo from my hair. Even worse, for room service continental breakfast all they delivered was a cold and completely soggy english muffin. That was a bit shocking for a Starwood hotel. Hopefully they work these things out before too long.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Stephen S, Director of Sales at Le Meridien Houston Downtown, responded to this reviewResponded March 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 1, 2018</t>
+  </si>
+  <si>
+    <t>The Le Meridian hotel in Houston has a convenient location, but they have a few issues to work out before I would ever consider staying there again. The water pressure in the shower was really weak and inadequate to rinse shampoo from my hair. Even worse, for room service continental breakfast all they delivered was a cold and completely soggy english muffin. That was a bit shocking for a Starwood hotel. Hopefully they work these things out before too long.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r562379212-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>562379212</t>
+  </si>
+  <si>
+    <t>02/23/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Favorite hotel in Houston </t>
+  </si>
+  <si>
+    <t>I’ve been staying at the le meridien in Houston every week for the last ~3 months. I tried most of the comparable hotels in Houston and love the le meridien. They have great service and although no platinum lounge, they make up for it in other ways.... it’s a great home away from home for me! MoreShow less</t>
+  </si>
+  <si>
+    <t>Stephen S, Director of Sales at Le Meridien Houston Downtown, responded to this reviewResponded February 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 26, 2018</t>
+  </si>
+  <si>
+    <t>I’ve been staying at the le meridien in Houston every week for the last ~3 months. I tried most of the comparable hotels in Houston and love the le meridien. They have great service and although no platinum lounge, they make up for it in other ways.... it’s a great home away from home for me! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r562195918-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>562195918</t>
+  </si>
+  <si>
+    <t>02/22/2018</t>
+  </si>
+  <si>
+    <t>The Hospitality here was Amazing!</t>
+  </si>
+  <si>
+    <t>I have to give 2 thumbs up to Travis at the front desk who made my stay so personal!  He took complete care of me.  This was a perfect Hotel for my needs.  I was here for a business stay and the staff at the Le Meridien made work feel more like play!  Great property...luxury feel at a reasonable price point located in the heart of Downtown Houston.  Hint: for wine lovers, they offer a complimentary Happy Hour with really good wine!MoreShow less</t>
+  </si>
+  <si>
+    <t>Stephen S, Director of Sales at Le Meridien Houston Downtown, responded to this reviewResponded February 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2018</t>
+  </si>
+  <si>
+    <t>I have to give 2 thumbs up to Travis at the front desk who made my stay so personal!  He took complete care of me.  This was a perfect Hotel for my needs.  I was here for a business stay and the staff at the Le Meridien made work feel more like play!  Great property...luxury feel at a reasonable price point located in the heart of Downtown Houston.  Hint: for wine lovers, they offer a complimentary Happy Hour with really good wine!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r561901257-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>561901257</t>
+  </si>
+  <si>
+    <t>02/21/2018</t>
+  </si>
+  <si>
+    <t>I love the property</t>
+  </si>
+  <si>
+    <t>From the time I pulled up until the time I left i was impressed. The staff and space were all top notch. I had an issue and it was rectified immediately. The rooftop bar gives a nice view of downtown. The gym is pristine. A must stay.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Stephen S, Director of Sales at Le Meridien Houston Downtown, responded to this reviewResponded February 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2018</t>
+  </si>
+  <si>
+    <t>From the time I pulled up until the time I left i was impressed. The staff and space were all top notch. I had an issue and it was rectified immediately. The rooftop bar gives a nice view of downtown. The gym is pristine. A must stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r561127519-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>561127519</t>
+  </si>
+  <si>
+    <t>02/17/2018</t>
+  </si>
+  <si>
+    <t>Downtown modern luxury</t>
+  </si>
+  <si>
+    <t>This is a Westin-Sheraton brand (now all belong to Marriott) in downtown. Modern, sleek, and luxurious. Personnel was excellent starting from the entrance all the way to the rooftop bar. Selecting this type of people shows care and dedication on the part of management which is extremely rare no matter which area of life you look at. I will definitely return when I am back in downtown H.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stephen S, Director of Sales at Le Meridien Houston Downtown, responded to this reviewResponded February 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2018</t>
+  </si>
+  <si>
+    <t>This is a Westin-Sheraton brand (now all belong to Marriott) in downtown. Modern, sleek, and luxurious. Personnel was excellent starting from the entrance all the way to the rooftop bar. Selecting this type of people shows care and dedication on the part of management which is extremely rare no matter which area of life you look at. I will definitely return when I am back in downtown H.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r560298137-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>560298137</t>
+  </si>
+  <si>
+    <t>02/13/2018</t>
+  </si>
+  <si>
+    <t>AMAZING HOTEL AND AMAZING STAFF!!!</t>
+  </si>
+  <si>
+    <t>My husband and I have stayed here twice and been very impressed. Everyone on their staff was extremely helpful and nice! Especially Travis, he went our of his way to make our day! The décor had a mid century modern feel throughout the hotel. The hotel even has a nice roof top bar! The location was perfect, in the mix of all the restaurants and bars. I cannot recommend this hotel enough!MoreShow less</t>
+  </si>
+  <si>
+    <t>Stephen S, Director of Sales at Le Meridien Houston Downtown, responded to this reviewResponded February 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 15, 2018</t>
+  </si>
+  <si>
+    <t>My husband and I have stayed here twice and been very impressed. Everyone on their staff was extremely helpful and nice! Especially Travis, he went our of his way to make our day! The décor had a mid century modern feel throughout the hotel. The hotel even has a nice roof top bar! The location was perfect, in the mix of all the restaurants and bars. I cannot recommend this hotel enough!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r559556504-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>559556504</t>
+  </si>
+  <si>
+    <t>02/10/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staff was amazing. Room was nice </t>
+  </si>
+  <si>
+    <t>Haven’t had staff this friendly in a very long time at a hotel. The hotel was nice, central and mostly convenient. I was upgraded to a suite that had a lot of room and was very clean. The door staff and desk staff did everything to make my stay convenient . I’d stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Stephen S, Director of Sales at Le Meridien Houston Downtown, responded to this reviewResponded February 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 12, 2018</t>
+  </si>
+  <si>
+    <t>Haven’t had staff this friendly in a very long time at a hotel. The hotel was nice, central and mostly convenient. I was upgraded to a suite that had a lot of room and was very clean. The door staff and desk staff did everything to make my stay convenient . I’d stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r558667003-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>558667003</t>
+  </si>
+  <si>
+    <t>02/05/2018</t>
+  </si>
+  <si>
+    <t>New, modern, comfortable, convenient location</t>
+  </si>
+  <si>
+    <t>I got stuck in downtown Houston the day that most of the major roadways were frozen over and too dangerous to travel.  I booked a room at the Le Meridien on Walker Street and was definitely not disappointed.  My stay was very short, but pleasant.  In a nutshell:* Friendly, welcoming front desk staff* Complimentary glasses of wine at check-in* Restaurant was open with a limited menu (most of the city was shut down)* I did not plan on spending the night in a hotel therefore had nothing packed.  They were able to provide me with toothpaste, a toothbrush, and deodorant.* The room was very spacious, clean, and comfortable.  I wish I could have stayed longer!* One of my favorite things about the hotel was the in-room coffee maker - I was able to brew espresso and regular coffee with high quality pods - none of that crappy stuff that you find at many other hotels* Location - right in the heart of downtownHighly recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stephen S, Director of Sales at Le Meridien Houston Downtown, responded to this reviewResponded February 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 7, 2018</t>
+  </si>
+  <si>
+    <t>I got stuck in downtown Houston the day that most of the major roadways were frozen over and too dangerous to travel.  I booked a room at the Le Meridien on Walker Street and was definitely not disappointed.  My stay was very short, but pleasant.  In a nutshell:* Friendly, welcoming front desk staff* Complimentary glasses of wine at check-in* Restaurant was open with a limited menu (most of the city was shut down)* I did not plan on spending the night in a hotel therefore had nothing packed.  They were able to provide me with toothpaste, a toothbrush, and deodorant.* The room was very spacious, clean, and comfortable.  I wish I could have stayed longer!* One of my favorite things about the hotel was the in-room coffee maker - I was able to brew espresso and regular coffee with high quality pods - none of that crappy stuff that you find at many other hotels* Location - right in the heart of downtownHighly recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r558121353-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>558121353</t>
+  </si>
+  <si>
+    <t>02/03/2018</t>
+  </si>
+  <si>
+    <t>Great location and nice, comfortable rooms</t>
+  </si>
+  <si>
+    <t>Stayed several nights for business travel. Overall a highly positive stay and would recommend. Unfortunately let down by inconsistent housekeeping and lack of food/menu options.
+Rooms are large, with high ceilings and modern. Wifi reception is reliable and available throughout the room, approx. 10 mbps download speed. USB sockets located in plug sockets on either side of bed and below TV. Large TV in room, with good selection of channels: news, documentary and entertainment. Air-conditioning works well and easy to use. In-room mini fridge, Illy coffee machine and safe provided.
+There is construction works next door and noise of hammering and heavy machinery was heard up to 10pm. Likewise traffic is audible at least to the 10th floor and probably above. The curtain did not sit flush against the wall, causing light to pour in from flood lights illuminating the hotel outside. 
+A cozy bathroom with walk-in shower and rain style showerhead. Water pressure is not strong but doesn’t trickle out. Amenities provided: soap, body wash, conditioner and moisturiser. Hair dryer and bathrobe available. No slippers provided.
+Cleanliness is good but daily housekeeping service was inconsistent: towels removed but not replaced, amenities removed and not replaced. Bathrobe disappeared after a few nights. Same with the coffee machine, capsules and cups sometimes not replaced.
+Room service is available but considered the selection “exotic”, limited and quite expensive. For business travel you sometimes want simple foods, i.e. spaghetti or pizza. Delivery fee...Stayed several nights for business travel. Overall a highly positive stay and would recommend. Unfortunately let down by inconsistent housekeeping and lack of food/menu options.Rooms are large, with high ceilings and modern. Wifi reception is reliable and available throughout the room, approx. 10 mbps download speed. USB sockets located in plug sockets on either side of bed and below TV. Large TV in room, with good selection of channels: news, documentary and entertainment. Air-conditioning works well and easy to use. In-room mini fridge, Illy coffee machine and safe provided.There is construction works next door and noise of hammering and heavy machinery was heard up to 10pm. Likewise traffic is audible at least to the 10th floor and probably above. The curtain did not sit flush against the wall, causing light to pour in from flood lights illuminating the hotel outside. A cozy bathroom with walk-in shower and rain style showerhead. Water pressure is not strong but doesn’t trickle out. Amenities provided: soap, body wash, conditioner and moisturiser. Hair dryer and bathrobe available. No slippers provided.Cleanliness is good but daily housekeeping service was inconsistent: towels removed but not replaced, amenities removed and not replaced. Bathrobe disappeared after a few nights. Same with the coffee machine, capsules and cups sometimes not replaced.Room service is available but considered the selection “exotic”, limited and quite expensive. For business travel you sometimes want simple foods, i.e. spaghetti or pizza. Delivery fee and service charge are added, $3 and 22% respectively. Room service took 45 minutes to deliver on one occasion.The single restaurant, Oxbow7, is located on ground floor. Provides breakfast from 6am, a la carte and no buffet options, which is a shame. The a la carte choice does not list ordinary breakfast cereals, therefore suggest purchasing from CVS located a couple blocks away, and utilising in-room coffee machine and fridge. The staff are friendly and are a great asset to the restaurant.The rooftop bar, Hoggbirds, provides a great view across Downtown Houston. Drinks and snack menu are available, the portions are small. Next to the bar is the fitness centre, which was well equipped, with treadmills, weights and other exercise machines.Very friendly door-men and staff throughout the hotel. Kudos to them.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stephen S, Director of Sales at Le Meridien Houston Downtown, responded to this reviewResponded February 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 5, 2018</t>
+  </si>
+  <si>
+    <t>Stayed several nights for business travel. Overall a highly positive stay and would recommend. Unfortunately let down by inconsistent housekeeping and lack of food/menu options.
+Rooms are large, with high ceilings and modern. Wifi reception is reliable and available throughout the room, approx. 10 mbps download speed. USB sockets located in plug sockets on either side of bed and below TV. Large TV in room, with good selection of channels: news, documentary and entertainment. Air-conditioning works well and easy to use. In-room mini fridge, Illy coffee machine and safe provided.
+There is construction works next door and noise of hammering and heavy machinery was heard up to 10pm. Likewise traffic is audible at least to the 10th floor and probably above. The curtain did not sit flush against the wall, causing light to pour in from flood lights illuminating the hotel outside. 
+A cozy bathroom with walk-in shower and rain style showerhead. Water pressure is not strong but doesn’t trickle out. Amenities provided: soap, body wash, conditioner and moisturiser. Hair dryer and bathrobe available. No slippers provided.
+Cleanliness is good but daily housekeeping service was inconsistent: towels removed but not replaced, amenities removed and not replaced. Bathrobe disappeared after a few nights. Same with the coffee machine, capsules and cups sometimes not replaced.
+Room service is available but considered the selection “exotic”, limited and quite expensive. For business travel you sometimes want simple foods, i.e. spaghetti or pizza. Delivery fee...Stayed several nights for business travel. Overall a highly positive stay and would recommend. Unfortunately let down by inconsistent housekeeping and lack of food/menu options.Rooms are large, with high ceilings and modern. Wifi reception is reliable and available throughout the room, approx. 10 mbps download speed. USB sockets located in plug sockets on either side of bed and below TV. Large TV in room, with good selection of channels: news, documentary and entertainment. Air-conditioning works well and easy to use. In-room mini fridge, Illy coffee machine and safe provided.There is construction works next door and noise of hammering and heavy machinery was heard up to 10pm. Likewise traffic is audible at least to the 10th floor and probably above. The curtain did not sit flush against the wall, causing light to pour in from flood lights illuminating the hotel outside. A cozy bathroom with walk-in shower and rain style showerhead. Water pressure is not strong but doesn’t trickle out. Amenities provided: soap, body wash, conditioner and moisturiser. Hair dryer and bathrobe available. No slippers provided.Cleanliness is good but daily housekeeping service was inconsistent: towels removed but not replaced, amenities removed and not replaced. Bathrobe disappeared after a few nights. Same with the coffee machine, capsules and cups sometimes not replaced.Room service is available but considered the selection “exotic”, limited and quite expensive. For business travel you sometimes want simple foods, i.e. spaghetti or pizza. Delivery fee and service charge are added, $3 and 22% respectively. Room service took 45 minutes to deliver on one occasion.The single restaurant, Oxbow7, is located on ground floor. Provides breakfast from 6am, a la carte and no buffet options, which is a shame. The a la carte choice does not list ordinary breakfast cereals, therefore suggest purchasing from CVS located a couple blocks away, and utilising in-room coffee machine and fridge. The staff are friendly and are a great asset to the restaurant.The rooftop bar, Hoggbirds, provides a great view across Downtown Houston. Drinks and snack menu are available, the portions are small. Next to the bar is the fitness centre, which was well equipped, with treadmills, weights and other exercise machines.Very friendly door-men and staff throughout the hotel. Kudos to them.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r557979452-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>557979452</t>
+  </si>
+  <si>
+    <t>02/02/2018</t>
+  </si>
+  <si>
+    <t>LeMeridien January 2018</t>
+  </si>
+  <si>
+    <t>From the moment I walked into the door, until i left, the experience at this hotel was amazing.  Robin Moncrieffe was responsible for helping  my trade association book several rooms.  The pricing and customer services were top notch.  The reservation check in team and restaurant servers were exceptional.MoreShow less</t>
+  </si>
+  <si>
+    <t>From the moment I walked into the door, until i left, the experience at this hotel was amazing.  Robin Moncrieffe was responsible for helping  my trade association book several rooms.  The pricing and customer services were top notch.  The reservation check in team and restaurant servers were exceptional.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r553065996-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>553065996</t>
+  </si>
+  <si>
+    <t>01/10/2018</t>
+  </si>
+  <si>
+    <t>Great new downtown hotel</t>
+  </si>
+  <si>
+    <t>I stayed here for a night while traveling on business. The location is great if you are working downtown as you can walk to your clients. The hotel is clean and new and the rooms are nice and quiet as well. The lobby area is nice and there is a restaurant where I had a good breakfast for a reasonable price. The hotel was a value for downtown at the time and is one that should be considered.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Stephen S, Director of Sales at Le Meridien Houston Downtown, responded to this reviewResponded January 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 12, 2018</t>
+  </si>
+  <si>
+    <t>I stayed here for a night while traveling on business. The location is great if you are working downtown as you can walk to your clients. The hotel is clean and new and the rooms are nice and quiet as well. The lobby area is nice and there is a restaurant where I had a good breakfast for a reasonable price. The hotel was a value for downtown at the time and is one that should be considered.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r551288610-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>551288610</t>
+  </si>
+  <si>
+    <t>01/03/2018</t>
+  </si>
+  <si>
+    <t>A place to rejuvenate</t>
+  </si>
+  <si>
+    <t>Our plan for our two-night stay at Le Meridien was to relax in comfort. We wanted to leave our room only while it was being cleaned. The service provided by the friendly, courteous and understanding staff at Le Meridien made our stay a wonderful experience. We were able to order, and be nicely served in our room, delicious food, beautifully presented, from one of Houston's top restaurants, Oxbow 7. Although we live in Houston, we had decided to check into a luxury hotel to recuperate after an accident and a two-day hospital stay by my husband. We wanted a large room with two beds, a bathroom with a tub, a nice view, room service and a kind and courteous staff. We found all of this and much more at Le Meridien. Everyone we dealt with at the hotel was lovely. During our stay, we did almost nothing except doze off, bathe and eat exquisite food. We both left feeling 100 percent better than we did when we checked in. I would recommend such a retreat to anyone who simply wants to get away and rejuvenate. MoreShow less</t>
+  </si>
+  <si>
+    <t>Stephen S, Director of Sales at Le Meridien Houston Downtown, responded to this reviewResponded January 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2018</t>
+  </si>
+  <si>
+    <t>Our plan for our two-night stay at Le Meridien was to relax in comfort. We wanted to leave our room only while it was being cleaned. The service provided by the friendly, courteous and understanding staff at Le Meridien made our stay a wonderful experience. We were able to order, and be nicely served in our room, delicious food, beautifully presented, from one of Houston's top restaurants, Oxbow 7. Although we live in Houston, we had decided to check into a luxury hotel to recuperate after an accident and a two-day hospital stay by my husband. We wanted a large room with two beds, a bathroom with a tub, a nice view, room service and a kind and courteous staff. We found all of this and much more at Le Meridien. Everyone we dealt with at the hotel was lovely. During our stay, we did almost nothing except doze off, bathe and eat exquisite food. We both left feeling 100 percent better than we did when we checked in. I would recommend such a retreat to anyone who simply wants to get away and rejuvenate. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r550910836-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>550910836</t>
+  </si>
+  <si>
+    <t>01/02/2018</t>
+  </si>
+  <si>
+    <t>Great new central hotel</t>
+  </si>
+  <si>
+    <t>Everything is shiny and new. This hotel opened in September 2017 and is centrally placed on Walker street, Downtown. Valet parking only which was $34 + tax a night. Reception is on level 2. There are three lifts so we were never left waiting. It pays to be a SPG member as we were surprised we were Gold members (we travel a lot) and were given free wifi and a top level preferred room (level 21). We had forgotten our SPG number and he looked us up with our zip code. The wifi is great. 
+We were in a standard king room and it had lots of room for activities. The bed was comfortable, the pillows were too soft for me. A pillow menu would make this hotel truly luxurious. The in-room coffee maker is very modern and great. The tea brand is amazing. Shower pressure - perfect. In room dining and breakfast available $3 delivery + 20% service charge. 
+They have a green programme which is great if you are after points, 500 SPG points if you don't have your room serviced per night. This basically means having the privacy sign out. They didn't empty our bins and we had to leave it outside our room to be emptied. We left it out one day and it never returned – bit odd! I hope we aren’t charged for this. So, I think at the bare minimum they should come...Everything is shiny and new. This hotel opened in September 2017 and is centrally placed on Walker street, Downtown. Valet parking only which was $34 + tax a night. Reception is on level 2. There are three lifts so we were never left waiting. It pays to be a SPG member as we were surprised we were Gold members (we travel a lot) and were given free wifi and a top level preferred room (level 21). We had forgotten our SPG number and he looked us up with our zip code. The wifi is great. We were in a standard king room and it had lots of room for activities. The bed was comfortable, the pillows were too soft for me. A pillow menu would make this hotel truly luxurious. The in-room coffee maker is very modern and great. The tea brand is amazing. Shower pressure - perfect. In room dining and breakfast available $3 delivery + 20% service charge. They have a green programme which is great if you are after points, 500 SPG points if you don't have your room serviced per night. This basically means having the privacy sign out. They didn't empty our bins and we had to leave it outside our room to be emptied. We left it out one day and it never returned – bit odd! I hope we aren’t charged for this. So, I think at the bare minimum they should come into your room to empty the bins, do a quick vacuum/sweep and provide new coffee/tea. It was a wee bit annoying to ring and ask for more coffee/tea/water each day. We had breakfast included in our room rate. They give you vouchers to use in their restaurant on the ground level. $40 for two of us / $20 each. This may seem like a lot but a standard black coffee cost almost $4, standard granola $12.  Breakfast was great and I have no complaints over the quality of the breakfast food. They are European sized meals so just be aware of that. The issues lay in the inconsistency of the staff and this is why the hotel drops a star. One day we were randomly charged 20% service charge for no reason at all – it wasn’t new years day, nothing special was on. This put the value of our breakfast over $40 and we were expected to tip on top of this. The food is not worth an extra 40% (20% tip)! The method in which they serve you is also random, another table was served before us even though we arrived first. We ordered dessert one evening and it wasn’t the best if I’m honest, the brownie I had was actually stale so I can’t recommend that.The roof top bar and area are great, when its open that is. We stayed for three nights and all three nights it was shut by 9-10pm. On New Years Eve one would think they would have it open to enjoy the fireworks / view maybe host a party up there etc. Nope, nothing. So, we were very disappointed in that as the view from there is amazing. The view from the bar on the ground floor is not. We actually choose this hotel for the roof top bar so that was a let-down.The gym is very modern and great.  I would stay again but I wouldn’t bother with the restaurant again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Stephen S, Director of Sales at Le Meridien Houston Downtown, responded to this reviewResponded January 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 3, 2018</t>
+  </si>
+  <si>
+    <t>Everything is shiny and new. This hotel opened in September 2017 and is centrally placed on Walker street, Downtown. Valet parking only which was $34 + tax a night. Reception is on level 2. There are three lifts so we were never left waiting. It pays to be a SPG member as we were surprised we were Gold members (we travel a lot) and were given free wifi and a top level preferred room (level 21). We had forgotten our SPG number and he looked us up with our zip code. The wifi is great. 
+We were in a standard king room and it had lots of room for activities. The bed was comfortable, the pillows were too soft for me. A pillow menu would make this hotel truly luxurious. The in-room coffee maker is very modern and great. The tea brand is amazing. Shower pressure - perfect. In room dining and breakfast available $3 delivery + 20% service charge. 
+They have a green programme which is great if you are after points, 500 SPG points if you don't have your room serviced per night. This basically means having the privacy sign out. They didn't empty our bins and we had to leave it outside our room to be emptied. We left it out one day and it never returned – bit odd! I hope we aren’t charged for this. So, I think at the bare minimum they should come...Everything is shiny and new. This hotel opened in September 2017 and is centrally placed on Walker street, Downtown. Valet parking only which was $34 + tax a night. Reception is on level 2. There are three lifts so we were never left waiting. It pays to be a SPG member as we were surprised we were Gold members (we travel a lot) and were given free wifi and a top level preferred room (level 21). We had forgotten our SPG number and he looked us up with our zip code. The wifi is great. We were in a standard king room and it had lots of room for activities. The bed was comfortable, the pillows were too soft for me. A pillow menu would make this hotel truly luxurious. The in-room coffee maker is very modern and great. The tea brand is amazing. Shower pressure - perfect. In room dining and breakfast available $3 delivery + 20% service charge. They have a green programme which is great if you are after points, 500 SPG points if you don't have your room serviced per night. This basically means having the privacy sign out. They didn't empty our bins and we had to leave it outside our room to be emptied. We left it out one day and it never returned – bit odd! I hope we aren’t charged for this. So, I think at the bare minimum they should come into your room to empty the bins, do a quick vacuum/sweep and provide new coffee/tea. It was a wee bit annoying to ring and ask for more coffee/tea/water each day. We had breakfast included in our room rate. They give you vouchers to use in their restaurant on the ground level. $40 for two of us / $20 each. This may seem like a lot but a standard black coffee cost almost $4, standard granola $12.  Breakfast was great and I have no complaints over the quality of the breakfast food. They are European sized meals so just be aware of that. The issues lay in the inconsistency of the staff and this is why the hotel drops a star. One day we were randomly charged 20% service charge for no reason at all – it wasn’t new years day, nothing special was on. This put the value of our breakfast over $40 and we were expected to tip on top of this. The food is not worth an extra 40% (20% tip)! The method in which they serve you is also random, another table was served before us even though we arrived first. We ordered dessert one evening and it wasn’t the best if I’m honest, the brownie I had was actually stale so I can’t recommend that.The roof top bar and area are great, when its open that is. We stayed for three nights and all three nights it was shut by 9-10pm. On New Years Eve one would think they would have it open to enjoy the fireworks / view maybe host a party up there etc. Nope, nothing. So, we were very disappointed in that as the view from there is amazing. The view from the bar on the ground floor is not. We actually choose this hotel for the roof top bar so that was a let-down.The gym is very modern and great.  I would stay again but I wouldn’t bother with the restaurant again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r545543246-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>545543246</t>
+  </si>
+  <si>
+    <t>12/06/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice spot. Mostly great service. </t>
+  </si>
+  <si>
+    <t>The staff was great. Check in and check out were easy and enjoyable. The valet help was awesome. Great guys. The restaurant including Shane was awesome. Great knowledge of the menu. Work our faculty was also perfect for me. The bartender was interesting. She tersely told me it was last call. Then served more valued customers for another half hour and ignored me. She then tried to buy me a free beer. I told her no. I will pay for what I ordered. Weird. The roof top bartender was really engaging and fun. MoreShow less</t>
+  </si>
+  <si>
+    <t>Stephen S, Director of Sales at Le Meridien Houston Downtown, responded to this reviewResponded December 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 8, 2017</t>
+  </si>
+  <si>
+    <t>The staff was great. Check in and check out were easy and enjoyable. The valet help was awesome. Great guys. The restaurant including Shane was awesome. Great knowledge of the menu. Work our faculty was also perfect for me. The bartender was interesting. She tersely told me it was last call. Then served more valued customers for another half hour and ignored me. She then tried to buy me a free beer. I told her no. I will pay for what I ordered. Weird. The roof top bartender was really engaging and fun. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r544667149-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>544667149</t>
+  </si>
+  <si>
+    <t>12/02/2017</t>
+  </si>
+  <si>
+    <t>Do NOT Recommend / Over 20+ Nights Here and Here's My Review</t>
+  </si>
+  <si>
+    <t>Context first.. provided nearly 50+ nights of revenue to this hotel between myself and my 15+ team that traveled nearly every week since opening- most comprise of 100+ night/year SPG travelers.  Needless to say, that's enough data points to tell you:1.) Poor Customer Service: long check-ins, repeat issues on check-ins Monday evening, bad attitudes with select staff (4 weeks in a row the room cards were improperly scanned and you were locked out, like clock-work)2.) Operationally Dysfunctional: Management can't seem to course-correct the issues that were raised multiple times (e.g., folios with incorrect billings)3.) Value / Price: with FEMA around after the hurricane, hotel availability was difficult, but now that that has receded, you will find better options elsewhere.  The St. Regis and the Westin in the Galleria provided far better experiences for the price.Overall, disappointed with this experience.  Great brand, but poor hotel in Houston. Stay elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Stephen S, Director of Sales at Le Meridien Houston Downtown, responded to this reviewResponded December 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 4, 2017</t>
+  </si>
+  <si>
+    <t>Context first.. provided nearly 50+ nights of revenue to this hotel between myself and my 15+ team that traveled nearly every week since opening- most comprise of 100+ night/year SPG travelers.  Needless to say, that's enough data points to tell you:1.) Poor Customer Service: long check-ins, repeat issues on check-ins Monday evening, bad attitudes with select staff (4 weeks in a row the room cards were improperly scanned and you were locked out, like clock-work)2.) Operationally Dysfunctional: Management can't seem to course-correct the issues that were raised multiple times (e.g., folios with incorrect billings)3.) Value / Price: with FEMA around after the hurricane, hotel availability was difficult, but now that that has receded, you will find better options elsewhere.  The St. Regis and the Westin in the Galleria provided far better experiences for the price.Overall, disappointed with this experience.  Great brand, but poor hotel in Houston. Stay elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r544480344-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>544480344</t>
+  </si>
+  <si>
+    <t>12/01/2017</t>
+  </si>
+  <si>
+    <t>Great stay downtown Great Staff</t>
+  </si>
+  <si>
+    <t>I checked in on a Monday evening and was immediately greeted by the staff (Bakala I think is his name).  I checked in with Brittany, she was very professional and really nice. i was upgraded to a very nice suit. I also had the pleasure of meeting with Evita and Mario.  They are very very professional and nice!  The front desk staff is personable and professional.  They were very accommodating!  If i go back to Houston, i plan to stay at this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>I checked in on a Monday evening and was immediately greeted by the staff (Bakala I think is his name).  I checked in with Brittany, she was very professional and really nice. i was upgraded to a very nice suit. I also had the pleasure of meeting with Evita and Mario.  They are very very professional and nice!  The front desk staff is personable and professional.  They were very accommodating!  If i go back to Houston, i plan to stay at this hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r542442057-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>542442057</t>
+  </si>
+  <si>
+    <t>11/21/2017</t>
+  </si>
+  <si>
+    <t>Spacious room, great front desk and parking valet staff</t>
+  </si>
+  <si>
+    <t>New hotel but it was running like a well-oiled machine.  Smooth check in and check out with friendly front desk team.  Parking valets were also friendly and efficient.  Room was very comfortable, large and clean.  Only issue, post-check out:  I was charged for a mini bar item that I did not take, but one phone call rectified the problem.  Overall, I will stay here again the next time I need to be downtown.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stephen S, Director of Sales at Le Meridien Houston Downtown, responded to this reviewResponded November 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 22, 2017</t>
+  </si>
+  <si>
+    <t>New hotel but it was running like a well-oiled machine.  Smooth check in and check out with friendly front desk team.  Parking valets were also friendly and efficient.  Room was very comfortable, large and clean.  Only issue, post-check out:  I was charged for a mini bar item that I did not take, but one phone call rectified the problem.  Overall, I will stay here again the next time I need to be downtown.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r541194552-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>541194552</t>
+  </si>
+  <si>
+    <t>11/15/2017</t>
+  </si>
+  <si>
+    <t>New Hotel, Cool place</t>
+  </si>
+  <si>
+    <t>I had to attend a meeting at the Le Meridien, not that familiar with Le Meridien, I didn't know what to expect- WOW. It was a great stay and the safe was very friendly and fun. My guestroom was amazingly large for a downtown hotel room, love the Mid-century décor. We had an event on the rooftop, great views, perfect weather and wonderful food. This was a new hotel so they did have some thing they were working through but it was still a great stay. I will 100% returnMoreShow less</t>
+  </si>
+  <si>
+    <t>Stephen S, Director of Sales at Le Meridien Houston Downtown, responded to this reviewResponded November 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2017</t>
+  </si>
+  <si>
+    <t>I had to attend a meeting at the Le Meridien, not that familiar with Le Meridien, I didn't know what to expect- WOW. It was a great stay and the safe was very friendly and fun. My guestroom was amazingly large for a downtown hotel room, love the Mid-century décor. We had an event on the rooftop, great views, perfect weather and wonderful food. This was a new hotel so they did have some thing they were working through but it was still a great stay. I will 100% returnMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r541006002-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>541006002</t>
+  </si>
+  <si>
+    <t>11/14/2017</t>
+  </si>
+  <si>
+    <t>Higher level but rather stark</t>
+  </si>
+  <si>
+    <t>Nice, new facility.  The rooms are clean and comfortable, as are the bathrooms.  My only ‘nit’ was that the HVAC was set up such that the fan couldn’t be set to on, but rather came on or off in sync with the compressor.  For those who like air circulation and do not like on/off cycles, it can be annoying.  Personnel were pleasant.  The restaurant, Oxbow, is another matter, and will be reviewed separately.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stephen S, Director of Sales at Le Meridien Houston Downtown, responded to this reviewResponded November 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 16, 2017</t>
+  </si>
+  <si>
+    <t>Nice, new facility.  The rooms are clean and comfortable, as are the bathrooms.  My only ‘nit’ was that the HVAC was set up such that the fan couldn’t be set to on, but rather came on or off in sync with the compressor.  For those who like air circulation and do not like on/off cycles, it can be annoying.  Personnel were pleasant.  The restaurant, Oxbow, is another matter, and will be reviewed separately.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r538458042-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>538458042</t>
+  </si>
+  <si>
+    <t>11/05/2017</t>
+  </si>
+  <si>
+    <t>Clean, modern, basic</t>
+  </si>
+  <si>
+    <t>We stayed here one night. The hotel is newely renovated and it can be seen. Our stay was uneventful. Staff was friendly. Rooms was clean and nicely decorated. Nice coffee in the room.My only issues was we got the SPG subscription done at check in and my last name was spelled wrong and now it's a nightmare to fix. The staff did nit know how to fix it; the manager did corrected according to him, but when I went online at SPG it was not. Niw I cannit link my acxiunt with Marriott since the last names do not match... Make sure you do it yourself before.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stephen S, Director of Sales at Le Meridien Houston Downtown, responded to this reviewResponded November 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 27, 2017</t>
+  </si>
+  <si>
+    <t>We stayed here one night. The hotel is newely renovated and it can be seen. Our stay was uneventful. Staff was friendly. Rooms was clean and nicely decorated. Nice coffee in the room.My only issues was we got the SPG subscription done at check in and my last name was spelled wrong and now it's a nightmare to fix. The staff did nit know how to fix it; the manager did corrected according to him, but when I went online at SPG it was not. Niw I cannit link my acxiunt with Marriott since the last names do not match... Make sure you do it yourself before.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r537540942-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>537540942</t>
+  </si>
+  <si>
+    <t>10/31/2017</t>
+  </si>
+  <si>
+    <t>Great Service !!!</t>
+  </si>
+  <si>
+    <t>Awesome hotel ! very spacious rooms, and clean.Travis provided awesome service and he is so funny as well, it was always a pleasure to see him at the front desk and speaking to him over the phone, so polite. Best part after I departed he called me personally to wish me safe travels to my next destination, made me feel special. Awesome service ! My experiences was great and the service was awesome,everyone have they opinion, but the best thing to do is see for yourself. my overall experiences 2 tumbs up and I will be returning to see my favorite person Travis ! He will get the job done ! Didn't eat at the restaurant, but I heard it was a okay joint from co workers.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stephen S, Director of Sales at Le Meridien Houston Downtown, responded to this reviewResponded November 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 2, 2017</t>
+  </si>
+  <si>
+    <t>Awesome hotel ! very spacious rooms, and clean.Travis provided awesome service and he is so funny as well, it was always a pleasure to see him at the front desk and speaking to him over the phone, so polite. Best part after I departed he called me personally to wish me safe travels to my next destination, made me feel special. Awesome service ! My experiences was great and the service was awesome,everyone have they opinion, but the best thing to do is see for yourself. my overall experiences 2 tumbs up and I will be returning to see my favorite person Travis ! He will get the job done ! Didn't eat at the restaurant, but I heard it was a okay joint from co workers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r537259537-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>537259537</t>
+  </si>
+  <si>
+    <t>10/30/2017</t>
+  </si>
+  <si>
+    <t>World Series weekend</t>
+  </si>
+  <si>
+    <t>Very nice hotel blocks from Minute Maid Park.  Staff was incredibly nice and helpful.  Valet was a bit steep at $35.00 but may be due to World Series.  Room was very Art Deco and nice.  Very clean and welcoming.  Warning thin walls and sound from hallway is an issue.  All in all it was good.  I’d stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Stephen S, Director of Sales at Le Meridien Houston Downtown, responded to this reviewResponded November 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 1, 2017</t>
+  </si>
+  <si>
+    <t>Very nice hotel blocks from Minute Maid Park.  Staff was incredibly nice and helpful.  Valet was a bit steep at $35.00 but may be due to World Series.  Room was very Art Deco and nice.  Very clean and welcoming.  Warning thin walls and sound from hallway is an issue.  All in all it was good.  I’d stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r536553797-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>536553797</t>
+  </si>
+  <si>
+    <t>10/28/2017</t>
+  </si>
+  <si>
+    <t>New hotel comfortable</t>
+  </si>
+  <si>
+    <t>Brand new hotel.  I was the first guest in the room. Modern rooms. comfortable. The roof top bar looks promising but it wasn't open yet.  The work facility was a good size with a variety of equipment.  The staff was friendly and helpful.  No pool which was a disappointment and the restaurant was not very good.  Within walking distance to the the convention center, shops and restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>Brand new hotel.  I was the first guest in the room. Modern rooms. comfortable. The roof top bar looks promising but it wasn't open yet.  The work facility was a good size with a variety of equipment.  The staff was friendly and helpful.  No pool which was a disappointment and the restaurant was not very good.  Within walking distance to the the convention center, shops and restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r535937820-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>535937820</t>
+  </si>
+  <si>
+    <t>10/25/2017</t>
+  </si>
+  <si>
+    <t>A lot to work on</t>
+  </si>
+  <si>
+    <t>This new hotel leaves much to be desired service wise. Probably because it has just opened.SPG recognition is low, had to ask for upgrade myself.Breakfast is limited in their restaurant and as SPG benefit it is inconsistent.Cleaning is not up to standard: room service is left in corridors for more than 24 hours.On the good side, the rooms are spacious and the common areas are well appointed.I will not be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>Alan C, General Manager at Le Meridien Houston Downtown, responded to this reviewResponded October 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2017</t>
+  </si>
+  <si>
+    <t>This new hotel leaves much to be desired service wise. Probably because it has just opened.SPG recognition is low, had to ask for upgrade myself.Breakfast is limited in their restaurant and as SPG benefit it is inconsistent.Cleaning is not up to standard: room service is left in corridors for more than 24 hours.On the good side, the rooms are spacious and the common areas are well appointed.I will not be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r535744653-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>535744653</t>
+  </si>
+  <si>
+    <t>10/24/2017</t>
+  </si>
+  <si>
+    <t>Poor service, noisy,</t>
+  </si>
+  <si>
+    <t>I would not stay here again nor recommend coming here for the following reasons:Windows are ultra thin as we can hear even basic conversations from pedestrians much less every car and truck that passes. Don’t plan on getting rest here. Housekeeping is a joke as this morning they came and made our bed but nothing else. I had to call for clean towels and wanted clean coffee cups but the housekeeper nor the gentleman that brought the towels speak a word of English. I called down 2 hours ago and nothing yet. For a brand new hotel there are several things already beaten up like the shower controller and the thresholds coming out of the elevators look 100 years old. We checked in with one small carry on bag each and from the car to the lobby to our room, 3 bellman or whatever they are, fought over our bags and each one that touched the bags stood and expected a tip. The only pluses I see is the modern styling and our breakfast in the restaurant was excellent.MoreShow less</t>
+  </si>
+  <si>
+    <t>I would not stay here again nor recommend coming here for the following reasons:Windows are ultra thin as we can hear even basic conversations from pedestrians much less every car and truck that passes. Don’t plan on getting rest here. Housekeeping is a joke as this morning they came and made our bed but nothing else. I had to call for clean towels and wanted clean coffee cups but the housekeeper nor the gentleman that brought the towels speak a word of English. I called down 2 hours ago and nothing yet. For a brand new hotel there are several things already beaten up like the shower controller and the thresholds coming out of the elevators look 100 years old. We checked in with one small carry on bag each and from the car to the lobby to our room, 3 bellman or whatever they are, fought over our bags and each one that touched the bags stood and expected a tip. The only pluses I see is the modern styling and our breakfast in the restaurant was excellent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r527646907-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>527646907</t>
+  </si>
+  <si>
+    <t>09/26/2017</t>
+  </si>
+  <si>
+    <t>Great addition to downtown</t>
+  </si>
+  <si>
+    <t>I liked my stays in le meridien in NYC and took a chance on this one in Houston even though there was no reviews. It turned out that I was staying in the hotel the first night when it opened to the public. So I was the first person to sleep in that room!- super friendly staff- Great shuttle service. - modern tastefully decorated rooms with high ceiling- amazing deal for the price you pay- Great concierge Travis. Recommended Xochi to me and it turned out to be a fantastic Mexican place. The bar at the restaurant is a bit dark - recommend better lighting in this area. I will be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2017</t>
+  </si>
+  <si>
+    <t>I liked my stays in le meridien in NYC and took a chance on this one in Houston even though there was no reviews. It turned out that I was staying in the hotel the first night when it opened to the public. So I was the first person to sleep in that room!- super friendly staff- Great shuttle service. - modern tastefully decorated rooms with high ceiling- amazing deal for the price you pay- Great concierge Travis. Recommended Xochi to me and it turned out to be a fantastic Mexican place. The bar at the restaurant is a bit dark - recommend better lighting in this area. I will be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r527119551-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>527119551</t>
+  </si>
+  <si>
+    <t>09/24/2017</t>
+  </si>
+  <si>
+    <t>Excellent service</t>
+  </si>
+  <si>
+    <t>Checked into the hotel only two days after they opened. I was the first guest to ever stay in my room. Excellent service on check in. Beds are comfortable in rooms are well-appointed. Very nice little one cup coffee maker in the rooms.The belstaff could not be better. A few of our team was sitting on the curb out front. Element actually brought them chairs to sit outside.Only negatives, the restaurant is way too expensive and has a very limited menu.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 25, 2017</t>
+  </si>
+  <si>
+    <t>Checked into the hotel only two days after they opened. I was the first guest to ever stay in my room. Excellent service on check in. Beds are comfortable in rooms are well-appointed. Very nice little one cup coffee maker in the rooms.The belstaff could not be better. A few of our team was sitting on the curb out front. Element actually brought them chairs to sit outside.Only negatives, the restaurant is way too expensive and has a very limited menu.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1719,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1751,3241 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>80</v>
+      </c>
+      <c r="X6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>80</v>
+      </c>
+      <c r="X7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>72</v>
+      </c>
+      <c r="O8" t="s">
+        <v>79</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>95</v>
+      </c>
+      <c r="X8" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>59</v>
+      </c>
+      <c r="O9" t="s">
+        <v>88</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>95</v>
+      </c>
+      <c r="X9" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>59</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>109</v>
+      </c>
+      <c r="X10" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>59</v>
+      </c>
+      <c r="O11" t="s">
+        <v>79</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>109</v>
+      </c>
+      <c r="X11" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>59</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>109</v>
+      </c>
+      <c r="X12" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" t="s">
+        <v>125</v>
+      </c>
+      <c r="K13" t="s">
+        <v>126</v>
+      </c>
+      <c r="L13" t="s">
+        <v>127</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>59</v>
+      </c>
+      <c r="O13" t="s">
+        <v>88</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>128</v>
+      </c>
+      <c r="X13" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>132</v>
+      </c>
+      <c r="J14" t="s">
+        <v>133</v>
+      </c>
+      <c r="K14" t="s">
+        <v>134</v>
+      </c>
+      <c r="L14" t="s">
+        <v>135</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>136</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>128</v>
+      </c>
+      <c r="X14" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>139</v>
+      </c>
+      <c r="J15" t="s">
+        <v>140</v>
+      </c>
+      <c r="K15" t="s">
+        <v>141</v>
+      </c>
+      <c r="L15" t="s">
+        <v>142</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>136</v>
+      </c>
+      <c r="O15" t="s">
+        <v>66</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>143</v>
+      </c>
+      <c r="X15" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>147</v>
+      </c>
+      <c r="J16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" t="s">
+        <v>149</v>
+      </c>
+      <c r="L16" t="s">
+        <v>150</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>136</v>
+      </c>
+      <c r="O16" t="s">
+        <v>66</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>151</v>
+      </c>
+      <c r="X16" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>155</v>
+      </c>
+      <c r="J17" t="s">
+        <v>156</v>
+      </c>
+      <c r="K17" t="s">
+        <v>157</v>
+      </c>
+      <c r="L17" t="s">
+        <v>158</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>136</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>159</v>
+      </c>
+      <c r="X17" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>162</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>163</v>
+      </c>
+      <c r="J18" t="s">
+        <v>164</v>
+      </c>
+      <c r="K18" t="s">
+        <v>165</v>
+      </c>
+      <c r="L18" t="s">
+        <v>166</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>136</v>
+      </c>
+      <c r="O18" t="s">
+        <v>66</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>167</v>
+      </c>
+      <c r="X18" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>170</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>171</v>
+      </c>
+      <c r="J19" t="s">
+        <v>172</v>
+      </c>
+      <c r="K19" t="s">
+        <v>173</v>
+      </c>
+      <c r="L19" t="s">
+        <v>174</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>136</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>167</v>
+      </c>
+      <c r="X19" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>176</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>177</v>
+      </c>
+      <c r="J20" t="s">
+        <v>178</v>
+      </c>
+      <c r="K20" t="s">
+        <v>179</v>
+      </c>
+      <c r="L20" t="s">
+        <v>180</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>181</v>
+      </c>
+      <c r="O20" t="s">
+        <v>66</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>182</v>
+      </c>
+      <c r="X20" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>185</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>186</v>
+      </c>
+      <c r="J21" t="s">
+        <v>187</v>
+      </c>
+      <c r="K21" t="s">
+        <v>188</v>
+      </c>
+      <c r="L21" t="s">
+        <v>189</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>181</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>190</v>
+      </c>
+      <c r="X21" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>194</v>
+      </c>
+      <c r="J22" t="s">
+        <v>195</v>
+      </c>
+      <c r="K22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L22" t="s">
+        <v>197</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>198</v>
+      </c>
+      <c r="X22" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>201</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>202</v>
+      </c>
+      <c r="J23" t="s">
+        <v>203</v>
+      </c>
+      <c r="K23" t="s">
+        <v>204</v>
+      </c>
+      <c r="L23" t="s">
+        <v>205</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>181</v>
+      </c>
+      <c r="O23" t="s">
+        <v>79</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>206</v>
+      </c>
+      <c r="X23" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>209</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>210</v>
+      </c>
+      <c r="J24" t="s">
+        <v>211</v>
+      </c>
+      <c r="K24" t="s">
+        <v>212</v>
+      </c>
+      <c r="L24" t="s">
+        <v>213</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>214</v>
+      </c>
+      <c r="O24" t="s">
+        <v>66</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>215</v>
+      </c>
+      <c r="X24" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>218</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>219</v>
+      </c>
+      <c r="J25" t="s">
+        <v>220</v>
+      </c>
+      <c r="K25" t="s">
+        <v>221</v>
+      </c>
+      <c r="L25" t="s">
+        <v>222</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>223</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>224</v>
+      </c>
+      <c r="X25" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>227</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>228</v>
+      </c>
+      <c r="J26" t="s">
+        <v>229</v>
+      </c>
+      <c r="K26" t="s">
+        <v>230</v>
+      </c>
+      <c r="L26" t="s">
+        <v>231</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>214</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>232</v>
+      </c>
+      <c r="X26" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>235</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>236</v>
+      </c>
+      <c r="J27" t="s">
+        <v>237</v>
+      </c>
+      <c r="K27" t="s">
+        <v>238</v>
+      </c>
+      <c r="L27" t="s">
+        <v>239</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>214</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>240</v>
+      </c>
+      <c r="X27" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>243</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>244</v>
+      </c>
+      <c r="J28" t="s">
+        <v>245</v>
+      </c>
+      <c r="K28" t="s">
+        <v>246</v>
+      </c>
+      <c r="L28" t="s">
+        <v>247</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>214</v>
+      </c>
+      <c r="O28" t="s">
+        <v>248</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>249</v>
+      </c>
+      <c r="X28" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>252</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>253</v>
+      </c>
+      <c r="J29" t="s">
+        <v>254</v>
+      </c>
+      <c r="K29" t="s">
+        <v>255</v>
+      </c>
+      <c r="L29" t="s">
+        <v>256</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>214</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>257</v>
+      </c>
+      <c r="X29" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>260</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>261</v>
+      </c>
+      <c r="J30" t="s">
+        <v>262</v>
+      </c>
+      <c r="K30" t="s">
+        <v>263</v>
+      </c>
+      <c r="L30" t="s">
+        <v>264</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>214</v>
+      </c>
+      <c r="O30" t="s">
+        <v>66</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>265</v>
+      </c>
+      <c r="X30" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>269</v>
+      </c>
+      <c r="J31" t="s">
+        <v>270</v>
+      </c>
+      <c r="K31" t="s">
+        <v>271</v>
+      </c>
+      <c r="L31" t="s">
+        <v>272</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>214</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>273</v>
+      </c>
+      <c r="X31" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>276</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>277</v>
+      </c>
+      <c r="J32" t="s">
+        <v>278</v>
+      </c>
+      <c r="K32" t="s">
+        <v>279</v>
+      </c>
+      <c r="L32" t="s">
+        <v>280</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>281</v>
+      </c>
+      <c r="X32" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>284</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>285</v>
+      </c>
+      <c r="J33" t="s">
+        <v>286</v>
+      </c>
+      <c r="K33" t="s">
+        <v>287</v>
+      </c>
+      <c r="L33" t="s">
+        <v>288</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>223</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>289</v>
+      </c>
+      <c r="X33" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>292</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>293</v>
+      </c>
+      <c r="J34" t="s">
+        <v>294</v>
+      </c>
+      <c r="K34" t="s">
+        <v>295</v>
+      </c>
+      <c r="L34" t="s">
+        <v>296</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>223</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>289</v>
+      </c>
+      <c r="X34" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>298</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>299</v>
+      </c>
+      <c r="J35" t="s">
+        <v>300</v>
+      </c>
+      <c r="K35" t="s">
+        <v>301</v>
+      </c>
+      <c r="L35" t="s">
+        <v>302</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>303</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>304</v>
+      </c>
+      <c r="X35" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>307</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>308</v>
+      </c>
+      <c r="J36" t="s">
+        <v>309</v>
+      </c>
+      <c r="K36" t="s">
+        <v>310</v>
+      </c>
+      <c r="L36" t="s">
+        <v>311</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>312</v>
+      </c>
+      <c r="X36" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>315</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>316</v>
+      </c>
+      <c r="J37" t="s">
+        <v>317</v>
+      </c>
+      <c r="K37" t="s">
+        <v>318</v>
+      </c>
+      <c r="L37" t="s">
+        <v>319</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>303</v>
+      </c>
+      <c r="O37" t="s">
+        <v>66</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>320</v>
+      </c>
+      <c r="X37" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>323</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>324</v>
+      </c>
+      <c r="J38" t="s">
+        <v>325</v>
+      </c>
+      <c r="K38" t="s">
+        <v>326</v>
+      </c>
+      <c r="L38" t="s">
+        <v>327</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>303</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>328</v>
+      </c>
+      <c r="X38" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>331</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>332</v>
+      </c>
+      <c r="J39" t="s">
+        <v>333</v>
+      </c>
+      <c r="K39" t="s">
+        <v>334</v>
+      </c>
+      <c r="L39" t="s">
+        <v>335</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>336</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>2</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>337</v>
+      </c>
+      <c r="X39" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>340</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>341</v>
+      </c>
+      <c r="J40" t="s">
+        <v>342</v>
+      </c>
+      <c r="K40" t="s">
+        <v>343</v>
+      </c>
+      <c r="L40" t="s">
+        <v>344</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>336</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>337</v>
+      </c>
+      <c r="X40" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>346</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>347</v>
+      </c>
+      <c r="J41" t="s">
+        <v>348</v>
+      </c>
+      <c r="K41" t="s">
+        <v>349</v>
+      </c>
+      <c r="L41" t="s">
+        <v>350</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>336</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>351</v>
+      </c>
+      <c r="X41" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>354</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>355</v>
+      </c>
+      <c r="J42" t="s">
+        <v>356</v>
+      </c>
+      <c r="K42" t="s">
+        <v>357</v>
+      </c>
+      <c r="L42" t="s">
+        <v>358</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>336</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>359</v>
+      </c>
+      <c r="X42" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>362</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>363</v>
+      </c>
+      <c r="J43" t="s">
+        <v>364</v>
+      </c>
+      <c r="K43" t="s">
+        <v>365</v>
+      </c>
+      <c r="L43" t="s">
+        <v>366</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>336</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>367</v>
+      </c>
+      <c r="X43" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>370</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>371</v>
+      </c>
+      <c r="J44" t="s">
+        <v>372</v>
+      </c>
+      <c r="K44" t="s">
+        <v>373</v>
+      </c>
+      <c r="L44" t="s">
+        <v>374</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>336</v>
+      </c>
+      <c r="O44" t="s">
+        <v>79</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>375</v>
+      </c>
+      <c r="X44" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>378</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>379</v>
+      </c>
+      <c r="J45" t="s">
+        <v>380</v>
+      </c>
+      <c r="K45" t="s">
+        <v>381</v>
+      </c>
+      <c r="L45" t="s">
+        <v>382</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>336</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>383</v>
+      </c>
+      <c r="X45" t="s">
+        <v>384</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>386</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>387</v>
+      </c>
+      <c r="J46" t="s">
+        <v>388</v>
+      </c>
+      <c r="K46" t="s">
+        <v>389</v>
+      </c>
+      <c r="L46" t="s">
+        <v>390</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>391</v>
+      </c>
+      <c r="O46" t="s">
+        <v>248</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>392</v>
+      </c>
+      <c r="X46" t="s">
+        <v>393</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>395</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>396</v>
+      </c>
+      <c r="J47" t="s">
+        <v>397</v>
+      </c>
+      <c r="K47" t="s">
+        <v>398</v>
+      </c>
+      <c r="L47" t="s">
+        <v>399</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>391</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>392</v>
+      </c>
+      <c r="X47" t="s">
+        <v>393</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>401</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>402</v>
+      </c>
+      <c r="J48" t="s">
+        <v>403</v>
+      </c>
+      <c r="K48" t="s">
+        <v>404</v>
+      </c>
+      <c r="L48" t="s">
+        <v>405</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>391</v>
+      </c>
+      <c r="O48" t="s">
+        <v>79</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>406</v>
+      </c>
+      <c r="X48" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>409</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>410</v>
+      </c>
+      <c r="J49" t="s">
+        <v>411</v>
+      </c>
+      <c r="K49" t="s">
+        <v>412</v>
+      </c>
+      <c r="L49" t="s">
+        <v>413</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>391</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>406</v>
+      </c>
+      <c r="X49" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>415</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>416</v>
+      </c>
+      <c r="J50" t="s">
+        <v>417</v>
+      </c>
+      <c r="K50" t="s">
+        <v>418</v>
+      </c>
+      <c r="L50" t="s">
+        <v>419</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>420</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>421</v>
+      </c>
+      <c r="X50" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>424</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>425</v>
+      </c>
+      <c r="J51" t="s">
+        <v>426</v>
+      </c>
+      <c r="K51" t="s">
+        <v>427</v>
+      </c>
+      <c r="L51" t="s">
+        <v>428</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>420</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>429</v>
+      </c>
+      <c r="X51" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>431</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_469.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_469.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="717">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,309 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r613677915-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>12339696</t>
+  </si>
+  <si>
+    <t>613677915</t>
+  </si>
+  <si>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>Just what I like: Friendly, clean, good location</t>
+  </si>
+  <si>
+    <t>Spent just one night but would definitely stay again. Check-in was quick, friendly and efficient. Room was good sized and clean. Very comfortable bed. Although room faced street and there was construction nearby, I wasn't disturbed in the room by noise. Great location for catching a baseball game - why I was there.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r601110098-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>601110098</t>
+  </si>
+  <si>
+    <t>07/30/2018</t>
+  </si>
+  <si>
+    <t>Wonderful Anniversary Stay</t>
+  </si>
+  <si>
+    <t>Although we are in our sixties, my wife and I were celebrating our fourth anniversary over this past weekend. Our stay was really wonderful. Check-in was on the 2nd floor and after a small wait, we were relaxing in our rooms. The hotel has been renovated in a exquisite contemporary style which we very much enjoyed. The well-designed and adorned room had a very comfortable bed and we stayed cool throughout the blazing hot July weekend. The roomy bathroom had a beautiful glass shower (be sure to stand next to the shower handle when you turn it on and the very cold water shoots out). We had hoped for a nice view of downtown, but the tall buildings across the street blocked most of the view. For a good view, I would suggest asking for a south-facing room.The hotel is really well situated and within walking distance of Minute Maid Field, the George R Brown Convention Center/Discovery Green, and tons of restaurants and clubs. But probably the feature we enjoyed the most was the roof-top bar. The first night we experienced it, there was a full moon and the sky was clear with a beautiful breeze. So relaxing, especially with a drink!Two things to consider before you stay there: 1) There is no pool, and 2) there is public parking all around, and though it too is not cheap, it surely beats the $34 for valet parking.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Alan C, General Manager at Le Meridien Houston Downtown, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Although we are in our sixties, my wife and I were celebrating our fourth anniversary over this past weekend. Our stay was really wonderful. Check-in was on the 2nd floor and after a small wait, we were relaxing in our rooms. The hotel has been renovated in a exquisite contemporary style which we very much enjoyed. The well-designed and adorned room had a very comfortable bed and we stayed cool throughout the blazing hot July weekend. The roomy bathroom had a beautiful glass shower (be sure to stand next to the shower handle when you turn it on and the very cold water shoots out). We had hoped for a nice view of downtown, but the tall buildings across the street blocked most of the view. For a good view, I would suggest asking for a south-facing room.The hotel is really well situated and within walking distance of Minute Maid Field, the George R Brown Convention Center/Discovery Green, and tons of restaurants and clubs. But probably the feature we enjoyed the most was the roof-top bar. The first night we experienced it, there was a full moon and the sky was clear with a beautiful breeze. So relaxing, especially with a drink!Two things to consider before you stay there: 1) There is no pool, and 2) there is public parking all around, and though it too is not cheap, it surely beats the $34 for valet parking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r613247728-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>613247728</t>
+  </si>
+  <si>
+    <t>09/02/2018</t>
+  </si>
+  <si>
+    <t>Hotel is good for a short stay</t>
+  </si>
+  <si>
+    <t>I have stayed on a few occasions at this hotel which is well located for my work in Houston.  The rooms are very nice and the staff is friendly.  I recently needed to stay for a few weeks and I do not recommend this hotel for a long stay.  The main reason is the restaurant food quality and offering.  The restaurant menu is not very good (very limited choice) and the quality for the 5 meals which I ate at the restaurant during my stay were not very good.  The bar on the roof has great music and nice atmosphere but the menu is even more limited.  It is not even possible to get a salad. I also had laundry done during my stay but I delivered it to the reception a few minutes late for same day service.  I was assured it was fine but was charged an extra 50 dollars for same day service.  Additionally the clothing was not delivered to my room and had to pick it up the next evening...no comment from reception on the issue and was still charged 50 dollars to my account for being a few minutes late and receiving my clothing the next evening....   In conclusion for one night this hotel is fine but I do not recommend it for longer stays and do not recommend the restaurants.  MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I have stayed on a few occasions at this hotel which is well located for my work in Houston.  The rooms are very nice and the staff is friendly.  I recently needed to stay for a few weeks and I do not recommend this hotel for a long stay.  The main reason is the restaurant food quality and offering.  The restaurant menu is not very good (very limited choice) and the quality for the 5 meals which I ate at the restaurant during my stay were not very good.  The bar on the roof has great music and nice atmosphere but the menu is even more limited.  It is not even possible to get a salad. I also had laundry done during my stay but I delivered it to the reception a few minutes late for same day service.  I was assured it was fine but was charged an extra 50 dollars for same day service.  Additionally the clothing was not delivered to my room and had to pick it up the next evening...no comment from reception on the issue and was still charged 50 dollars to my account for being a few minutes late and receiving my clothing the next evening....   In conclusion for one night this hotel is fine but I do not recommend it for longer stays and do not recommend the restaurants.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r613138942-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>613138942</t>
+  </si>
+  <si>
+    <t>All about the service</t>
+  </si>
+  <si>
+    <t>The hotel is very nice and clean, but its people like Demetrius at the front desk that make all the difference.  When my lack of computer skills resulted in a failure to push “complete reservation,” and we walked into the hotel at 10:30 pm without the reservation we thought we had, Demetrius worked magic and found us rooms.  But even more than finding us 2 rooms, he did it with a smile on his face the entire time!!  Thank you Le Meridien and thank you Demetrius!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r612684669-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>612684669</t>
+  </si>
+  <si>
+    <t>08/31/2018</t>
+  </si>
+  <si>
+    <t>Great Service! Comfortable Rooms!</t>
+  </si>
+  <si>
+    <t>I have been staying at this hotel for a number of months. I bounced around other downtown Houston hotels and settled in at Le Meridien. This is mainly due to Travis MCCoy. The service he provides is exemplary. In fact, all the staff have been helpful and friendly. The rooms are clean and comfortable. The rooftop bar is very relaxing and has a great view of the city.</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r612409958-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>612409958</t>
+  </si>
+  <si>
+    <t>08/30/2018</t>
+  </si>
+  <si>
+    <t>Standard business class hotel</t>
+  </si>
+  <si>
+    <t>I stayed here one night earlier this week and overall give it a decent review despite a couple of flaws.I was upgraded to a spacious suite due to Platinum Premier status which was appreciated. The suite itself was well appointed and comfortable. The bed was standard fair for a higher end business class hotel. The bathroom was large and inviting and featured a separate walk in shower.The HVAC didn't get as cold as I would have liked it but admittedly I like it very cold. The internet was average, probably a little slower than average by today's standard but connecting was fast and easy.I only had breakfast at the restaurant and it was again unremarkable.The only real issue I had was the valet parking. There is no self parking option and the valet parking can take up to 30 minutes to retrieve your car, that is truly too long in my view.I would think that this hotel is due for a refresh soon if it is going to compete with it's sister properties, i.e. Marriott Marquis, Hotel Icon, JW which are very close and much much newer.There is nothing wrong with Le Meridian, downtown Houston it was just very average by business class standards.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here one night earlier this week and overall give it a decent review despite a couple of flaws.I was upgraded to a spacious suite due to Platinum Premier status which was appreciated. The suite itself was well appointed and comfortable. The bed was standard fair for a higher end business class hotel. The bathroom was large and inviting and featured a separate walk in shower.The HVAC didn't get as cold as I would have liked it but admittedly I like it very cold. The internet was average, probably a little slower than average by today's standard but connecting was fast and easy.I only had breakfast at the restaurant and it was again unremarkable.The only real issue I had was the valet parking. There is no self parking option and the valet parking can take up to 30 minutes to retrieve your car, that is truly too long in my view.I would think that this hotel is due for a refresh soon if it is going to compete with it's sister properties, i.e. Marriott Marquis, Hotel Icon, JW which are very close and much much newer.There is nothing wrong with Le Meridian, downtown Houston it was just very average by business class standards.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r610912602-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>610912602</t>
+  </si>
+  <si>
+    <t>08/27/2018</t>
+  </si>
+  <si>
+    <t>Excellent Service!</t>
+  </si>
+  <si>
+    <t>There were several hotels to choose from while staying downtown for my husbands birthday and we chose Le Meridien based on customer service reviews. They did not disappoint! a consistent smile and greeted us each and every time. Wonderful room with a wonder view! I had called and requested a room with a view and they accommodated that. Very spacious rooms, wonderful bathrooms with lighted mirrors! The rooftop bar is nice with incredible views. Drinks are a little pricey but that is to be expected with rooftop views and downtown. I like the extra added security- only the guests staying on your floor can access your floor. The beds are super comfy! Valet is $35, but most hotels also charge this, but there is also street parking which we did near the hotel. Parking is free after 6PM on weekends.MoreShow less</t>
+  </si>
+  <si>
+    <t>There were several hotels to choose from while staying downtown for my husbands birthday and we chose Le Meridien based on customer service reviews. They did not disappoint! a consistent smile and greeted us each and every time. Wonderful room with a wonder view! I had called and requested a room with a view and they accommodated that. Very spacious rooms, wonderful bathrooms with lighted mirrors! The rooftop bar is nice with incredible views. Drinks are a little pricey but that is to be expected with rooftop views and downtown. I like the extra added security- only the guests staying on your floor can access your floor. The beds are super comfy! Valet is $35, but most hotels also charge this, but there is also street parking which we did near the hotel. Parking is free after 6PM on weekends.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r609392451-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>609392451</t>
+  </si>
+  <si>
+    <t>08/22/2018</t>
+  </si>
+  <si>
+    <t>Exellent Service</t>
+  </si>
+  <si>
+    <t>I stay in hotels on an average of three nights per week. I have been staying at the Le Meridien for the past few months weekly.  The staff and service are extremely professional, personable and hospitable.  The welcome received from the valet to the check in personnel and all of the staff well exceeds all hotels that I have stayed.  The rooms are spacious and comfortable.  Special thanks to Mark,Travis, Matt and all of the staff for making my stay here feel like coming home.Mike C</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r607456978-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>607456978</t>
+  </si>
+  <si>
+    <t>08/17/2018</t>
+  </si>
+  <si>
+    <t>My stay at Le Meridien Houston Downtown</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay at Le Meridien Houston Downtown.  The room was spacious and the service was very good.  Travis McCoy, in particular, was very accommodating.  The roof top bar was very nice.  It provides a beautiful view of the city.  I'll definitely be back.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r607315141-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>607315141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great service and location </t>
+  </si>
+  <si>
+    <t>I have been staying at this hotel for over 4 months and the service from the entire staff has been wonderful. I would especially like to mention Travis McCoy who has worked with our team and gotten us rooms when that hotel was very busy - great job.  We’re working on a project through May, 2019 and this hotel is my home away from home.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r607058760-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>607058760</t>
+  </si>
+  <si>
+    <t>08/16/2018</t>
+  </si>
+  <si>
+    <t>Clean and Accommodating</t>
+  </si>
+  <si>
+    <t>Le Meridien is a clean, comfortable place to spend your evenings in downtown Houston. It is central to all of the restaurants and nighttime activities that Houston has to offer, and includes a very nice outdoor rooftop bar/lounge on the top floor of the hotel. I would suggest working with Travis McCoy on your reservations, he has taken care of myself and several co-workers on the dozens of trips that we have taken to Houston.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r607035216-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>607035216</t>
+  </si>
+  <si>
+    <t>AWESOME service with an AMAZING STAFF and EXCELLENT HOSPITALITY!</t>
+  </si>
+  <si>
+    <t>Without doubt one of the favorite hotels in Houston. Myself and my co-workers have been staying at the LeMeridien Downtown since they first opened in September 2017.  Upon our arrival then and up until today, we are always warmly welcomed by the entire staff, especially Travis McCoy. The atmosphere, the friendship and especially the exceptional service provided by Travis is so special that it really feels like home each week that we are there!   All respect for the entire staff who all does a great job here; a true sample of excellent hospitality! Thank you Travis McCoy!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r607024797-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>607024797</t>
+  </si>
+  <si>
+    <t>Awesome Hotel !!!</t>
+  </si>
+  <si>
+    <t>The staff here is absolutely amazing...but Travis McCoy takes service to a whole another level! He is the reason I stay here week after week, well him and the rooftop bar. The rooftop is a wonderful place to relax after work. The hotel is beautiful, the rooms are spacious, well appointed, and spotless. I will not stay anywhere else when I'm in Houston and I'm in Houston a lot.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r606899293-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>606899293</t>
+  </si>
+  <si>
+    <t>08/15/2018</t>
+  </si>
+  <si>
+    <t>Great Hotel for the Business Traveller</t>
+  </si>
+  <si>
+    <t>One of the better hotels I have stayed in over the years of traveling as a consultant. Rooms are always clean and the staff is super helpful and willing to go above and beyond to make sure your stay is amazing. Travis McCoy is the man! He is definitely one of the reasons I have chosen to stay at this property for my year and a half in Houston. The rooftop bar is great and has some nice views of the city and after the retooling of the restaurant, the food is pretty good as well.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r606894771-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>606894771</t>
+  </si>
+  <si>
+    <t>Liaison</t>
+  </si>
+  <si>
+    <t>My stay at Le Meridiem went exceptionally well. Great location, really pleasant and clean rooms, but the thing that makes this such a good place to stay are the staff. All of the people are incredibly helpful and generous with their time and advice. The downtown view of Houston was amazing. Travis McCoy in particular was very accommodating and personable. I will be booking future stay here definitely.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r605789253-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>605789253</t>
+  </si>
+  <si>
     <t>08/12/2018</t>
   </si>
   <si>
+    <t>Beautiful Hotel - Horrible Parking</t>
+  </si>
+  <si>
+    <t>The hotel was beautiful and the room was clean and comfortable.  The location was OK for downtown.  Check-in and check-out was easy and quick.  But let's talk about the parking.  They only have valet parking - no self-parking is available.  Valet parking is $34 + tax per night.  But it gets worse.
+There is no pull-in place for valet to get your car so you stop in the street with your flashers on.  And there are 5-6 cars all doing the same.  Then they tell you that it's going to take 20-30 minutes to get your car back.  That was true until the morning of check out.  The lady at the check out counter called valet to have them get my car.  43 minutes later, I got my car.  
+And here is the best part - the valet at some point had gone through all the stuff in my center console.  I had my deceased father's wallet in there (nothing in it of value) but it was obvious they had gone through it.  All that was missing was all the change in two change holders - one in the center console and one in the dash.  Probably not much more than $2 in change.  Really?  You needed that?  My $5 tip wasn't enough?  
+I will never stay at this hotel again due to the experience that I had with their parking.  There are some nice hotels in downtown Houston that...The hotel was beautiful and the room was clean and comfortable.  The location was OK for downtown.  Check-in and check-out was easy and quick.  But let's talk about the parking.  They only have valet parking - no self-parking is available.  Valet parking is $34 + tax per night.  But it gets worse.There is no pull-in place for valet to get your car so you stop in the street with your flashers on.  And there are 5-6 cars all doing the same.  Then they tell you that it's going to take 20-30 minutes to get your car back.  That was true until the morning of check out.  The lady at the check out counter called valet to have them get my car.  43 minutes later, I got my car.  And here is the best part - the valet at some point had gone through all the stuff in my center console.  I had my deceased father's wallet in there (nothing in it of value) but it was obvious they had gone through it.  All that was missing was all the change in two change holders - one in the center console and one in the dash.  Probably not much more than $2 in change.  Really?  You needed that?  My $5 tip wasn't enough?  I will never stay at this hotel again due to the experience that I had with their parking.  There are some nice hotels in downtown Houston that will treat you much better than that.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel was beautiful and the room was clean and comfortable.  The location was OK for downtown.  Check-in and check-out was easy and quick.  But let's talk about the parking.  They only have valet parking - no self-parking is available.  Valet parking is $34 + tax per night.  But it gets worse.
+There is no pull-in place for valet to get your car so you stop in the street with your flashers on.  And there are 5-6 cars all doing the same.  Then they tell you that it's going to take 20-30 minutes to get your car back.  That was true until the morning of check out.  The lady at the check out counter called valet to have them get my car.  43 minutes later, I got my car.  
+And here is the best part - the valet at some point had gone through all the stuff in my center console.  I had my deceased father's wallet in there (nothing in it of value) but it was obvious they had gone through it.  All that was missing was all the change in two change holders - one in the center console and one in the dash.  Probably not much more than $2 in change.  Really?  You needed that?  My $5 tip wasn't enough?  
+I will never stay at this hotel again due to the experience that I had with their parking.  There are some nice hotels in downtown Houston that...The hotel was beautiful and the room was clean and comfortable.  The location was OK for downtown.  Check-in and check-out was easy and quick.  But let's talk about the parking.  They only have valet parking - no self-parking is available.  Valet parking is $34 + tax per night.  But it gets worse.There is no pull-in place for valet to get your car so you stop in the street with your flashers on.  And there are 5-6 cars all doing the same.  Then they tell you that it's going to take 20-30 minutes to get your car back.  That was true until the morning of check out.  The lady at the check out counter called valet to have them get my car.  43 minutes later, I got my car.  And here is the best part - the valet at some point had gone through all the stuff in my center console.  I had my deceased father's wallet in there (nothing in it of value) but it was obvious they had gone through it.  All that was missing was all the change in two change holders - one in the center console and one in the dash.  Probably not much more than $2 in change.  Really?  You needed that?  My $5 tip wasn't enough?  I will never stay at this hotel again due to the experience that I had with their parking.  There are some nice hotels in downtown Houston that will treat you much better than that.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r605421803-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>605421803</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>Loud, and overrated</t>
+  </si>
+  <si>
+    <t>Needed a downtown location within close proximity to the Toyota Center. Chose Le Meridien, and believe me, there are better choices. This property was very modernized and not my cup of tea.$34/night for parking. Really?Breakfast at the in-house restaurant was "very expensive" for what you got.  Not even worth the effort.My last night (after a concert), laid down at midnight and had to be up at 530AM.  Besides baseball, the concert, and other get-aways, well, the hotels 9th floor was pretty loud.  Even a room service delivery at 347AM (yes, A.M.) had me at the door, looking two (2) doors down.  Both the hotel employee and the guests were very loud.I would not choose this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Needed a downtown location within close proximity to the Toyota Center. Chose Le Meridien, and believe me, there are better choices. This property was very modernized and not my cup of tea.$34/night for parking. Really?Breakfast at the in-house restaurant was "very expensive" for what you got.  Not even worth the effort.My last night (after a concert), laid down at midnight and had to be up at 530AM.  Besides baseball, the concert, and other get-aways, well, the hotels 9th floor was pretty loud.  Even a room service delivery at 347AM (yes, A.M.) had me at the door, looking two (2) doors down.  Both the hotel employee and the guests were very loud.I would not choose this hotel again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r604487903-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>12339696</t>
-  </si>
-  <si>
     <t>604487903</t>
   </si>
   <si>
@@ -174,12 +465,6 @@
     <t>Usually don’t do reviews but my stay at the Le Meridien was beautiful and amazing. I checked in with Ricky. Greeted me with a smile &amp; thanked me on my Platiumn status. Nice Rooms Great Staff!!! Rooftop bar was a nice touch..</t>
   </si>
   <si>
-    <t>August 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r603788033-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
@@ -201,43 +486,61 @@
     <t>I stayed at the hotel for five nights when I was attending a conference. I had my qualms about not staying at the conference hotel but my choice was vindicated by the service and comfort I received during my stay at Le Meridien. The hotel is at a very convenient location in the downtown area from restaurants, bars, shopping areas and other hotels where some of my colleagues were staying. The room was really spacious, had all the amenities I needed and it was especially great to have a lot of USB charging points. I mostly used the hotel for sleeping in since I was outside for business meeting most of the time but it allowed me the perfect blend of rest to recharge for the next day. The rooftop bar is great and so is the restaurant who even improvised and made a special, delicious vegetarian meal when there was nothing on the menu. The staff was very friendly and helped me with a smooth check-in experience which was great after long inter-continental flights. The work area in the lobby is great for preparing last minute presentations.Overall, a great, satisfying and comfortable stay.More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r603533466-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
-  </si>
-  <si>
-    <t>603533466</t>
-  </si>
-  <si>
-    <t>08/06/2018</t>
-  </si>
-  <si>
-    <t>Nice birthday weekend</t>
-  </si>
-  <si>
-    <t>My girlfriend suprised me with a night at Le Meridien Houston for my birthday in June.  It was a really nice place, we didn’t get to try the restaurant but the roof was awesome.  I’d wait until the sun starts to set otherwise its too hot</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r601110098-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
-  </si>
-  <si>
-    <t>601110098</t>
-  </si>
-  <si>
-    <t>07/30/2018</t>
-  </si>
-  <si>
-    <t>Wonderful Anniversary Stay</t>
-  </si>
-  <si>
-    <t>Although we are in our sixties, my wife and I were celebrating our fourth anniversary over this past weekend. Our stay was really wonderful. Check-in was on the 2nd floor and after a small wait, we were relaxing in our rooms. The hotel has been renovated in a exquisite contemporary style which we very much enjoyed. The well-designed and adorned room had a very comfortable bed and we stayed cool throughout the blazing hot July weekend. The roomy bathroom had a beautiful glass shower (be sure to stand next to the shower handle when you turn it on and the very cold water shoots out). We had hoped for a nice view of downtown, but the tall buildings across the street blocked most of the view. For a good view, I would suggest asking for a south-facing room.The hotel is really well situated and within walking distance of Minute Maid Field, the George R Brown Convention Center/Discovery Green, and tons of restaurants and clubs. But probably the feature we enjoyed the most was the roof-top bar. The first night we experienced it, there was a full moon and the sky was clear with a beautiful breeze. So relaxing, especially with a drink!Two things to consider before you stay there: 1) There is no pool, and 2) there is public parking all around, and though it too is not cheap, it surely beats the $34 for valet parking.MoreShow less</t>
-  </si>
-  <si>
-    <t>July 2018</t>
-  </si>
-  <si>
-    <t>Although we are in our sixties, my wife and I were celebrating our fourth anniversary over this past weekend. Our stay was really wonderful. Check-in was on the 2nd floor and after a small wait, we were relaxing in our rooms. The hotel has been renovated in a exquisite contemporary style which we very much enjoyed. The well-designed and adorned room had a very comfortable bed and we stayed cool throughout the blazing hot July weekend. The roomy bathroom had a beautiful glass shower (be sure to stand next to the shower handle when you turn it on and the very cold water shoots out). We had hoped for a nice view of downtown, but the tall buildings across the street blocked most of the view. For a good view, I would suggest asking for a south-facing room.The hotel is really well situated and within walking distance of Minute Maid Field, the George R Brown Convention Center/Discovery Green, and tons of restaurants and clubs. But probably the feature we enjoyed the most was the roof-top bar. The first night we experienced it, there was a full moon and the sky was clear with a beautiful breeze. So relaxing, especially with a drink!Two things to consider before you stay there: 1) There is no pool, and 2) there is public parking all around, and though it too is not cheap, it surely beats the $34 for valet parking.More</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r602820575-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>602820575</t>
+  </si>
+  <si>
+    <t>08/04/2018</t>
+  </si>
+  <si>
+    <t>Great Gem</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel because  we had my daughters orientation for college. From the moment we stepped out of our car at valet to the moment we left, we were treated so amazing! The rooftop bar was so much fun and the view was gorgeous at night! Drinks were pricey, but so is all of downtown Houston :) I really like how you cannot get to your floor on the elevator without swiping your card. This gives a sense of comfort and security that regular hotels do not offer. The rooms were a big size and the bathroom was perfect. The only complaint I had was that the beds were not comfy at all. I tend to prefer softer beds and these beds were hard. The linens were great and pillows amazing...but that bed was not good. My daughter liked it, so it’s everyone’s own preference.  We stayed for two nights and the first night my husband and I hardly slept. The 2nd night I was so exhausted from not sleeping and a full day, that I passed out and slept through most of the night. They do have a shuttle that will take you around the area, so that was a HUGGE plus! We opted to walk as we love exploring!  It’s a nice hotel and I do recommend it if you like hard beds. MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel because  we had my daughters orientation for college. From the moment we stepped out of our car at valet to the moment we left, we were treated so amazing! The rooftop bar was so much fun and the view was gorgeous at night! Drinks were pricey, but so is all of downtown Houston :) I really like how you cannot get to your floor on the elevator without swiping your card. This gives a sense of comfort and security that regular hotels do not offer. The rooms were a big size and the bathroom was perfect. The only complaint I had was that the beds were not comfy at all. I tend to prefer softer beds and these beds were hard. The linens were great and pillows amazing...but that bed was not good. My daughter liked it, so it’s everyone’s own preference.  We stayed for two nights and the first night my husband and I hardly slept. The 2nd night I was so exhausted from not sleeping and a full day, that I passed out and slept through most of the night. They do have a shuttle that will take you around the area, so that was a HUGGE plus! We opted to walk as we love exploring!  It’s a nice hotel and I do recommend it if you like hard beds. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r601319708-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>601319708</t>
+  </si>
+  <si>
+    <t>Poorly staffed hotel</t>
+  </si>
+  <si>
+    <t>Checked in having reserved two rooms. Only one was ready. Went to get the second room key, when I went to the room, they had given it to someone else. When I walked into the room, other people's luggage was in my room. They had no idea how that happened. Seemed very under staffed. MoreShow less</t>
+  </si>
+  <si>
+    <t>Checked in having reserved two rooms. Only one was ready. Went to get the second room key, when I went to the room, they had given it to someone else. When I walked into the room, other people's luggage was in my room. They had no idea how that happened. Seemed very under staffed. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r599941914-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>599941914</t>
+  </si>
+  <si>
+    <t>07/26/2018</t>
+  </si>
+  <si>
+    <t>Old School Service in Contemporary Setting</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised at the level of service at Le Meridien Houston.  Unfortunately I have experienced subpar service at the Le Meridien in Manhattan in the past.  However, in Houston, Southern hospitality rules.  The bellperson took my luggage without prompting and without the obvious expectation of a tip, then waited while I checked in and brought my bags to my room, opened the closet to pull out the luggage rack and put my larger bag on top.  He then tried to zip out of the room without a tip!   His name is Phil and he was exceptional.  Professional and friendly (but not overly so).  This may sound like a minor thing but I travel almost every week of the year and have to say that I very rarely see this kind of service at US hotels anymore so I want to give this hotel mgmt. a great shout out for their staff.  In passing through the halls, even maintenance staff took the time to smile and say hello.  As a Starwood platinum member, the front desk offered me complimentary breakfast (a nice perk).  The staff at the restaurant was lovely and charming.  When I departed for a meeting nearby, the bell staff quickly arranged for a courtesy car driver - also who did not expect a tip.  On top of that, the property itself is top notch for a business stay or pleasure.  Rooftop bar, nice spacious gym with...I was pleasantly surprised at the level of service at Le Meridien Houston.  Unfortunately I have experienced subpar service at the Le Meridien in Manhattan in the past.  However, in Houston, Southern hospitality rules.  The bellperson took my luggage without prompting and without the obvious expectation of a tip, then waited while I checked in and brought my bags to my room, opened the closet to pull out the luggage rack and put my larger bag on top.  He then tried to zip out of the room without a tip!   His name is Phil and he was exceptional.  Professional and friendly (but not overly so).  This may sound like a minor thing but I travel almost every week of the year and have to say that I very rarely see this kind of service at US hotels anymore so I want to give this hotel mgmt. a great shout out for their staff.  In passing through the halls, even maintenance staff took the time to smile and say hello.  As a Starwood platinum member, the front desk offered me complimentary breakfast (a nice perk).  The staff at the restaurant was lovely and charming.  When I departed for a meeting nearby, the bell staff quickly arranged for a courtesy car driver - also who did not expect a tip.  On top of that, the property itself is top notch for a business stay or pleasure.  Rooftop bar, nice spacious gym with lots of cardio equipment, exceptional clean and new feeling rooms.  I will definitely return next time I am in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>Alan C, General Manager at Le Meridien Houston Downtown, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised at the level of service at Le Meridien Houston.  Unfortunately I have experienced subpar service at the Le Meridien in Manhattan in the past.  However, in Houston, Southern hospitality rules.  The bellperson took my luggage without prompting and without the obvious expectation of a tip, then waited while I checked in and brought my bags to my room, opened the closet to pull out the luggage rack and put my larger bag on top.  He then tried to zip out of the room without a tip!   His name is Phil and he was exceptional.  Professional and friendly (but not overly so).  This may sound like a minor thing but I travel almost every week of the year and have to say that I very rarely see this kind of service at US hotels anymore so I want to give this hotel mgmt. a great shout out for their staff.  In passing through the halls, even maintenance staff took the time to smile and say hello.  As a Starwood platinum member, the front desk offered me complimentary breakfast (a nice perk).  The staff at the restaurant was lovely and charming.  When I departed for a meeting nearby, the bell staff quickly arranged for a courtesy car driver - also who did not expect a tip.  On top of that, the property itself is top notch for a business stay or pleasure.  Rooftop bar, nice spacious gym with...I was pleasantly surprised at the level of service at Le Meridien Houston.  Unfortunately I have experienced subpar service at the Le Meridien in Manhattan in the past.  However, in Houston, Southern hospitality rules.  The bellperson took my luggage without prompting and without the obvious expectation of a tip, then waited while I checked in and brought my bags to my room, opened the closet to pull out the luggage rack and put my larger bag on top.  He then tried to zip out of the room without a tip!   His name is Phil and he was exceptional.  Professional and friendly (but not overly so).  This may sound like a minor thing but I travel almost every week of the year and have to say that I very rarely see this kind of service at US hotels anymore so I want to give this hotel mgmt. a great shout out for their staff.  In passing through the halls, even maintenance staff took the time to smile and say hello.  As a Starwood platinum member, the front desk offered me complimentary breakfast (a nice perk).  The staff at the restaurant was lovely and charming.  When I departed for a meeting nearby, the bell staff quickly arranged for a courtesy car driver - also who did not expect a tip.  On top of that, the property itself is top notch for a business stay or pleasure.  Rooftop bar, nice spacious gym with lots of cardio equipment, exceptional clean and new feeling rooms.  I will definitely return next time I am in Houston.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r599593948-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
@@ -255,15 +558,6 @@
     <t>A wonderful and safe place to stay in downtown Houston.  Friendly/Helpful staff, good food and great roof top bar. Not far from MD Anderson. the only negative is paying to park.  a little pricy for me.  However overall everything was excellent.  I would definitely stay there again.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>Alan C, General Manager at Le Meridien Houston Downtown, responded to this reviewResponded 3 days ago</t>
-  </si>
-  <si>
-    <t>Responded 3 days ago</t>
-  </si>
-  <si>
     <t>A wonderful and safe place to stay in downtown Houston.  Friendly/Helpful staff, good food and great roof top bar. Not far from MD Anderson. the only negative is paying to park.  a little pricy for me.  However overall everything was excellent.  I would definitely stay there again.More</t>
   </si>
   <si>
@@ -282,33 +576,63 @@
     <t>I wanted to plan something special for my husband's 40th birthday. I did a search of some downtown locations and stumbled upon Le Meridien. I contacted Lauren Hernandez to see if I could come to view their party venues and from the moment I made contact with her, I knew that this was the place I wanted to have his party. Lauren and her staff were so attentive and helpful during the planning process, providing suggestions and assistance along the way. They were open to all of my ideas and went out of their way to make my vision come true. On the day of the event, everything went perfectly. I could not have asked for anything more. We had a custom made chef's menu with custom drink pairings for a party of 30 guests, with passed appetizers while they waited for the guest of honor. After dinner, we then had an around the world whiskey tasting for all of our guests. Lastly, we retired at the rooftop bar with custom cigars and drinks. The night was amazing and I wish I could do it all over again. Everyone that attended made mention of how epic the party was and everyone had a blast. Two thumbs up and 5 stars just don't seem like enough to express my gratitude for such a wonderfully executed party. My husband had such an amazing time and it will be one he will never...I wanted to plan something special for my husband's 40th birthday. I did a search of some downtown locations and stumbled upon Le Meridien. I contacted Lauren Hernandez to see if I could come to view their party venues and from the moment I made contact with her, I knew that this was the place I wanted to have his party. Lauren and her staff were so attentive and helpful during the planning process, providing suggestions and assistance along the way. They were open to all of my ideas and went out of their way to make my vision come true. On the day of the event, everything went perfectly. I could not have asked for anything more. We had a custom made chef's menu with custom drink pairings for a party of 30 guests, with passed appetizers while they waited for the guest of honor. After dinner, we then had an around the world whiskey tasting for all of our guests. Lastly, we retired at the rooftop bar with custom cigars and drinks. The night was amazing and I wish I could do it all over again. Everyone that attended made mention of how epic the party was and everyone had a blast. Two thumbs up and 5 stars just don't seem like enough to express my gratitude for such a wonderfully executed party. My husband had such an amazing time and it will be one he will never forget! I will definitely be back! Thanks to everyone for all their help and assistance!! I truly appreciate everything that was done to make that night so special for us!!MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>I wanted to plan something special for my husband's 40th birthday. I did a search of some downtown locations and stumbled upon Le Meridien. I contacted Lauren Hernandez to see if I could come to view their party venues and from the moment I made contact with her, I knew that this was the place I wanted to have his party. Lauren and her staff were so attentive and helpful during the planning process, providing suggestions and assistance along the way. They were open to all of my ideas and went out of their way to make my vision come true. On the day of the event, everything went perfectly. I could not have asked for anything more. We had a custom made chef's menu with custom drink pairings for a party of 30 guests, with passed appetizers while they waited for the guest of honor. After dinner, we then had an around the world whiskey tasting for all of our guests. Lastly, we retired at the rooftop bar with custom cigars and drinks. The night was amazing and I wish I could do it all over again. Everyone that attended made mention of how epic the party was and everyone had a blast. Two thumbs up and 5 stars just don't seem like enough to express my gratitude for such a wonderfully executed party. My husband had such an amazing time and it will be one he will never...I wanted to plan something special for my husband's 40th birthday. I did a search of some downtown locations and stumbled upon Le Meridien. I contacted Lauren Hernandez to see if I could come to view their party venues and from the moment I made contact with her, I knew that this was the place I wanted to have his party. Lauren and her staff were so attentive and helpful during the planning process, providing suggestions and assistance along the way. They were open to all of my ideas and went out of their way to make my vision come true. On the day of the event, everything went perfectly. I could not have asked for anything more. We had a custom made chef's menu with custom drink pairings for a party of 30 guests, with passed appetizers while they waited for the guest of honor. After dinner, we then had an around the world whiskey tasting for all of our guests. Lastly, we retired at the rooftop bar with custom cigars and drinks. The night was amazing and I wish I could do it all over again. Everyone that attended made mention of how epic the party was and everyone had a blast. Two thumbs up and 5 stars just don't seem like enough to express my gratitude for such a wonderfully executed party. My husband had such an amazing time and it will be one he will never forget! I will definitely be back! Thanks to everyone for all their help and assistance!! I truly appreciate everything that was done to make that night so special for us!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r598999151-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>598999151</t>
+  </si>
+  <si>
+    <t>07/23/2018</t>
+  </si>
+  <si>
+    <t>One of the best in downtown</t>
+  </si>
+  <si>
+    <t>Because I’m a travel guru this stay was really not what i was thinking it would be, i am a Houston native so I didn’t expect much. But WOW. I could have easily mistaken this hotel for a Manhattan gem. The room was squeaky clean and modern with a very very up to date restroom and the bar downstairs would blow you away. I felt like I was in an episode of mad men. Now let’s talk about the rooftop bar, it was during pride so I could see the festival from above while sipping a drink from the variety of cocktails the bar has to offer. I would definitely stay here again. Everyone from the check in clerk to the roof bartender were friendly and welcoming. thank you.MoreShow less</t>
+  </si>
+  <si>
+    <t>Because I’m a travel guru this stay was really not what i was thinking it would be, i am a Houston native so I didn’t expect much. But WOW. I could have easily mistaken this hotel for a Manhattan gem. The room was squeaky clean and modern with a very very up to date restroom and the bar downstairs would blow you away. I felt like I was in an episode of mad men. Now let’s talk about the rooftop bar, it was during pride so I could see the festival from above while sipping a drink from the variety of cocktails the bar has to offer. I would definitely stay here again. Everyone from the check in clerk to the roof bartender were friendly and welcoming. thank you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r598275598-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>598275598</t>
+  </si>
+  <si>
+    <t>07/21/2018</t>
+  </si>
+  <si>
+    <t>Great Time in Houston</t>
+  </si>
+  <si>
+    <t>Nice hotel. Stayed in a double room. Room was larger than it appears in pictures. Stayed on an SPG preferred floor, the fresh apples were a nice touch. Also they provide wine and champagne daily from late afternoon to early evening as well as coffee and tea in the morning.MoreShow less</t>
+  </si>
+  <si>
+    <t>Alan C, General Manager at Le Meridien Houston Downtown, responded to this reviewResponded July 31, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2018</t>
+  </si>
+  <si>
+    <t>Nice hotel. Stayed in a double room. Room was larger than it appears in pictures. Stayed on an SPG preferred floor, the fresh apples were a nice touch. Also they provide wine and champagne daily from late afternoon to early evening as well as coffee and tea in the morning.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r598216094-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
     <t>598216094</t>
   </si>
   <si>
-    <t>07/21/2018</t>
-  </si>
-  <si>
     <t>Good hotel, Good location</t>
   </si>
   <si>
     <t>I stayed in this hotel to attend a conference.  After multiple issues and a very long wait with the check-in process, we went to the restaurant for a quick meal.  Tiffany, one of the restaurant managers,  greeted us and even provided a complimentary beverage to two very weary travelers.  We saw her at breakfast for the next 3 days...always with the same pleasant smile and welcoming presence.  Erin of the wait staff also gave us great service and a smile to start the day.  The check-in process with Demetrius, however, was not pleasant.MoreShow less</t>
   </si>
   <si>
-    <t>Alan C, General Manager at Le Meridien Houston Downtown, responded to this reviewResponded 1 week ago</t>
-  </si>
-  <si>
-    <t>Responded 1 week ago</t>
-  </si>
-  <si>
     <t>I stayed in this hotel to attend a conference.  After multiple issues and a very long wait with the check-in process, we went to the restaurant for a quick meal.  Tiffany, one of the restaurant managers,  greeted us and even provided a complimentary beverage to two very weary travelers.  We saw her at breakfast for the next 3 days...always with the same pleasant smile and welcoming presence.  Erin of the wait staff also gave us great service and a smile to start the day.  The check-in process with Demetrius, however, was not pleasant.More</t>
   </si>
   <si>
@@ -345,15 +669,60 @@
     <t>I stayed at this hotel for 6 nights as part of a church convention. The room was clean and the bed comfortable.The check in process was quick and easy.The staff was helpful when asked questons. We used the metro line to travel to nrg park each day. This hotel was only 2 blocks from a station, which was an easy walk. The hotel is downtown near several shops and restaurants. There is a nice restaurant attached to this hotel too. A very nice place to stay!MoreShow less</t>
   </si>
   <si>
-    <t>Alan C, General Manager at Le Meridien Houston Downtown, responded to this reviewResponded 4 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 4 weeks ago</t>
+    <t>Alan C, General Manager at Le Meridien Houston Downtown, responded to this reviewResponded July 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2018</t>
   </si>
   <si>
     <t>I stayed at this hotel for 6 nights as part of a church convention. The room was clean and the bed comfortable.The check in process was quick and easy.The staff was helpful when asked questons. We used the metro line to travel to nrg park each day. This hotel was only 2 blocks from a station, which was an easy walk. The hotel is downtown near several shops and restaurants. There is a nice restaurant attached to this hotel too. A very nice place to stay!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r590685460-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>590685460</t>
+  </si>
+  <si>
+    <t>06/25/2018</t>
+  </si>
+  <si>
+    <t>Modern hotel with good location</t>
+  </si>
+  <si>
+    <t>I booked this hotel as an Express Deal through Priceline at the last minute.  ProsVery nice, modern decor and furniture.  Room was big and open.Bed was comfortable and linens were nice.  Complimentary soap/shampoo/conditioner were good.Closet space and organizers were big.Shower was largeHad to use room key to access your floor on elevator (felt more secure)Free lower speed internet access (worked just fine for the Roku we brought along)Cons.Pillows were very soft.  If you need more neck support, you might consider bringing a firmer pillow.No pool.  The view from our room wasn't great so be sure to ask a better location if that is importantThe ironing board and iron were not easily accessible in the closetThe shower head was installed on the side of the shower that didn't have a door.  Be sure to point the shower head towards the wall before you turn it on or you will get wet.  No enclosed tubs to bathe small children.  Only valet parking for $15 (day) or $34 (overnight)Overall, the hotel was very nice but I wouldn't recommend it for families with young children.  My husband and I would most likely revisit without the kiddos.MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked this hotel as an Express Deal through Priceline at the last minute.  ProsVery nice, modern decor and furniture.  Room was big and open.Bed was comfortable and linens were nice.  Complimentary soap/shampoo/conditioner were good.Closet space and organizers were big.Shower was largeHad to use room key to access your floor on elevator (felt more secure)Free lower speed internet access (worked just fine for the Roku we brought along)Cons.Pillows were very soft.  If you need more neck support, you might consider bringing a firmer pillow.No pool.  The view from our room wasn't great so be sure to ask a better location if that is importantThe ironing board and iron were not easily accessible in the closetThe shower head was installed on the side of the shower that didn't have a door.  Be sure to point the shower head towards the wall before you turn it on or you will get wet.  No enclosed tubs to bathe small children.  Only valet parking for $15 (day) or $34 (overnight)Overall, the hotel was very nice but I wouldn't recommend it for families with young children.  My husband and I would most likely revisit without the kiddos.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r589862811-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>589862811</t>
+  </si>
+  <si>
+    <t>06/22/2018</t>
+  </si>
+  <si>
+    <t>Great customer service.</t>
+  </si>
+  <si>
+    <t>Fantastic stay at this hotel. Mark at the front desk was so gracious and started my stay off wonderfully. I had had a long trip and he was just fantastic getting to my room quickly! The room was a good size and the location is pretty good. Some construction going on next door but I couldn’t even tell in my room.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Alan C, General Manager at Le Meridien Houston Downtown, responded to this reviewResponded July 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2018</t>
+  </si>
+  <si>
+    <t>Fantastic stay at this hotel. Mark at the front desk was so gracious and started my stay off wonderfully. I had had a long trip and he was just fantastic getting to my room quickly! The room was a good size and the location is pretty good. Some construction going on next door but I couldn’t even tell in my room.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r588898996-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
@@ -411,6 +780,55 @@
     <t>The Le Meridien is an absolutely gorgeous hotel.  Very modern.  The staff went out of their way to be helpful to us.  Check in/check out was a breeze, The room was beautiful.  The restaurant was great and the food was delicious.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r588056457-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>588056457</t>
+  </si>
+  <si>
+    <t>Amateur Hour Seemingly Run by Children</t>
+  </si>
+  <si>
+    <t>I judge a hotel on how they treat their most loyal clients &amp; their newest clients, those without status.
+I can say for certain that this hotel doesn't give a darn about SPG's most loyal clients, except to provide for breakfast. 
+I checked in about 7:30pm, which isn't too late. As a lifetime platinum, I'm supposed to get an upgrade if available. I asked about that at the front desk, and the woman who checked me in mumbled and appeared to ignore my question.
+I also was walking with a cane, as I have an injury.
+What she gave me was the room that I reserved, in other words, no upgrade &amp; no apology that there wasn't one available when I asked. 
+She also gave me the room the furthest away from the elevators, which isn't a good thing when you are walking with a cane. 
+When I called downstairs to ask about an upgrade, I was told the hotel was full &amp; nothing was available, which I knew wasn't true based on my quick check on the Internet.
+I asked to speak to a manager, and a young man got on the phone claiming he was the manager. I told him I wanted to speak to the GM, so to have the GM call me the following day.
+I had to get ready for a dinner, so I quickly unpacked and was getting dressed when someone from the front...I judge a hotel on how they treat their most loyal clients &amp; their newest clients, those without status.I can say for certain that this hotel doesn't give a darn about SPG's most loyal clients, except to provide for breakfast. I checked in about 7:30pm, which isn't too late. As a lifetime platinum, I'm supposed to get an upgrade if available. I asked about that at the front desk, and the woman who checked me in mumbled and appeared to ignore my question.I also was walking with a cane, as I have an injury.What she gave me was the room that I reserved, in other words, no upgrade &amp; no apology that there wasn't one available when I asked. She also gave me the room the furthest away from the elevators, which isn't a good thing when you are walking with a cane. When I called downstairs to ask about an upgrade, I was told the hotel was full &amp; nothing was available, which I knew wasn't true based on my quick check on the Internet.I asked to speak to a manager, and a young man got on the phone claiming he was the manager. I told him I wanted to speak to the GM, so to have the GM call me the following day.I had to get ready for a dinner, so I quickly unpacked and was getting dressed when someone from the front desk claiming to be a manager came to my door with another room key saying "we just found this room" - an upgrade.This man was present at the front desk when I checked in."Just found?" Are you kidding me? They lost the room? They have no idea what their inventory is?Or, they just didn't care to give SPG's most loyal customers the perks they deserve unless questioned and pressed into it.....which is the case.I told the young man that I had no time to change rooms at that point, that the better room should have been provided to me at check in, that I'd already unpacked and was now late for a dinner.I also asked him to have the GM call me the following day.Then, the next day I left at 10:45am &amp; came back at 3:15pm, and housekeeping hadn't been to my room! I called the front desk and was told, "we don't know what their schedule is."I needed to be in the room until 6pm at that point, so I told them to have someone come up at 6pm. They said someone could come and 'straighten up' the room, but not clean.When I got back at 11:30pm, there were fresh towels &amp; toiletries, but the room hadn't been "straightened" at all. I changed my reservation to 2 nights from 3, because I couldn't 'reward' such terrible behavior.The GM never called me.I ordered food from the outside to be delivered, because I saw no reason to provide ancillary revenue to a hotel that didn't care about me or my business.Amateur hour...run by kids.I never saw a single person who worked for the property who was over 35 years old.Shower pressure: Good.Front desk: Below average.Bed: Average.Sheets/Bedding: Average.Towels: Above average.Phone service/attendants: Average.Room size: Average.Room service: N/A (Room service is from the restaurant. No mini-bar in the room.)Bathroom amenities: Above averageMake-up mirror: None and TERRIBLE lighting in the bathroom that isn't sufficient for make-up.MoreShow less</t>
+  </si>
+  <si>
+    <t>I judge a hotel on how they treat their most loyal clients &amp; their newest clients, those without status.
+I can say for certain that this hotel doesn't give a darn about SPG's most loyal clients, except to provide for breakfast. 
+I checked in about 7:30pm, which isn't too late. As a lifetime platinum, I'm supposed to get an upgrade if available. I asked about that at the front desk, and the woman who checked me in mumbled and appeared to ignore my question.
+I also was walking with a cane, as I have an injury.
+What she gave me was the room that I reserved, in other words, no upgrade &amp; no apology that there wasn't one available when I asked. 
+She also gave me the room the furthest away from the elevators, which isn't a good thing when you are walking with a cane. 
+When I called downstairs to ask about an upgrade, I was told the hotel was full &amp; nothing was available, which I knew wasn't true based on my quick check on the Internet.
+I asked to speak to a manager, and a young man got on the phone claiming he was the manager. I told him I wanted to speak to the GM, so to have the GM call me the following day.
+I had to get ready for a dinner, so I quickly unpacked and was getting dressed when someone from the front...I judge a hotel on how they treat their most loyal clients &amp; their newest clients, those without status.I can say for certain that this hotel doesn't give a darn about SPG's most loyal clients, except to provide for breakfast. I checked in about 7:30pm, which isn't too late. As a lifetime platinum, I'm supposed to get an upgrade if available. I asked about that at the front desk, and the woman who checked me in mumbled and appeared to ignore my question.I also was walking with a cane, as I have an injury.What she gave me was the room that I reserved, in other words, no upgrade &amp; no apology that there wasn't one available when I asked. She also gave me the room the furthest away from the elevators, which isn't a good thing when you are walking with a cane. When I called downstairs to ask about an upgrade, I was told the hotel was full &amp; nothing was available, which I knew wasn't true based on my quick check on the Internet.I asked to speak to a manager, and a young man got on the phone claiming he was the manager. I told him I wanted to speak to the GM, so to have the GM call me the following day.I had to get ready for a dinner, so I quickly unpacked and was getting dressed when someone from the front desk claiming to be a manager came to my door with another room key saying "we just found this room" - an upgrade.This man was present at the front desk when I checked in."Just found?" Are you kidding me? They lost the room? They have no idea what their inventory is?Or, they just didn't care to give SPG's most loyal customers the perks they deserve unless questioned and pressed into it.....which is the case.I told the young man that I had no time to change rooms at that point, that the better room should have been provided to me at check in, that I'd already unpacked and was now late for a dinner.I also asked him to have the GM call me the following day.Then, the next day I left at 10:45am &amp; came back at 3:15pm, and housekeeping hadn't been to my room! I called the front desk and was told, "we don't know what their schedule is."I needed to be in the room until 6pm at that point, so I told them to have someone come up at 6pm. They said someone could come and 'straighten up' the room, but not clean.When I got back at 11:30pm, there were fresh towels &amp; toiletries, but the room hadn't been "straightened" at all. I changed my reservation to 2 nights from 3, because I couldn't 'reward' such terrible behavior.The GM never called me.I ordered food from the outside to be delivered, because I saw no reason to provide ancillary revenue to a hotel that didn't care about me or my business.Amateur hour...run by kids.I never saw a single person who worked for the property who was over 35 years old.Shower pressure: Good.Front desk: Below average.Bed: Average.Sheets/Bedding: Average.Towels: Above average.Phone service/attendants: Average.Room size: Average.Room service: N/A (Room service is from the restaurant. No mini-bar in the room.)Bathroom amenities: Above averageMake-up mirror: None and TERRIBLE lighting in the bathroom that isn't sufficient for make-up.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r587833006-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>587833006</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>Fantastic</t>
+  </si>
+  <si>
+    <t>Wonderful hotel, terrific room, great staff, especially the exceptional Aaliyah on the front desk. She arranged for a lovely surprise on my birthday with a bottle of Bubbly and beautiful fruits to be delivered to our room on the house. The room had a terrific view and an amazingly comfy bed.  Can’t wait to come back here.MoreShow less</t>
+  </si>
+  <si>
+    <t>Wonderful hotel, terrific room, great staff, especially the exceptional Aaliyah on the front desk. She arranged for a lovely surprise on my birthday with a bottle of Bubbly and beautiful fruits to be delivered to our room on the house. The room had a terrific view and an amazingly comfy bed.  Can’t wait to come back here.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r585192293-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
@@ -480,6 +898,42 @@
     <t>Beautiful hotel with exceptional service.  Room was very nice, amenities were lovely.  We enjoyed a drink and snack at the downstairs bar, as well as the rooftop lounge, they did not disappoint!  The foie gras torchon was delightful.  Valet was very helpful and they offered a complimentary shuttle ride to our concert at the Toyota Center.  We opted for a walk there instead, since it was only a few blocks.  Highly recommend!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r582724893-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>582724893</t>
+  </si>
+  <si>
+    <t>05/25/2018</t>
+  </si>
+  <si>
+    <t>Lovely Accommodations!!</t>
+  </si>
+  <si>
+    <t>My husband and I were recently in Houston at Houston Methodist. We required an additional day as another consult was arranged and our previous hotel had no vacancy for our additional day because of the NBA playoffs. The staff at JWMarriott recommended Le Merida since they will soon become a part of the Marriott family. The hotel was quite nice, the rooms were not as large, but very nicely decorated, very modern and the staff were all very friendly and accommodating. Check in is actually on the 2nd floor, which is different, but very quick and easy. Gabrielle checked us in and was like family. Very warm and charming, beautiful smile and recommended that we take an inside room because there was construction being done on the streets at night and would disturb us..... great recommendation!!! We were not able to get a king, but 2 doubles and had breakfast the next morning in Zutro restaurant. The waffles and omelette were both delicious!!! Forgot the pictures, but TRUST ME..... you would want to order either and enjoy!!! My husaband and I split the two entree’s .... Devine !!!!We forgot to take pics MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I were recently in Houston at Houston Methodist. We required an additional day as another consult was arranged and our previous hotel had no vacancy for our additional day because of the NBA playoffs. The staff at JWMarriott recommended Le Merida since they will soon become a part of the Marriott family. The hotel was quite nice, the rooms were not as large, but very nicely decorated, very modern and the staff were all very friendly and accommodating. Check in is actually on the 2nd floor, which is different, but very quick and easy. Gabrielle checked us in and was like family. Very warm and charming, beautiful smile and recommended that we take an inside room because there was construction being done on the streets at night and would disturb us..... great recommendation!!! We were not able to get a king, but 2 doubles and had breakfast the next morning in Zutro restaurant. The waffles and omelette were both delicious!!! Forgot the pictures, but TRUST ME..... you would want to order either and enjoy!!! My husaband and I split the two entree’s .... Devine !!!!We forgot to take pics More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r581033836-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>581033836</t>
+  </si>
+  <si>
+    <t>05/18/2018</t>
+  </si>
+  <si>
+    <t>Excellence!</t>
+  </si>
+  <si>
+    <t>Absolutely perfect stay!  Service was flawless. Price was very competitive. Breakfast was superb. SPG Platinum recognition was over the top. Illy coffee... priceless. The rooftop bar is very special. It has lovely views. MoreShow less</t>
+  </si>
+  <si>
+    <t>Absolutely perfect stay!  Service was flawless. Price was very competitive. Breakfast was superb. SPG Platinum recognition was over the top. Illy coffee... priceless. The rooftop bar is very special. It has lovely views. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r580637843-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
@@ -546,6 +1000,51 @@
     <t>I am not familiar with Houston but was in town for a conference and was looking for a nice hotel not too far from the convention center but still far enough away from the tourism that surrounds a convention center -- the Le Meridien fit the bill location wise.As an SPG Platinum member I was upgraded to a king bedroom suite and it was a very nice and modern room.  Good wifi speed, high quality toiletries (Malin+Goetz), Illy coffee machine, a comfortable bed, and nice and quiet AC.  What more could you ask for?The health club was large and full of new equipment but limited on the weight machines.  There was no one there so I had the place to myself whenever I was there.  The hotel also has a nice roof top bar, but it rained two of the nights so i was not able to use it.  The restaurant breakfast is very good.I would stay again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r577654510-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>577654510</t>
+  </si>
+  <si>
+    <t>05/03/2018</t>
+  </si>
+  <si>
+    <t>Good place to stay</t>
+  </si>
+  <si>
+    <t>We stayed at let meridian one nite to see an Astros game. Great location and very nice new hotel. Check-in was easy and staff very nice. Able to print our game tx easily in the business center. Room was large, clean, and comfortable. Tried to take shower at midnight and faucet fell off and could not turn water off. Front desk offered to try and move us but said they were full. Maintenance helped us out. At 7:30 in the AM there was a knock on the door which startled me. It was housekeeping just checking!! What? We did have a good time on rooftop bar but didn’t appreciate being woke up so early. At checkout we were not asked how are stay was or I would have mentioned the two incidents. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>We stayed at let meridian one nite to see an Astros game. Great location and very nice new hotel. Check-in was easy and staff very nice. Able to print our game tx easily in the business center. Room was large, clean, and comfortable. Tried to take shower at midnight and faucet fell off and could not turn water off. Front desk offered to try and move us but said they were full. Maintenance helped us out. At 7:30 in the AM there was a knock on the door which startled me. It was housekeeping just checking!! What? We did have a good time on rooftop bar but didn’t appreciate being woke up so early. At checkout we were not asked how are stay was or I would have mentioned the two incidents. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r575529115-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>575529115</t>
+  </si>
+  <si>
+    <t>04/24/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modern, but be careful! </t>
+  </si>
+  <si>
+    <t>The hotel is perfectly centered in downtown. Walkable distance to major attractions. It is a very modern and clean hotel. Our guest service representative was very friendly and professional. Now, let’s talk about a staff member opening our room door before checkout time! I was still in bed and heard two Knocks on the door, I thought it was my friend that had stayed in the hotel the same night. Before I could even get out of bed, I see the door opening!!!! It was a staff member and he just said sorry and coses the door. I couldn’t even catch his face or name because he left right away. It was the weirdest and scariest situation I have ever been in at a hotel. What is if I showering?! He would of came into the room?! I had the security door lock on as well, maybe that’s why he couldn’t come all the way into the room. When I told my friend about the incident, she also mentioned the same thing happened to her room! Very unprofessional. MoreShow less</t>
+  </si>
+  <si>
+    <t>Alan C, General Manager at Le Meridien Houston Downtown, responded to this reviewResponded April 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2018</t>
+  </si>
+  <si>
+    <t>The hotel is perfectly centered in downtown. Walkable distance to major attractions. It is a very modern and clean hotel. Our guest service representative was very friendly and professional. Now, let’s talk about a staff member opening our room door before checkout time! I was still in bed and heard two Knocks on the door, I thought it was my friend that had stayed in the hotel the same night. Before I could even get out of bed, I see the door opening!!!! It was a staff member and he just said sorry and coses the door. I couldn’t even catch his face or name because he left right away. It was the weirdest and scariest situation I have ever been in at a hotel. What is if I showering?! He would of came into the room?! I had the security door lock on as well, maybe that’s why he couldn’t come all the way into the room. When I told my friend about the incident, she also mentioned the same thing happened to her room! Very unprofessional. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r572511364-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
@@ -621,6 +1120,57 @@
     <t>Modern hotel, spacious comfy rooms and bathroom. Very helpful staff. The best of all was the gym which I really enjoyed. Cool roof terrace. Breakfast a la carte only, bit slow and expensive, but OK. Very large portions of food. I recommend the Texas bowl from the breakfast menu. Compared to other hotels in this area definitely good valueMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r567461244-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>567461244</t>
+  </si>
+  <si>
+    <t>Le Meridian Needs Help</t>
+  </si>
+  <si>
+    <t>The building history and bild out Is interesting and great. Rooms are quite nice and very comfortable in all respects. Hotel staff were courteous and very attentive. A special shout to restraint manager who had to deal with a very irate guest... me.I will not get into details. That would only serve to help improve the hotel ammenities and I would never go back to this property again.Late night room service... Worst I have ever experienced any where in the world.Roof top bar... Worst I have ever experienced ever.Breakfast... I could not have planned a worse experience. Stay at the hotel for the creature comforts and polite staff. Go anywhere else for cocktails and meals.Salud!MoreShow less</t>
+  </si>
+  <si>
+    <t>The building history and bild out Is interesting and great. Rooms are quite nice and very comfortable in all respects. Hotel staff were courteous and very attentive. A special shout to restraint manager who had to deal with a very irate guest... me.I will not get into details. That would only serve to help improve the hotel ammenities and I would never go back to this property again.Late night room service... Worst I have ever experienced any where in the world.Roof top bar... Worst I have ever experienced ever.Breakfast... I could not have planned a worse experience. Stay at the hotel for the creature comforts and polite staff. Go anywhere else for cocktails and meals.Salud!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r566179594-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>566179594</t>
+  </si>
+  <si>
+    <t>03/12/2018</t>
+  </si>
+  <si>
+    <t>Modern, Comfortable and well located downtown hotel</t>
+  </si>
+  <si>
+    <t>I’m currently staying at the hotel and so far, so good. It’s only been opened about 5-6 months, so everything is nice and new.  
+The hotel was pretty well located for my needs -  in the downtown core less than a 10 minute walk to my office.  I think the Uber ride from the airport IAH was about 30 minutes late at night. 
+Check in is on the second floor - was rather quick and smooth.  I asked have green choice and was told I had to put the green choice sign on my door handle. I asked them to just put it on my file at Check-in and Check-in said the door sign was the process, which I find rather inefficient... but none the less, did as i was told (please change/improve the process). 
+I had a King room on the 18th floor and found it spacious and comfortable. Bed was good, decent size work desk, sizeable TV.  Bathroom has plenty of room and was bright. Good countertop space for toiletries or whatever. Shower was a walk in with glass door - water pressure was strong and hot - just what you’d want.  
+No concierge lounge... which I value at the SPG/Marriott. I usually only stay at hotels with a lounge. 
+Breakfast was good on my the mail floor.  I got a voucher at Check-in based upon my status, but it barely covered my very light breakfast. 
+There’s a...I’m currently staying at the hotel and so far, so good. It’s only been opened about 5-6 months, so everything is nice and new.  The hotel was pretty well located for my needs -  in the downtown core less than a 10 minute walk to my office.  I think the Uber ride from the airport IAH was about 30 minutes late at night. Check in is on the second floor - was rather quick and smooth.  I asked have green choice and was told I had to put the green choice sign on my door handle. I asked them to just put it on my file at Check-in and Check-in said the door sign was the process, which I find rather inefficient... but none the less, did as i was told (please change/improve the process). I had a King room on the 18th floor and found it spacious and comfortable. Bed was good, decent size work desk, sizeable TV.  Bathroom has plenty of room and was bright. Good countertop space for toiletries or whatever. Shower was a walk in with glass door - water pressure was strong and hot - just what you’d want.  No concierge lounge... which I value at the SPG/Marriott. I usually only stay at hotels with a lounge. Breakfast was good on my the mail floor.  I got a voucher at Check-in based upon my status, but it barely covered my very light breakfast. There’s a outdoor bar on the top floor. I went up there to check it out - it looked pretty nice, although I did not drink any (it was too early). The workout gym is beside the outdoor patio.  It looked nice but I did not have time to use it. I’ve tried many hotels in downtown Houston and I like this one. Would I stay here again:  YesMoreShow less</t>
+  </si>
+  <si>
+    <t>Stephen S, Director of Sales at Le Meridien Houston Downtown, responded to this reviewResponded March 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2018</t>
+  </si>
+  <si>
+    <t>I’m currently staying at the hotel and so far, so good. It’s only been opened about 5-6 months, so everything is nice and new.  
+The hotel was pretty well located for my needs -  in the downtown core less than a 10 minute walk to my office.  I think the Uber ride from the airport IAH was about 30 minutes late at night. 
+Check in is on the second floor - was rather quick and smooth.  I asked have green choice and was told I had to put the green choice sign on my door handle. I asked them to just put it on my file at Check-in and Check-in said the door sign was the process, which I find rather inefficient... but none the less, did as i was told (please change/improve the process). 
+I had a King room on the 18th floor and found it spacious and comfortable. Bed was good, decent size work desk, sizeable TV.  Bathroom has plenty of room and was bright. Good countertop space for toiletries or whatever. Shower was a walk in with glass door - water pressure was strong and hot - just what you’d want.  
+No concierge lounge... which I value at the SPG/Marriott. I usually only stay at hotels with a lounge. 
+Breakfast was good on my the mail floor.  I got a voucher at Check-in based upon my status, but it barely covered my very light breakfast. 
+There’s a...I’m currently staying at the hotel and so far, so good. It’s only been opened about 5-6 months, so everything is nice and new.  The hotel was pretty well located for my needs -  in the downtown core less than a 10 minute walk to my office.  I think the Uber ride from the airport IAH was about 30 minutes late at night. Check in is on the second floor - was rather quick and smooth.  I asked have green choice and was told I had to put the green choice sign on my door handle. I asked them to just put it on my file at Check-in and Check-in said the door sign was the process, which I find rather inefficient... but none the less, did as i was told (please change/improve the process). I had a King room on the 18th floor and found it spacious and comfortable. Bed was good, decent size work desk, sizeable TV.  Bathroom has plenty of room and was bright. Good countertop space for toiletries or whatever. Shower was a walk in with glass door - water pressure was strong and hot - just what you’d want.  No concierge lounge... which I value at the SPG/Marriott. I usually only stay at hotels with a lounge. Breakfast was good on my the mail floor.  I got a voucher at Check-in based upon my status, but it barely covered my very light breakfast. There’s a outdoor bar on the top floor. I went up there to check it out - it looked pretty nice, although I did not drink any (it was too early). The workout gym is beside the outdoor patio.  It looked nice but I did not have time to use it. I’ve tried many hotels in downtown Houston and I like this one. Would I stay here again:  YesMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r565943618-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
@@ -636,12 +1186,6 @@
     <t>My best friend and I stayed here for the weekend on March 9, 10 and 11. We were celebrating my 58th birthday. This was our first visit to this escuisit hotel, surprised beyond words. We were not expecting such a glamorous hotel. The front desk personal and valet personal were extremely friendly and hospitable. They even open the elevator for you. You literally feel like a king staying at this fine hotel. The rooms felt brand new, everything was spotless. The decor is second to none. To top it off they have a fantastic view from the 23rd floor with a full service bar. The ambiance of the balcony with beautiful views of downtown Houston is awe inspiring. I can't say enough great things about this place. This is how a fine hotel should be operated. Hats off to all the people that make this hotel click, fantastic job!MoreShow less</t>
   </si>
   <si>
-    <t>Stephen S, Director of Sales at Le Meridien Houston Downtown, responded to this reviewResponded March 19, 2018</t>
-  </si>
-  <si>
-    <t>Responded March 19, 2018</t>
-  </si>
-  <si>
     <t>My best friend and I stayed here for the weekend on March 9, 10 and 11. We were celebrating my 58th birthday. This was our first visit to this escuisit hotel, surprised beyond words. We were not expecting such a glamorous hotel. The front desk personal and valet personal were extremely friendly and hospitable. They even open the elevator for you. You literally feel like a king staying at this fine hotel. The rooms felt brand new, everything was spotless. The decor is second to none. To top it off they have a fantastic view from the 23rd floor with a full service bar. The ambiance of the balcony with beautiful views of downtown Houston is awe inspiring. I can't say enough great things about this place. This is how a fine hotel should be operated. Hats off to all the people that make this hotel click, fantastic job!More</t>
   </si>
   <si>
@@ -699,27 +1243,70 @@
     <t>The Le Meridian hotel in Houston has a convenient location, but they have a few issues to work out before I would ever consider staying there again. The water pressure in the shower was really weak and inadequate to rinse shampoo from my hair. Even worse, for room service continental breakfast all they delivered was a cold and completely soggy english muffin. That was a bit shocking for a Starwood hotel. Hopefully they work these things out before too long.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r563013452-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>563013452</t>
+  </si>
+  <si>
+    <t>02/26/2018</t>
+  </si>
+  <si>
+    <t>Stylish, comfortable and great service</t>
+  </si>
+  <si>
+    <t>Beautiful new hotel in downtown, conveniently located near the metro, convention center, ballpark etc. The building has been beautifully renovated/restored and the interior spaces exude a classy retro vibe. Though the decor is a bit cold feeling, the staff are extremely warm and welcoming. My King room was HUGE and very well appointed. The illy espresso machine in the room was my favorite part. Bed was comfortable, although the mattress liner was a bit tough and felt weird between my feet and the mattress. Housekeeping was very thorough and I appreciated the chocolate mint on my pillow and the generous Malin + Goetz toiletries. The only thing they missed was the slightest dust/debris in the corners which showed due to the clean/uncluttered nature of the decor. Overall, though, I was very impressed and will recommend this hotel to friends/family.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stephen S, Director of Sales at Le Meridien Houston Downtown, responded to this reviewResponded February 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 28, 2018</t>
+  </si>
+  <si>
+    <t>Beautiful new hotel in downtown, conveniently located near the metro, convention center, ballpark etc. The building has been beautifully renovated/restored and the interior spaces exude a classy retro vibe. Though the decor is a bit cold feeling, the staff are extremely warm and welcoming. My King room was HUGE and very well appointed. The illy espresso machine in the room was my favorite part. Bed was comfortable, although the mattress liner was a bit tough and felt weird between my feet and the mattress. Housekeeping was very thorough and I appreciated the chocolate mint on my pillow and the generous Malin + Goetz toiletries. The only thing they missed was the slightest dust/debris in the corners which showed due to the clean/uncluttered nature of the decor. Overall, though, I was very impressed and will recommend this hotel to friends/family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r562383757-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>562383757</t>
+  </si>
+  <si>
+    <t>02/23/2018</t>
+  </si>
+  <si>
+    <t>Terrific Downtown Houston Hotel</t>
+  </si>
+  <si>
+    <t>Recently stayed here for a personal trip Thursday through Sunday.  I've stayed at the majority of upscale downtown Houston hotels but this was my first stay here.  I chose it because the rate was considerably less than some of my usual options.  Frankly I was a little skeptical because the rates were so much better than surrounding properties.
+Conveniently located downtown the building is inviting and modern.  Valet parking is easily accessible and the valet service was courteous and fast.  It is so refreshing to stay at a property that still values courtesy, friendliness and service.  Without exception every staff member we encountered exhibited those values.  Check in was friendly and rapid.  The hotel interior decor is modern but still manages to be warm and inviting.  Our room was immaculate and, in fact, seemed brand new.  Very generously sized room with a modern, clean and well appointed bathroom including tub and shower unit.  
+One of the best things about the property is a very nice rooftop bar offering downtown Houston views.  The space is very inviting and, once again, bar staff were friendly and professional.  Only downside is the rooftop space has no protection from inclement weather.  It seemed very popular on Friday night when we visited but was not overcrowded.  We dined at Oxbow 7 at the hotel and had a phenomenal dinner.  Once again we enjoyed impeccable service and an outstanding and very creative meal.  Breakfast at the...Recently stayed here for a personal trip Thursday through Sunday.  I've stayed at the majority of upscale downtown Houston hotels but this was my first stay here.  I chose it because the rate was considerably less than some of my usual options.  Frankly I was a little skeptical because the rates were so much better than surrounding properties.Conveniently located downtown the building is inviting and modern.  Valet parking is easily accessible and the valet service was courteous and fast.  It is so refreshing to stay at a property that still values courtesy, friendliness and service.  Without exception every staff member we encountered exhibited those values.  Check in was friendly and rapid.  The hotel interior decor is modern but still manages to be warm and inviting.  Our room was immaculate and, in fact, seemed brand new.  Very generously sized room with a modern, clean and well appointed bathroom including tub and shower unit.  One of the best things about the property is a very nice rooftop bar offering downtown Houston views.  The space is very inviting and, once again, bar staff were friendly and professional.  Only downside is the rooftop space has no protection from inclement weather.  It seemed very popular on Friday night when we visited but was not overcrowded.  We dined at Oxbow 7 at the hotel and had a phenomenal dinner.  Once again we enjoyed impeccable service and an outstanding and very creative meal.  Breakfast at the hotel the next morning was equally outstanding.  I highly recommend this restaurant whether you are staying here or not.I don't try to throw around 5 star reviews too easily but this property earned it.  We had a simply perfect stay.  This is the way hotels were meant to be.  Please keep up the good work.This was a completely unsolicited review and expresses my direct experience and opinion.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stephen S, Director of Sales at Le Meridien Houston Downtown, responded to this reviewResponded February 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 26, 2018</t>
+  </si>
+  <si>
+    <t>Recently stayed here for a personal trip Thursday through Sunday.  I've stayed at the majority of upscale downtown Houston hotels but this was my first stay here.  I chose it because the rate was considerably less than some of my usual options.  Frankly I was a little skeptical because the rates were so much better than surrounding properties.
+Conveniently located downtown the building is inviting and modern.  Valet parking is easily accessible and the valet service was courteous and fast.  It is so refreshing to stay at a property that still values courtesy, friendliness and service.  Without exception every staff member we encountered exhibited those values.  Check in was friendly and rapid.  The hotel interior decor is modern but still manages to be warm and inviting.  Our room was immaculate and, in fact, seemed brand new.  Very generously sized room with a modern, clean and well appointed bathroom including tub and shower unit.  
+One of the best things about the property is a very nice rooftop bar offering downtown Houston views.  The space is very inviting and, once again, bar staff were friendly and professional.  Only downside is the rooftop space has no protection from inclement weather.  It seemed very popular on Friday night when we visited but was not overcrowded.  We dined at Oxbow 7 at the hotel and had a phenomenal dinner.  Once again we enjoyed impeccable service and an outstanding and very creative meal.  Breakfast at the...Recently stayed here for a personal trip Thursday through Sunday.  I've stayed at the majority of upscale downtown Houston hotels but this was my first stay here.  I chose it because the rate was considerably less than some of my usual options.  Frankly I was a little skeptical because the rates were so much better than surrounding properties.Conveniently located downtown the building is inviting and modern.  Valet parking is easily accessible and the valet service was courteous and fast.  It is so refreshing to stay at a property that still values courtesy, friendliness and service.  Without exception every staff member we encountered exhibited those values.  Check in was friendly and rapid.  The hotel interior decor is modern but still manages to be warm and inviting.  Our room was immaculate and, in fact, seemed brand new.  Very generously sized room with a modern, clean and well appointed bathroom including tub and shower unit.  One of the best things about the property is a very nice rooftop bar offering downtown Houston views.  The space is very inviting and, once again, bar staff were friendly and professional.  Only downside is the rooftop space has no protection from inclement weather.  It seemed very popular on Friday night when we visited but was not overcrowded.  We dined at Oxbow 7 at the hotel and had a phenomenal dinner.  Once again we enjoyed impeccable service and an outstanding and very creative meal.  Breakfast at the hotel the next morning was equally outstanding.  I highly recommend this restaurant whether you are staying here or not.I don't try to throw around 5 star reviews too easily but this property earned it.  We had a simply perfect stay.  This is the way hotels were meant to be.  Please keep up the good work.This was a completely unsolicited review and expresses my direct experience and opinion.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r562379212-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
     <t>562379212</t>
   </si>
   <si>
-    <t>02/23/2018</t>
-  </si>
-  <si>
     <t xml:space="preserve">Favorite hotel in Houston </t>
   </si>
   <si>
     <t>I’ve been staying at the le meridien in Houston every week for the last ~3 months. I tried most of the comparable hotels in Houston and love the le meridien. They have great service and although no platinum lounge, they make up for it in other ways.... it’s a great home away from home for me! MoreShow less</t>
   </si>
   <si>
-    <t>Stephen S, Director of Sales at Le Meridien Houston Downtown, responded to this reviewResponded February 26, 2018</t>
-  </si>
-  <si>
-    <t>Responded February 26, 2018</t>
-  </si>
-  <si>
     <t>I’ve been staying at the le meridien in Houston every week for the last ~3 months. I tried most of the comparable hotels in Houston and love the le meridien. They have great service and although no platinum lounge, they make up for it in other ways.... it’s a great home away from home for me! More</t>
   </si>
   <si>
@@ -762,9 +1349,6 @@
     <t>From the time I pulled up until the time I left i was impressed. The staff and space were all top notch. I had an issue and it was rectified immediately. The rooftop bar gives a nice view of downtown. The gym is pristine. A must stay.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>Stephen S, Director of Sales at Le Meridien Houston Downtown, responded to this reviewResponded February 22, 2018</t>
   </si>
   <si>
@@ -774,6 +1358,48 @@
     <t>From the time I pulled up until the time I left i was impressed. The staff and space were all top notch. I had an issue and it was rectified immediately. The rooftop bar gives a nice view of downtown. The gym is pristine. A must stay.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r561598563-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>561598563</t>
+  </si>
+  <si>
+    <t>02/19/2018</t>
+  </si>
+  <si>
+    <t>Hidden Gem</t>
+  </si>
+  <si>
+    <t>Just returned from 2 nights in Houston and this hotel was a great stay. We were upgraded to a suite, given a sculpture of towels, champagne, fresh fruit and chocolate  all for my wife birthday. Staff was great but did not have a depth of knowledge about nearby restaurants. Wine in the lobby from 4-7pm was also a nice perk. Take your wine to the penthouse for a spectacular panorama of the downtown with comfy chairs, couches and great music. The hotel is 5 months old and spotless with new towels, sheets and comfortable bed.I must say that the restaurant for breakfast was the low point with 2 mornings experience with so-so service and food. Wrong drink, salty egg dish and boring granola. A morning cold buffet and coffee would be perfect, great donuts!Overall a really great value in a great downtown location. Walk to South Coast Grill and Vic and Anthony (for a splurge).MoreShow less</t>
+  </si>
+  <si>
+    <t>Stephen S, Director of Sales at Le Meridien Houston Downtown, responded to this reviewResponded February 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2018</t>
+  </si>
+  <si>
+    <t>Just returned from 2 nights in Houston and this hotel was a great stay. We were upgraded to a suite, given a sculpture of towels, champagne, fresh fruit and chocolate  all for my wife birthday. Staff was great but did not have a depth of knowledge about nearby restaurants. Wine in the lobby from 4-7pm was also a nice perk. Take your wine to the penthouse for a spectacular panorama of the downtown with comfy chairs, couches and great music. The hotel is 5 months old and spotless with new towels, sheets and comfortable bed.I must say that the restaurant for breakfast was the low point with 2 mornings experience with so-so service and food. Wrong drink, salty egg dish and boring granola. A morning cold buffet and coffee would be perfect, great donuts!Overall a really great value in a great downtown location. Walk to South Coast Grill and Vic and Anthony (for a splurge).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r561289258-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>561289258</t>
+  </si>
+  <si>
+    <t>02/18/2018</t>
+  </si>
+  <si>
+    <t>Fantastic hotel, but I won't return bc breakfast</t>
+  </si>
+  <si>
+    <t>As an SPG traveler, the breakfast amenity is extremely important to me and for that reason I can't recommend this place to anybody else that has similar reasons for choosing a hotel. The hotel proper was truly amazing. The hotel breakfast was truly horrible. The hotel staff was extremely competent and genuinely engaging (not fake). One employee even introduced himself on the street to share some local knowledge! Unfortunately, we didn't have time to shower bc a simple breakfast took over an hour so I can't tell you if there were any water issues on a high floor, but everything else was perfectly maintained. This was my first, and I would definitely try another Le Meridien based on this experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>As an SPG traveler, the breakfast amenity is extremely important to me and for that reason I can't recommend this place to anybody else that has similar reasons for choosing a hotel. The hotel proper was truly amazing. The hotel breakfast was truly horrible. The hotel staff was extremely competent and genuinely engaging (not fake). One employee even introduced himself on the street to share some local knowledge! Unfortunately, we didn't have time to shower bc a simple breakfast took over an hour so I can't tell you if there were any water issues on a high floor, but everything else was perfectly maintained. This was my first, and I would definitely try another Le Meridien based on this experience.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r561127519-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
@@ -844,6 +1470,48 @@
   </si>
   <si>
     <t>Haven’t had staff this friendly in a very long time at a hotel. The hotel was nice, central and mostly convenient. I was upgraded to a suite that had a lot of room and was very clean. The door staff and desk staff did everything to make my stay convenient . I’d stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r558871445-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>558871445</t>
+  </si>
+  <si>
+    <t>02/06/2018</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for work. I enjoyed my stay at this hotel, rooms were clean and very nice. Staff was nice as well. I enjoyed the rooftop bar that also had a nice view of the city. The only thing I didnt not like about this hotel was their shampoo and body wash, the scent was awful like kewi and cucumber, just bad. But overall nice hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Stephen S, Director of Sales at Le Meridien Houston Downtown, responded to this reviewResponded February 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 8, 2018</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for work. I enjoyed my stay at this hotel, rooms were clean and very nice. Staff was nice as well. I enjoyed the rooftop bar that also had a nice view of the city. The only thing I didnt not like about this hotel was their shampoo and body wash, the scent was awful like kewi and cucumber, just bad. But overall nice hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r558862825-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>558862825</t>
+  </si>
+  <si>
+    <t>Very modern, service-oriented hotel</t>
+  </si>
+  <si>
+    <t>From the moment you arrive at the front door, there are friendly service people everywhere to help you.  The lobby is on the floor above the ground level entrance.  It's not a typical check-in.  It's informal and easy.  It's very clean and modern.  The rooms are a retro-60's style.  There's little carpeting which I prefer since it harbors less germs.  We had a room where the door of the closet slid to become the door to the bathroom.  It was frustrating because if you want to go in and out of the closet to the bathroom, you had to constantly slide the door.  Not good for elderly, for sure.  Other than that, the location is centrally located to walk to downtown sites.  There is an underground tunnel system where a lot of the stores and restaurants are so the streets seem pretty sparse of people.  At first,  not being used to that, it looked rather post-apocalyptic; but it was an easy walk to a lot of venues and Uber drivers were always around.  This is a very nice hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>From the moment you arrive at the front door, there are friendly service people everywhere to help you.  The lobby is on the floor above the ground level entrance.  It's not a typical check-in.  It's informal and easy.  It's very clean and modern.  The rooms are a retro-60's style.  There's little carpeting which I prefer since it harbors less germs.  We had a room where the door of the closet slid to become the door to the bathroom.  It was frustrating because if you want to go in and out of the closet to the bathroom, you had to constantly slide the door.  Not good for elderly, for sure.  Other than that, the location is centrally located to walk to downtown sites.  There is an underground tunnel system where a lot of the stores and restaurants are so the streets seem pretty sparse of people.  At first,  not being used to that, it looked rather post-apocalyptic; but it was an easy walk to a lot of venues and Uber drivers were always around.  This is a very nice hotel.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r558667003-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
@@ -922,6 +1590,51 @@
     <t>From the moment I walked into the door, until i left, the experience at this hotel was amazing.  Robin Moncrieffe was responsible for helping  my trade association book several rooms.  The pricing and customer services were top notch.  The reservation check in team and restaurant servers were exceptional.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r555277535-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>555277535</t>
+  </si>
+  <si>
+    <t>01/21/2018</t>
+  </si>
+  <si>
+    <t>Great Downtown stay</t>
+  </si>
+  <si>
+    <t>We picked Le Meridien for our promotional Marathon location. It is close to most everything in Downtown Houston. We recommend getting a suite, which is worth the extra tariff. Has a table with 4 chairs, plus BOTH a shower and a tub. Staff was friendly, and the restaurant is reasonable. MoreShow less</t>
+  </si>
+  <si>
+    <t>Stephen S, Director of Sales at Le Meridien Houston Downtown, responded to this reviewResponded January 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2018</t>
+  </si>
+  <si>
+    <t>We picked Le Meridien for our promotional Marathon location. It is close to most everything in Downtown Houston. We recommend getting a suite, which is worth the extra tariff. Has a table with 4 chairs, plus BOTH a shower and a tub. Staff was friendly, and the restaurant is reasonable. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r555146672-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>555146672</t>
+  </si>
+  <si>
+    <t>Great central hotel downtown!</t>
+  </si>
+  <si>
+    <t>I stayed here for business and enjoyed the room amenities and decor.  It is new, modern and the location is great - walkable to Minute Maid Park, Toyota Center, Main Street and more!  Hotel has a restaurant (Oxbow) and rooftop bar however due to the rain, the rooftop bar was closed both nights.  Room Service was quick and good.  Their fitness center is very clean and spacious.  The hotel does not have a pool.  I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stephen S, Director of Sales at Le Meridien Houston Downtown, responded to this reviewResponded January 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2018</t>
+  </si>
+  <si>
+    <t>I stayed here for business and enjoyed the room amenities and decor.  It is new, modern and the location is great - walkable to Minute Maid Park, Toyota Center, Main Street and more!  Hotel has a restaurant (Oxbow) and rooftop bar however due to the rain, the rooftop bar was closed both nights.  Room Service was quick and good.  Their fitness center is very clean and spacious.  The hotel does not have a pool.  I would definitely stay here again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r553065996-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
@@ -935,9 +1648,6 @@
   </si>
   <si>
     <t>I stayed here for a night while traveling on business. The location is great if you are working downtown as you can walk to your clients. The hotel is clean and new and the rooms are nice and quiet as well. The lobby area is nice and there is a restaurant where I had a good breakfast for a reasonable price. The hotel was a value for downtown at the time and is one that should be considered.MoreShow less</t>
-  </si>
-  <si>
-    <t>December 2017</t>
   </si>
   <si>
     <t>Stephen S, Director of Sales at Le Meridien Houston Downtown, responded to this reviewResponded January 12, 2018</t>
@@ -1001,6 +1711,62 @@
 They have a green programme which is great if you are after points, 500 SPG points if you don't have your room serviced per night. This basically means having the privacy sign out. They didn't empty our bins and we had to leave it outside our room to be emptied. We left it out one day and it never returned – bit odd! I hope we aren’t charged for this. So, I think at the bare minimum they should come...Everything is shiny and new. This hotel opened in September 2017 and is centrally placed on Walker street, Downtown. Valet parking only which was $34 + tax a night. Reception is on level 2. There are three lifts so we were never left waiting. It pays to be a SPG member as we were surprised we were Gold members (we travel a lot) and were given free wifi and a top level preferred room (level 21). We had forgotten our SPG number and he looked us up with our zip code. The wifi is great. We were in a standard king room and it had lots of room for activities. The bed was comfortable, the pillows were too soft for me. A pillow menu would make this hotel truly luxurious. The in-room coffee maker is very modern and great. The tea brand is amazing. Shower pressure - perfect. In room dining and breakfast available $3 delivery + 20% service charge. They have a green programme which is great if you are after points, 500 SPG points if you don't have your room serviced per night. This basically means having the privacy sign out. They didn't empty our bins and we had to leave it outside our room to be emptied. We left it out one day and it never returned – bit odd! I hope we aren’t charged for this. So, I think at the bare minimum they should come into your room to empty the bins, do a quick vacuum/sweep and provide new coffee/tea. It was a wee bit annoying to ring and ask for more coffee/tea/water each day. We had breakfast included in our room rate. They give you vouchers to use in their restaurant on the ground level. $40 for two of us / $20 each. This may seem like a lot but a standard black coffee cost almost $4, standard granola $12.  Breakfast was great and I have no complaints over the quality of the breakfast food. They are European sized meals so just be aware of that. The issues lay in the inconsistency of the staff and this is why the hotel drops a star. One day we were randomly charged 20% service charge for no reason at all – it wasn’t new years day, nothing special was on. This put the value of our breakfast over $40 and we were expected to tip on top of this. The food is not worth an extra 40% (20% tip)! The method in which they serve you is also random, another table was served before us even though we arrived first. We ordered dessert one evening and it wasn’t the best if I’m honest, the brownie I had was actually stale so I can’t recommend that.The roof top bar and area are great, when its open that is. We stayed for three nights and all three nights it was shut by 9-10pm. On New Years Eve one would think they would have it open to enjoy the fireworks / view maybe host a party up there etc. Nope, nothing. So, we were very disappointed in that as the view from there is amazing. The view from the bar on the ground floor is not. We actually choose this hotel for the roof top bar so that was a let-down.The gym is very modern and great.  I would stay again but I wouldn’t bother with the restaurant again!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r547679824-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>547679824</t>
+  </si>
+  <si>
+    <t>12/17/2017</t>
+  </si>
+  <si>
+    <t>One stay for “day for night” festival</t>
+  </si>
+  <si>
+    <t>They were five people total on this trip, Three adults and two teenage girls. We requested one king room and aNother double room. There was some construction in the adjoining building but we found our way fairly easily. Valet service was prompt and nice.
+You go up to the second floor to the lobby to check in.  Mariah checked us in about 2 o’clock in the afternoon.  She gave us adjoining rooms on the 20th floor.  The connected rooms are in a good location because ours were in the hallway tucked away with only our two rooms. Minimal traffic noise, and if your squad is noisy you won’t bother anyone else. Mariah was sweet as can be. She was very informative and made sure all 5 of us would be taken care of.
+The rooms are newly remodeled in a contemporary decor and clean. The beds are comfy but the pillows are the kind that you sink strait into the mattress. This is not my preference of pillow but some like it, there are 4 per bed so you can stack them for your own comfort.
+We used the complimentary shuttle that’s available till 11 pm. Great great perk. They dropped us off at our concert. Coolness. 
+We came back from the show hungry at about 12:30 AM.  We were not very clear on the room service menu so we ordered delivery from an outside vendor. There are many options...They were five people total on this trip, Three adults and two teenage girls. We requested one king room and aNother double room. There was some construction in the adjoining building but we found our way fairly easily. Valet service was prompt and nice.You go up to the second floor to the lobby to check in.  Mariah checked us in about 2 o’clock in the afternoon.  She gave us adjoining rooms on the 20th floor.  The connected rooms are in a good location because ours were in the hallway tucked away with only our two rooms. Minimal traffic noise, and if your squad is noisy you won’t bother anyone else. Mariah was sweet as can be. She was very informative and made sure all 5 of us would be taken care of.The rooms are newly remodeled in a contemporary decor and clean. The beds are comfy but the pillows are the kind that you sink strait into the mattress. This is not my preference of pillow but some like it, there are 4 per bed so you can stack them for your own comfort.We used the complimentary shuttle that’s available till 11 pm. Great great perk. They dropped us off at our concert. Coolness. We came back from the show hungry at about 12:30 AM.  We were not very clear on the room service menu so we ordered delivery from an outside vendor. There are many options for delivery to this hotel. Use a separate app and you’ll find plenty dining delivery options at very late hours. The next morning I went to use the gym but my card didn’t let me in. I went to the desk to fix it and returned but my card was still not working. An employee, Alaedin, helped me get in the gym but also took the time to repair the lock on the spot. We had good conversation and he was a great worker and gentleman.Next to the gym is a roof top bar that we did not get to use due to the rain. I’d love to come back again to try it. The employees are very well trained for client interaction. A great stay for families but there is no pool. For us, it was worth every penny here. This hotel is great value and experience and very fairly priced. The location is great for downtown too. MoreShow less</t>
+  </si>
+  <si>
+    <t>Stephen S, Director of Sales at Le Meridien Houston Downtown, responded to this reviewResponded December 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 18, 2017</t>
+  </si>
+  <si>
+    <t>They were five people total on this trip, Three adults and two teenage girls. We requested one king room and aNother double room. There was some construction in the adjoining building but we found our way fairly easily. Valet service was prompt and nice.
+You go up to the second floor to the lobby to check in.  Mariah checked us in about 2 o’clock in the afternoon.  She gave us adjoining rooms on the 20th floor.  The connected rooms are in a good location because ours were in the hallway tucked away with only our two rooms. Minimal traffic noise, and if your squad is noisy you won’t bother anyone else. Mariah was sweet as can be. She was very informative and made sure all 5 of us would be taken care of.
+The rooms are newly remodeled in a contemporary decor and clean. The beds are comfy but the pillows are the kind that you sink strait into the mattress. This is not my preference of pillow but some like it, there are 4 per bed so you can stack them for your own comfort.
+We used the complimentary shuttle that’s available till 11 pm. Great great perk. They dropped us off at our concert. Coolness. 
+We came back from the show hungry at about 12:30 AM.  We were not very clear on the room service menu so we ordered delivery from an outside vendor. There are many options...They were five people total on this trip, Three adults and two teenage girls. We requested one king room and aNother double room. There was some construction in the adjoining building but we found our way fairly easily. Valet service was prompt and nice.You go up to the second floor to the lobby to check in.  Mariah checked us in about 2 o’clock in the afternoon.  She gave us adjoining rooms on the 20th floor.  The connected rooms are in a good location because ours were in the hallway tucked away with only our two rooms. Minimal traffic noise, and if your squad is noisy you won’t bother anyone else. Mariah was sweet as can be. She was very informative and made sure all 5 of us would be taken care of.The rooms are newly remodeled in a contemporary decor and clean. The beds are comfy but the pillows are the kind that you sink strait into the mattress. This is not my preference of pillow but some like it, there are 4 per bed so you can stack them for your own comfort.We used the complimentary shuttle that’s available till 11 pm. Great great perk. They dropped us off at our concert. Coolness. We came back from the show hungry at about 12:30 AM.  We were not very clear on the room service menu so we ordered delivery from an outside vendor. There are many options for delivery to this hotel. Use a separate app and you’ll find plenty dining delivery options at very late hours. The next morning I went to use the gym but my card didn’t let me in. I went to the desk to fix it and returned but my card was still not working. An employee, Alaedin, helped me get in the gym but also took the time to repair the lock on the spot. We had good conversation and he was a great worker and gentleman.Next to the gym is a roof top bar that we did not get to use due to the rain. I’d love to come back again to try it. The employees are very well trained for client interaction. A great stay for families but there is no pool. For us, it was worth every penny here. This hotel is great value and experience and very fairly priced. The location is great for downtown too. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r545812507-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>545812507</t>
+  </si>
+  <si>
+    <t>12/07/2017</t>
+  </si>
+  <si>
+    <t>Amazing experience</t>
+  </si>
+  <si>
+    <t>This hotel is amazing! It's well located, right in the core of Houston's downtown and the facilities are very nice, clean, modern, and comfortable. The rooms are very spacious and modern, it has a well-equipped gym, an amazing rooftop bar with view of all the skyscrapers in the surrounding area, friendly and helpful staff, the room's cleaning ladies are also very nice and attentive, etc. Honestly, my girlfriend and I had a great experience here!MoreShow less</t>
+  </si>
+  <si>
+    <t>Stephen S, Director of Sales at Le Meridien Houston Downtown, responded to this reviewResponded December 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 8, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is amazing! It's well located, right in the core of Houston's downtown and the facilities are very nice, clean, modern, and comfortable. The rooms are very spacious and modern, it has a well-equipped gym, an amazing rooftop bar with view of all the skyscrapers in the surrounding area, friendly and helpful staff, the room's cleaning ladies are also very nice and attentive, etc. Honestly, my girlfriend and I had a great experience here!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r545543246-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
@@ -1016,12 +1782,6 @@
     <t>The staff was great. Check in and check out were easy and enjoyable. The valet help was awesome. Great guys. The restaurant including Shane was awesome. Great knowledge of the menu. Work our faculty was also perfect for me. The bartender was interesting. She tersely told me it was last call. Then served more valued customers for another half hour and ignored me. She then tried to buy me a free beer. I told her no. I will pay for what I ordered. Weird. The roof top bartender was really engaging and fun. MoreShow less</t>
   </si>
   <si>
-    <t>Stephen S, Director of Sales at Le Meridien Houston Downtown, responded to this reviewResponded December 8, 2017</t>
-  </si>
-  <si>
-    <t>Responded December 8, 2017</t>
-  </si>
-  <si>
     <t>The staff was great. Check in and check out were easy and enjoyable. The valet help was awesome. Great guys. The restaurant including Shane was awesome. Great knowledge of the menu. Work our faculty was also perfect for me. The bartender was interesting. She tersely told me it was last call. Then served more valued customers for another half hour and ignored me. She then tried to buy me a free beer. I told her no. I will pay for what I ordered. Weird. The roof top bartender was really engaging and fun. More</t>
   </si>
   <si>
@@ -1070,6 +1830,36 @@
     <t>I checked in on a Monday evening and was immediately greeted by the staff (Bakala I think is his name).  I checked in with Brittany, she was very professional and really nice. i was upgraded to a very nice suit. I also had the pleasure of meeting with Evita and Mario.  They are very very professional and nice!  The front desk staff is personable and professional.  They were very accommodating!  If i go back to Houston, i plan to stay at this hotel!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r544430008-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>544430008</t>
+  </si>
+  <si>
+    <t>Service surpasses all expectations</t>
+  </si>
+  <si>
+    <t>The hotel is in a good location and has all the amenities you would expect from a Le Meridien location. The real difference is in the quality of the employees at the hotel. Every staff member bends over backwards to welcome you and make sure your needs are met. I plan on returning to this hotel and would encourage others in the area to give it a try.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is in a good location and has all the amenities you would expect from a Le Meridien location. The real difference is in the quality of the employees at the hotel. Every staff member bends over backwards to welcome you and make sure your needs are met. I plan on returning to this hotel and would encourage others in the area to give it a try.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r544424124-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>544424124</t>
+  </si>
+  <si>
+    <t>Great Service, Cool Vibe</t>
+  </si>
+  <si>
+    <t>The new renovations here make for a comfortable and swanky stay. The rooms are modest in size, but have a great modern feel and every amenity you need. The service here is also great and the complimentary shuttle up to 3 miles gets you where you need to go. This will be my go to place in Houston!MoreShow less</t>
+  </si>
+  <si>
+    <t>The new renovations here make for a comfortable and swanky stay. The rooms are modest in size, but have a great modern feel and every amenity you need. The service here is also great and the complimentary shuttle up to 3 miles gets you where you need to go. This will be my go to place in Houston!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r542442057-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
@@ -1142,27 +1932,66 @@
     <t>Nice, new facility.  The rooms are clean and comfortable, as are the bathrooms.  My only ‘nit’ was that the HVAC was set up such that the fan couldn’t be set to on, but rather came on or off in sync with the compressor.  For those who like air circulation and do not like on/off cycles, it can be annoying.  Personnel were pleasant.  The restaurant, Oxbow, is another matter, and will be reviewed separately.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r538596464-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>538596464</t>
+  </si>
+  <si>
+    <t>11/05/2017</t>
+  </si>
+  <si>
+    <t>Excellent Hotel</t>
+  </si>
+  <si>
+    <t>Beautiful new hotel not far from Convention Center.  Big spacious room, heat worked, clean, and quiet.  We were on the 16th floor and could hear the city train going until around 10 PM, then it got quieter.  The shuttle worked perfect for us to get around.  What surprised us was restaurants were closed in the immediate area on Sunday night.  The complimentary breakfast in the hotel was very good, however, they could have left the coffee carafe on the table. Refills were slow to come.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Stephen S, Director of Sales at Le Meridien Houston Downtown, responded to this reviewResponded November 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2017</t>
+  </si>
+  <si>
+    <t>Beautiful new hotel not far from Convention Center.  Big spacious room, heat worked, clean, and quiet.  We were on the 16th floor and could hear the city train going until around 10 PM, then it got quieter.  The shuttle worked perfect for us to get around.  What surprised us was restaurants were closed in the immediate area on Sunday night.  The complimentary breakfast in the hotel was very good, however, they could have left the coffee carafe on the table. Refills were slow to come.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r538460081-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>538460081</t>
+  </si>
+  <si>
+    <t>Extra Special Birthday Service!</t>
+  </si>
+  <si>
+    <t>I am tardy writing this review but realized if I enjoyed my experience enough to book again, I should share why I chose this property! I stayed early October for my birthday weekend. Evita was extra-specially hospitable in calling ahead of my reservation to offer amenities to make my stay more pleasant. Upon our arrival, we had a beautifully appointed suite as an upgrade with our SPG Gold membership and a plate of eclairs and bottle of Prosecco waiting for us! I especially loved the spaciousness of the bathroom as well as the fantastic smelling bath soap. I enjoyed the proximity to Pappas Brothers Steakhouse where we dined right across the street. We truly enjoyed the comfort and service offered during our stay...so much so that I already have 2 more rooms reserved for another upcoming event! Perpetuate this level of authenticity and sincerity and Le Méridien Houston will have our continued loyalty.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stephen S, Director of Sales at Le Meridien Houston Downtown, responded to this reviewResponded November 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 27, 2017</t>
+  </si>
+  <si>
+    <t>I am tardy writing this review but realized if I enjoyed my experience enough to book again, I should share why I chose this property! I stayed early October for my birthday weekend. Evita was extra-specially hospitable in calling ahead of my reservation to offer amenities to make my stay more pleasant. Upon our arrival, we had a beautifully appointed suite as an upgrade with our SPG Gold membership and a plate of eclairs and bottle of Prosecco waiting for us! I especially loved the spaciousness of the bathroom as well as the fantastic smelling bath soap. I enjoyed the proximity to Pappas Brothers Steakhouse where we dined right across the street. We truly enjoyed the comfort and service offered during our stay...so much so that I already have 2 more rooms reserved for another upcoming event! Perpetuate this level of authenticity and sincerity and Le Méridien Houston will have our continued loyalty.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r538458042-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
     <t>538458042</t>
   </si>
   <si>
-    <t>11/05/2017</t>
-  </si>
-  <si>
     <t>Clean, modern, basic</t>
   </si>
   <si>
     <t>We stayed here one night. The hotel is newely renovated and it can be seen. Our stay was uneventful. Staff was friendly. Rooms was clean and nicely decorated. Nice coffee in the room.My only issues was we got the SPG subscription done at check in and my last name was spelled wrong and now it's a nightmare to fix. The staff did nit know how to fix it; the manager did corrected according to him, but when I went online at SPG it was not. Niw I cannit link my acxiunt with Marriott since the last names do not match... Make sure you do it yourself before.MoreShow less</t>
   </si>
   <si>
-    <t>Stephen S, Director of Sales at Le Meridien Houston Downtown, responded to this reviewResponded November 27, 2017</t>
-  </si>
-  <si>
-    <t>Responded November 27, 2017</t>
-  </si>
-  <si>
     <t>We stayed here one night. The hotel is newely renovated and it can be seen. Our stay was uneventful. Staff was friendly. Rooms was clean and nicely decorated. Nice coffee in the room.My only issues was we got the SPG subscription done at check in and my last name was spelled wrong and now it's a nightmare to fix. The staff did nit know how to fix it; the manager did corrected according to him, but when I went online at SPG it was not. Niw I cannit link my acxiunt with Marriott since the last names do not match... Make sure you do it yourself before.More</t>
   </si>
   <si>
@@ -1205,9 +2034,6 @@
     <t>Very nice hotel blocks from Minute Maid Park.  Staff was incredibly nice and helpful.  Valet was a bit steep at $35.00 but may be due to World Series.  Room was very Art Deco and nice.  Very clean and welcoming.  Warning thin walls and sound from hallway is an issue.  All in all it was good.  I’d stay again.MoreShow less</t>
   </si>
   <si>
-    <t>October 2017</t>
-  </si>
-  <si>
     <t>Stephen S, Director of Sales at Le Meridien Houston Downtown, responded to this reviewResponded November 1, 2017</t>
   </si>
   <si>
@@ -1217,6 +2043,57 @@
     <t>Very nice hotel blocks from Minute Maid Park.  Staff was incredibly nice and helpful.  Valet was a bit steep at $35.00 but may be due to World Series.  Room was very Art Deco and nice.  Very clean and welcoming.  Warning thin walls and sound from hallway is an issue.  All in all it was good.  I’d stay again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r537011061-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>537011061</t>
+  </si>
+  <si>
+    <t>10/29/2017</t>
+  </si>
+  <si>
+    <t>could be a good option</t>
+  </si>
+  <si>
+    <t>Staff was extremely nice at the check-in - though room was not yet ready at 3:30pm, I was ok to wait at the nice lobby (as I arrived before I had told when I reserved). Room is large, bed comfortable. Good linens and towels, great amenities by Malin and Goetz. But then... 
+- got back to my room one evening and found out that cleaning staff had taken the remaining toilet paper away (roll was not over - why take it away if roll was not over?) and had not left any replacement. I called service and explained the problem. 25 minutes later, I called them again. It's now 80 minutes after my call. Still zero toilet paper in my bathroom. Zero. Quite a surreal situation for a hotel (there was no extra paper in the bathroom since my arrival, only that roll that was taken away).
+- why so much light outside the building at night? It may look good from the outside, but it's dysfunctional: since the curtains don't cover the edges of the room very well, there is a lot of (very bright) light that enters the room. Hotel looks nice from the outside, guests can't sleep as well: seems to me like a wrong choice of priorities.
+less important:
+- why take away perfectly usable soap bars and replace with new ones every day?
+Still hoping to get that promised toilet paper. And no one bothered...Staff was extremely nice at the check-in - though room was not yet ready at 3:30pm, I was ok to wait at the nice lobby (as I arrived before I had told when I reserved). Room is large, bed comfortable. Good linens and towels, great amenities by Malin and Goetz. But then... - got back to my room one evening and found out that cleaning staff had taken the remaining toilet paper away (roll was not over - why take it away if roll was not over?) and had not left any replacement. I called service and explained the problem. 25 minutes later, I called them again. It's now 80 minutes after my call. Still zero toilet paper in my bathroom. Zero. Quite a surreal situation for a hotel (there was no extra paper in the bathroom since my arrival, only that roll that was taken away).- why so much light outside the building at night? It may look good from the outside, but it's dysfunctional: since the curtains don't cover the edges of the room very well, there is a lot of (very bright) light that enters the room. Hotel looks nice from the outside, guests can't sleep as well: seems to me like a wrong choice of priorities.less important:- why take away perfectly usable soap bars and replace with new ones every day?Still hoping to get that promised toilet paper. And no one bothered to call me to give at least an excuse for the delay...MoreShow less</t>
+  </si>
+  <si>
+    <t>Staff was extremely nice at the check-in - though room was not yet ready at 3:30pm, I was ok to wait at the nice lobby (as I arrived before I had told when I reserved). Room is large, bed comfortable. Good linens and towels, great amenities by Malin and Goetz. But then... 
+- got back to my room one evening and found out that cleaning staff had taken the remaining toilet paper away (roll was not over - why take it away if roll was not over?) and had not left any replacement. I called service and explained the problem. 25 minutes later, I called them again. It's now 80 minutes after my call. Still zero toilet paper in my bathroom. Zero. Quite a surreal situation for a hotel (there was no extra paper in the bathroom since my arrival, only that roll that was taken away).
+- why so much light outside the building at night? It may look good from the outside, but it's dysfunctional: since the curtains don't cover the edges of the room very well, there is a lot of (very bright) light that enters the room. Hotel looks nice from the outside, guests can't sleep as well: seems to me like a wrong choice of priorities.
+less important:
+- why take away perfectly usable soap bars and replace with new ones every day?
+Still hoping to get that promised toilet paper. And no one bothered...Staff was extremely nice at the check-in - though room was not yet ready at 3:30pm, I was ok to wait at the nice lobby (as I arrived before I had told when I reserved). Room is large, bed comfortable. Good linens and towels, great amenities by Malin and Goetz. But then... - got back to my room one evening and found out that cleaning staff had taken the remaining toilet paper away (roll was not over - why take it away if roll was not over?) and had not left any replacement. I called service and explained the problem. 25 minutes later, I called them again. It's now 80 minutes after my call. Still zero toilet paper in my bathroom. Zero. Quite a surreal situation for a hotel (there was no extra paper in the bathroom since my arrival, only that roll that was taken away).- why so much light outside the building at night? It may look good from the outside, but it's dysfunctional: since the curtains don't cover the edges of the room very well, there is a lot of (very bright) light that enters the room. Hotel looks nice from the outside, guests can't sleep as well: seems to me like a wrong choice of priorities.less important:- why take away perfectly usable soap bars and replace with new ones every day?Still hoping to get that promised toilet paper. And no one bothered to call me to give at least an excuse for the delay...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r536896816-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>536896816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don’t do it! </t>
+  </si>
+  <si>
+    <t>We stayed here last minute for a World Series game and were very disappointed overall. 
+For $600 a night-I get it was a premium rate given the event-a tall brick wall 5 ft away for our view and having to purchase wi-fi is just absurd. Our room was spacious and clean and check in was easy, however we were put next to the maids staging area and you could literally hear the loud slam of their door morning, noon and night. There was a cute little coffee machine to wake up with but no coffee cups. 
+When we got back in from the game last night we were excited about visiting the rooftop bar, but learned it was closed. At 10:30 on Saturday night. During the World Series. 
+Don’t bother paying extra for “breakfast included”. This should have been the pleasant end to a memorable weekend trip, but instead we got up and left after waiting over an hour to get our food. There were only 5 tables sat, and several were already done and the one who had not been served yet was angry just like us. An hour in, only when we approached him did the manager give us a line about there being a server crash. Really? Just be honest and make things right.
+We are driving back to Dallas now...hungry too because we have not had breakfast...but that is small compared to the bad taste you...We stayed here last minute for a World Series game and were very disappointed overall. For $600 a night-I get it was a premium rate given the event-a tall brick wall 5 ft away for our view and having to purchase wi-fi is just absurd. Our room was spacious and clean and check in was easy, however we were put next to the maids staging area and you could literally hear the loud slam of their door morning, noon and night. There was a cute little coffee machine to wake up with but no coffee cups. When we got back in from the game last night we were excited about visiting the rooftop bar, but learned it was closed. At 10:30 on Saturday night. During the World Series. Don’t bother paying extra for “breakfast included”. This should have been the pleasant end to a memorable weekend trip, but instead we got up and left after waiting over an hour to get our food. There were only 5 tables sat, and several were already done and the one who had not been served yet was angry just like us. An hour in, only when we approached him did the manager give us a line about there being a server crash. Really? Just be honest and make things right.We are driving back to Dallas now...hungry too because we have not had breakfast...but that is small compared to the bad taste you have left in our mouths. It is okay to try your hand at the minimalist and boutique trend if you can pull it off without skimping on basic customer needs and service. This hotel is definitely not there yet. MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here last minute for a World Series game and were very disappointed overall. 
+For $600 a night-I get it was a premium rate given the event-a tall brick wall 5 ft away for our view and having to purchase wi-fi is just absurd. Our room was spacious and clean and check in was easy, however we were put next to the maids staging area and you could literally hear the loud slam of their door morning, noon and night. There was a cute little coffee machine to wake up with but no coffee cups. 
+When we got back in from the game last night we were excited about visiting the rooftop bar, but learned it was closed. At 10:30 on Saturday night. During the World Series. 
+Don’t bother paying extra for “breakfast included”. This should have been the pleasant end to a memorable weekend trip, but instead we got up and left after waiting over an hour to get our food. There were only 5 tables sat, and several were already done and the one who had not been served yet was angry just like us. An hour in, only when we approached him did the manager give us a line about there being a server crash. Really? Just be honest and make things right.
+We are driving back to Dallas now...hungry too because we have not had breakfast...but that is small compared to the bad taste you...We stayed here last minute for a World Series game and were very disappointed overall. For $600 a night-I get it was a premium rate given the event-a tall brick wall 5 ft away for our view and having to purchase wi-fi is just absurd. Our room was spacious and clean and check in was easy, however we were put next to the maids staging area and you could literally hear the loud slam of their door morning, noon and night. There was a cute little coffee machine to wake up with but no coffee cups. When we got back in from the game last night we were excited about visiting the rooftop bar, but learned it was closed. At 10:30 on Saturday night. During the World Series. Don’t bother paying extra for “breakfast included”. This should have been the pleasant end to a memorable weekend trip, but instead we got up and left after waiting over an hour to get our food. There were only 5 tables sat, and several were already done and the one who had not been served yet was angry just like us. An hour in, only when we approached him did the manager give us a line about there being a server crash. Really? Just be honest and make things right.We are driving back to Dallas now...hungry too because we have not had breakfast...but that is small compared to the bad taste you have left in our mouths. It is okay to try your hand at the minimalist and boutique trend if you can pull it off without skimping on basic customer needs and service. This hotel is definitely not there yet. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r536553797-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
@@ -1275,6 +2152,48 @@
   </si>
   <si>
     <t>I would not stay here again nor recommend coming here for the following reasons:Windows are ultra thin as we can hear even basic conversations from pedestrians much less every car and truck that passes. Don’t plan on getting rest here. Housekeeping is a joke as this morning they came and made our bed but nothing else. I had to call for clean towels and wanted clean coffee cups but the housekeeper nor the gentleman that brought the towels speak a word of English. I called down 2 hours ago and nothing yet. For a brand new hotel there are several things already beaten up like the shower controller and the thresholds coming out of the elevators look 100 years old. We checked in with one small carry on bag each and from the car to the lobby to our room, 3 bellman or whatever they are, fought over our bags and each one that touched the bags stood and expected a tip. The only pluses I see is the modern styling and our breakfast in the restaurant was excellent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r532183620-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>532183620</t>
+  </si>
+  <si>
+    <t>10/11/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Three week stay - one of the first guests </t>
+  </si>
+  <si>
+    <t>Several of us were in Houston to assist with hurricane Harvey and had a negotiated rate at the hotel. We moved in 13 hours after they opened. It is a great location and as easy as any downtown hotel to get to. I'd give them a 5 rating but they need to continue to work out some typical new opening details. The rooftop bar isn't open yet but it will be soon. They need to be more consistent on cleaning rooms on their 3 day green program. They were inconsistent. They replenished the toiletries but forgot the shampoo until the last room cleaning. Rooms are spacious and comfortable. The curtains are designed in such a way that light leaks through the ends making it impossible to have a dark room. My charging station stopped working and it took two calls and two days to get fixed. These are all small growing pains issues. The staff is great, helpful and friendly. Parking is $20 overnight and a bit more for the day, typical. It is in a lot just across the street. Casket parking is available for $35. I didn't eat in the downstairs lounge but was told it was decent and relatively affordable. Many of the stores and eating establishments close early in downtown so plan accordingly. I did discover the market until the last day. It is only a couple blocks away and has a great selection of prepared...Several of us were in Houston to assist with hurricane Harvey and had a negotiated rate at the hotel. We moved in 13 hours after they opened. It is a great location and as easy as any downtown hotel to get to. I'd give them a 5 rating but they need to continue to work out some typical new opening details. The rooftop bar isn't open yet but it will be soon. They need to be more consistent on cleaning rooms on their 3 day green program. They were inconsistent. They replenished the toiletries but forgot the shampoo until the last room cleaning. Rooms are spacious and comfortable. The curtains are designed in such a way that light leaks through the ends making it impossible to have a dark room. My charging station stopped working and it took two calls and two days to get fixed. These are all small growing pains issues. The staff is great, helpful and friendly. Parking is $20 overnight and a bit more for the day, typical. It is in a lot just across the street. Casket parking is available for $35. I didn't eat in the downstairs lounge but was told it was decent and relatively affordable. Many of the stores and eating establishments close early in downtown so plan accordingly. I did discover the market until the last day. It is only a couple blocks away and has a great selection of prepared and unprepared foods. MoreShow less</t>
+  </si>
+  <si>
+    <t>Alan C, General Manager at Le Meridien Houston Downtown, responded to this reviewResponded October 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 19, 2017</t>
+  </si>
+  <si>
+    <t>Several of us were in Houston to assist with hurricane Harvey and had a negotiated rate at the hotel. We moved in 13 hours after they opened. It is a great location and as easy as any downtown hotel to get to. I'd give them a 5 rating but they need to continue to work out some typical new opening details. The rooftop bar isn't open yet but it will be soon. They need to be more consistent on cleaning rooms on their 3 day green program. They were inconsistent. They replenished the toiletries but forgot the shampoo until the last room cleaning. Rooms are spacious and comfortable. The curtains are designed in such a way that light leaks through the ends making it impossible to have a dark room. My charging station stopped working and it took two calls and two days to get fixed. These are all small growing pains issues. The staff is great, helpful and friendly. Parking is $20 overnight and a bit more for the day, typical. It is in a lot just across the street. Casket parking is available for $35. I didn't eat in the downstairs lounge but was told it was decent and relatively affordable. Many of the stores and eating establishments close early in downtown so plan accordingly. I did discover the market until the last day. It is only a couple blocks away and has a great selection of prepared...Several of us were in Houston to assist with hurricane Harvey and had a negotiated rate at the hotel. We moved in 13 hours after they opened. It is a great location and as easy as any downtown hotel to get to. I'd give them a 5 rating but they need to continue to work out some typical new opening details. The rooftop bar isn't open yet but it will be soon. They need to be more consistent on cleaning rooms on their 3 day green program. They were inconsistent. They replenished the toiletries but forgot the shampoo until the last room cleaning. Rooms are spacious and comfortable. The curtains are designed in such a way that light leaks through the ends making it impossible to have a dark room. My charging station stopped working and it took two calls and two days to get fixed. These are all small growing pains issues. The staff is great, helpful and friendly. Parking is $20 overnight and a bit more for the day, typical. It is in a lot just across the street. Casket parking is available for $35. I didn't eat in the downstairs lounge but was told it was decent and relatively affordable. Many of the stores and eating establishments close early in downtown so plan accordingly. I did discover the market until the last day. It is only a couple blocks away and has a great selection of prepared and unprepared foods. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r529933075-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>529933075</t>
+  </si>
+  <si>
+    <t>10/04/2017</t>
+  </si>
+  <si>
+    <t>Brand New Modern Contemporary Design in the Heart of Downtown</t>
+  </si>
+  <si>
+    <t>Le Meridien just opened at the end of September and is a hidden jewel in Houston.  Very nice modern contemporary design and a great color palette.  Once you walk in you’ll know you’re in a Le Meridien property with the design and branded scent.The staff and service have been outstanding .  Great room and bathroom amenities.  The gym is a nice size and has windows for natural lighting.They are tweaking some construction issues as it has just opened. You can see that they are still cleaning up some items but a minor detail to an otherwise great stay.I highly recommend giving it a try.MoreShow less</t>
+  </si>
+  <si>
+    <t>Le Meridien just opened at the end of September and is a hidden jewel in Houston.  Very nice modern contemporary design and a great color palette.  Once you walk in you’ll know you’re in a Le Meridien property with the design and branded scent.The staff and service have been outstanding .  Great room and bathroom amenities.  The gym is a nice size and has windows for natural lighting.They are tweaking some construction issues as it has just opened. You can see that they are still cleaning up some items but a minor detail to an otherwise great stay.I highly recommend giving it a try.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12339696-r527646907-Le_Meridien_Houston_Downtown-Houston_Texas.html</t>
@@ -1870,10 +2789,14 @@
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1917,31 +2840,35 @@
         <v>58</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
         <v>59</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -1957,7 +2884,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1966,25 +2893,25 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1998,7 +2925,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -2014,7 +2941,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -2023,43 +2950,39 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>68</v>
       </c>
-      <c r="J5" t="s">
-        <v>69</v>
-      </c>
-      <c r="K5" t="s">
-        <v>70</v>
-      </c>
-      <c r="L5" t="s">
-        <v>71</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>72</v>
-      </c>
       <c r="O5" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
@@ -2075,7 +2998,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -2084,28 +3007,28 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="O6" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="P6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
@@ -2119,14 +3042,10 @@
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
         <v>80</v>
-      </c>
-      <c r="X6" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="7">
@@ -2142,56 +3061,54 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
         <v>83</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>84</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>85</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>86</v>
       </c>
-      <c r="L7" t="s">
-        <v>87</v>
-      </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="O7" t="s">
-        <v>88</v>
-      </c>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
-      <c r="R7" t="n">
-        <v>5</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>80</v>
-      </c>
-      <c r="X7" t="s">
-        <v>81</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
@@ -2207,56 +3124,54 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
         <v>90</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>91</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>92</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
         <v>93</v>
-      </c>
-      <c r="L8" t="s">
-        <v>94</v>
-      </c>
-      <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>72</v>
-      </c>
-      <c r="O8" t="s">
-        <v>79</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>4</v>
-      </c>
-      <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="s">
-        <v>95</v>
-      </c>
-      <c r="X8" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="9">
@@ -2272,35 +3187,31 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
         <v>98</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
-        <v>99</v>
-      </c>
-      <c r="J9" t="s">
-        <v>100</v>
-      </c>
-      <c r="K9" t="s">
-        <v>101</v>
-      </c>
-      <c r="L9" t="s">
-        <v>102</v>
-      </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
-      <c r="N9" t="s">
-        <v>59</v>
-      </c>
-      <c r="O9" t="s">
-        <v>88</v>
-      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
@@ -2310,14 +3221,10 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>95</v>
-      </c>
-      <c r="X9" t="s">
-        <v>96</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
@@ -2333,7 +3240,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2342,26 +3249,22 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J10" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="K10" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="L10" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
-      <c r="N10" t="s">
-        <v>59</v>
-      </c>
-      <c r="O10" t="s">
-        <v>53</v>
-      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
@@ -2371,14 +3274,10 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
-        <v>109</v>
-      </c>
-      <c r="X10" t="s">
-        <v>110</v>
-      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11">
@@ -2394,7 +3293,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2403,47 +3302,39 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="O11" t="s">
-        <v>79</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>109</v>
-      </c>
-      <c r="X11" t="s">
-        <v>110</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12">
@@ -2459,7 +3350,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2468,32 +3359,34 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="J12" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K12" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="L12" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
       </c>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
         <v>5</v>
@@ -2501,14 +3394,10 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>109</v>
-      </c>
-      <c r="X12" t="s">
-        <v>110</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13">
@@ -2524,7 +3413,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2533,34 +3422,32 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="J13" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="K13" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="L13" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="O13" t="s">
-        <v>88</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q13" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
       <c r="R13" t="s"/>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
         <v>5</v>
@@ -2568,14 +3455,10 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
-        <v>128</v>
-      </c>
-      <c r="X13" t="s">
-        <v>129</v>
-      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14">
@@ -2591,7 +3474,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2600,28 +3483,30 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="J14" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="K14" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="L14" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
       <c r="R14" t="s"/>
       <c r="S14" t="n">
         <v>5</v>
@@ -2633,14 +3518,10 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>128</v>
-      </c>
-      <c r="X14" t="s">
-        <v>129</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
@@ -2656,7 +3537,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2665,47 +3546,39 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="J15" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="K15" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="L15" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="O15" t="s">
-        <v>66</v>
-      </c>
-      <c r="P15" t="n">
-        <v>5</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>4</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
-        <v>143</v>
-      </c>
-      <c r="X15" t="s">
-        <v>144</v>
-      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16">
@@ -2721,7 +3594,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2730,25 +3603,25 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="J16" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="K16" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="L16" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="O16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2759,14 +3632,10 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
-        <v>151</v>
-      </c>
-      <c r="X16" t="s">
-        <v>152</v>
-      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17">
@@ -2782,7 +3651,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2791,47 +3660,43 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="J17" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="K17" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="L17" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="O17" t="s">
         <v>53</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
-      <c r="S17" t="n">
+      <c r="R17" t="n">
         <v>4</v>
       </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>159</v>
-      </c>
-      <c r="X17" t="s">
-        <v>160</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18">
@@ -2847,7 +3712,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2856,43 +3721,49 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="J18" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="K18" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="L18" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="O18" t="s">
-        <v>66</v>
-      </c>
-      <c r="P18" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>167</v>
+        <v>60</v>
       </c>
       <c r="X18" t="s">
-        <v>168</v>
+        <v>61</v>
       </c>
       <c r="Y18" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19">
@@ -2908,7 +3779,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2917,49 +3788,39 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="J19" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="K19" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="L19" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
-      <c r="R19" t="n">
-        <v>4</v>
-      </c>
-      <c r="S19" t="n">
-        <v>5</v>
-      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>4</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s">
-        <v>167</v>
-      </c>
-      <c r="X19" t="s">
-        <v>168</v>
-      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20">
@@ -2975,7 +3836,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2984,43 +3845,47 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="J20" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="K20" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="L20" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="O20" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P20" t="s"/>
-      <c r="Q20" t="s"/>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
       <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>182</v>
+        <v>60</v>
       </c>
       <c r="X20" t="s">
-        <v>183</v>
+        <v>61</v>
       </c>
       <c r="Y20" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21">
@@ -3036,7 +3901,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -3045,25 +3910,25 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="J21" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="K21" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="L21" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>181</v>
+        <v>81</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3074,14 +3939,10 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s">
-        <v>190</v>
-      </c>
-      <c r="X21" t="s">
-        <v>191</v>
-      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22">
@@ -3097,7 +3958,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3106,22 +3967,26 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="J22" t="s">
-        <v>195</v>
+        <v>56</v>
       </c>
       <c r="K22" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="L22" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
-      </c>
-      <c r="N22" t="s"/>
-      <c r="O22" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>52</v>
+      </c>
+      <c r="O22" t="s">
+        <v>75</v>
+      </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
@@ -3132,13 +3997,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>198</v>
+        <v>60</v>
       </c>
       <c r="X22" t="s">
-        <v>199</v>
+        <v>61</v>
       </c>
       <c r="Y22" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23">
@@ -3154,7 +4019,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3163,43 +4028,47 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="J23" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="K23" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="L23" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>181</v>
+        <v>52</v>
       </c>
       <c r="O23" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
-      <c r="R23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="X23" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="Y23" t="s">
-        <v>208</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24">
@@ -3215,7 +4084,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3224,27 +4093,29 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="J24" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="K24" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="L24" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>214</v>
+        <v>52</v>
       </c>
       <c r="O24" t="s">
-        <v>66</v>
-      </c>
-      <c r="P24" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
       <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
       <c r="S24" t="n">
@@ -3258,13 +4129,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="X24" t="s">
-        <v>216</v>
+        <v>171</v>
       </c>
       <c r="Y24" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25">
@@ -3280,7 +4151,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3289,22 +4160,22 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="J25" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="K25" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="L25" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>223</v>
+        <v>52</v>
       </c>
       <c r="O25" t="s">
         <v>53</v>
@@ -3312,24 +4183,24 @@
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
       <c r="R25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>224</v>
+        <v>170</v>
       </c>
       <c r="X25" t="s">
-        <v>225</v>
+        <v>171</v>
       </c>
       <c r="Y25" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26">
@@ -3345,7 +4216,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3354,25 +4225,25 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>228</v>
+        <v>186</v>
       </c>
       <c r="J26" t="s">
-        <v>229</v>
+        <v>187</v>
       </c>
       <c r="K26" t="s">
-        <v>230</v>
+        <v>188</v>
       </c>
       <c r="L26" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>214</v>
+        <v>152</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3384,13 +4255,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>232</v>
+        <v>170</v>
       </c>
       <c r="X26" t="s">
-        <v>233</v>
+        <v>171</v>
       </c>
       <c r="Y26" t="s">
-        <v>234</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27">
@@ -3406,7 +4277,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>235</v>
+        <v>191</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3415,47 +4286,43 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>236</v>
+        <v>192</v>
       </c>
       <c r="J27" t="s">
-        <v>237</v>
+        <v>193</v>
       </c>
       <c r="K27" t="s">
-        <v>238</v>
+        <v>194</v>
       </c>
       <c r="L27" t="s">
-        <v>239</v>
+        <v>195</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>214</v>
+        <v>52</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
-      </c>
-      <c r="P27" t="n">
-        <v>5</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>5</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>240</v>
+        <v>196</v>
       </c>
       <c r="X27" t="s">
-        <v>241</v>
+        <v>197</v>
       </c>
       <c r="Y27" t="s">
-        <v>242</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28">
@@ -3471,7 +4338,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>243</v>
+        <v>199</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3480,49 +4347,47 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>244</v>
+        <v>200</v>
       </c>
       <c r="J28" t="s">
-        <v>245</v>
+        <v>193</v>
       </c>
       <c r="K28" t="s">
-        <v>246</v>
+        <v>201</v>
       </c>
       <c r="L28" t="s">
-        <v>247</v>
+        <v>202</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>214</v>
+        <v>52</v>
       </c>
       <c r="O28" t="s">
-        <v>248</v>
-      </c>
-      <c r="P28" t="s"/>
-      <c r="Q28" t="n">
-        <v>5</v>
-      </c>
-      <c r="R28" t="n">
-        <v>5</v>
-      </c>
-      <c r="S28" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>5</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>249</v>
+        <v>196</v>
       </c>
       <c r="X28" t="s">
-        <v>250</v>
+        <v>197</v>
       </c>
       <c r="Y28" t="s">
-        <v>251</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29">
@@ -3538,7 +4403,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3547,49 +4412,43 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>253</v>
+        <v>205</v>
       </c>
       <c r="J29" t="s">
-        <v>254</v>
+        <v>206</v>
       </c>
       <c r="K29" t="s">
-        <v>255</v>
+        <v>207</v>
       </c>
       <c r="L29" t="s">
-        <v>256</v>
+        <v>208</v>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>214</v>
+        <v>152</v>
       </c>
       <c r="O29" t="s">
         <v>53</v>
       </c>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
+      <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
       <c r="R29" t="s"/>
-      <c r="S29" t="n">
-        <v>5</v>
-      </c>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>5</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>257</v>
+        <v>196</v>
       </c>
       <c r="X29" t="s">
-        <v>258</v>
+        <v>197</v>
       </c>
       <c r="Y29" t="s">
-        <v>259</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30">
@@ -3605,7 +4464,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3614,49 +4473,43 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="J30" t="s">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="K30" t="s">
-        <v>263</v>
+        <v>213</v>
       </c>
       <c r="L30" t="s">
-        <v>264</v>
+        <v>214</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>214</v>
+        <v>152</v>
       </c>
       <c r="O30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
-      <c r="R30" t="n">
-        <v>5</v>
-      </c>
-      <c r="S30" t="n">
-        <v>5</v>
-      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>5</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>265</v>
+        <v>215</v>
       </c>
       <c r="X30" t="s">
-        <v>266</v>
+        <v>216</v>
       </c>
       <c r="Y30" t="s">
-        <v>267</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31">
@@ -3672,7 +4525,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>268</v>
+        <v>218</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3681,43 +4534,49 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>269</v>
+        <v>219</v>
       </c>
       <c r="J31" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="K31" t="s">
-        <v>271</v>
+        <v>221</v>
       </c>
       <c r="L31" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>214</v>
+        <v>152</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
-      </c>
-      <c r="P31" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
       <c r="Q31" t="s"/>
       <c r="R31" t="s"/>
-      <c r="S31" t="s"/>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
       <c r="T31" t="s"/>
-      <c r="U31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>273</v>
+        <v>215</v>
       </c>
       <c r="X31" t="s">
-        <v>274</v>
+        <v>216</v>
       </c>
       <c r="Y31" t="s">
-        <v>275</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32">
@@ -3733,7 +4592,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>276</v>
+        <v>224</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3742,22 +4601,26 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>277</v>
+        <v>225</v>
       </c>
       <c r="J32" t="s">
-        <v>278</v>
+        <v>226</v>
       </c>
       <c r="K32" t="s">
-        <v>279</v>
+        <v>227</v>
       </c>
       <c r="L32" t="s">
-        <v>280</v>
+        <v>228</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
-      </c>
-      <c r="N32" t="s"/>
-      <c r="O32" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>152</v>
+      </c>
+      <c r="O32" t="s">
+        <v>229</v>
+      </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
       <c r="R32" t="s"/>
@@ -3768,13 +4631,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>281</v>
+        <v>230</v>
       </c>
       <c r="X32" t="s">
-        <v>282</v>
+        <v>231</v>
       </c>
       <c r="Y32" t="s">
-        <v>283</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33">
@@ -3790,7 +4653,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>284</v>
+        <v>233</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3799,49 +4662,47 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>285</v>
+        <v>234</v>
       </c>
       <c r="J33" t="s">
-        <v>286</v>
+        <v>235</v>
       </c>
       <c r="K33" t="s">
-        <v>287</v>
+        <v>236</v>
       </c>
       <c r="L33" t="s">
-        <v>288</v>
+        <v>237</v>
       </c>
       <c r="M33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>223</v>
+        <v>152</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="P33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q33" t="s"/>
       <c r="R33" t="s"/>
-      <c r="S33" t="n">
-        <v>5</v>
-      </c>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>289</v>
+        <v>230</v>
       </c>
       <c r="X33" t="s">
-        <v>290</v>
+        <v>231</v>
       </c>
       <c r="Y33" t="s">
-        <v>291</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34">
@@ -3857,7 +4718,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>292</v>
+        <v>239</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3866,33 +4727,31 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>293</v>
+        <v>240</v>
       </c>
       <c r="J34" t="s">
-        <v>294</v>
+        <v>235</v>
       </c>
       <c r="K34" t="s">
-        <v>295</v>
+        <v>241</v>
       </c>
       <c r="L34" t="s">
-        <v>296</v>
+        <v>242</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>223</v>
+        <v>152</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
-      </c>
-      <c r="P34" t="s"/>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
-      <c r="R34" t="n">
-        <v>5</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
@@ -3902,13 +4761,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>289</v>
+        <v>230</v>
       </c>
       <c r="X34" t="s">
-        <v>290</v>
+        <v>231</v>
       </c>
       <c r="Y34" t="s">
-        <v>297</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35">
@@ -3924,7 +4783,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>298</v>
+        <v>244</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3933,31 +4792,31 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>299</v>
+        <v>245</v>
       </c>
       <c r="J35" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="K35" t="s">
-        <v>301</v>
+        <v>247</v>
       </c>
       <c r="L35" t="s">
-        <v>302</v>
+        <v>248</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>303</v>
+        <v>152</v>
       </c>
       <c r="O35" t="s">
         <v>53</v>
       </c>
-      <c r="P35" t="s"/>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
       <c r="Q35" t="s"/>
-      <c r="R35" t="n">
-        <v>5</v>
-      </c>
+      <c r="R35" t="s"/>
       <c r="S35" t="n">
         <v>5</v>
       </c>
@@ -3969,13 +4828,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>304</v>
+        <v>249</v>
       </c>
       <c r="X35" t="s">
-        <v>305</v>
+        <v>250</v>
       </c>
       <c r="Y35" t="s">
-        <v>306</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36">
@@ -3991,7 +4850,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>307</v>
+        <v>252</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4000,39 +4859,45 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>308</v>
+        <v>253</v>
       </c>
       <c r="J36" t="s">
-        <v>309</v>
+        <v>246</v>
       </c>
       <c r="K36" t="s">
-        <v>310</v>
+        <v>254</v>
       </c>
       <c r="L36" t="s">
-        <v>311</v>
+        <v>255</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
-      </c>
-      <c r="N36" t="s"/>
-      <c r="O36" t="s"/>
-      <c r="P36" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>152</v>
+      </c>
+      <c r="O36" t="s">
+        <v>69</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
       <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
-      <c r="S36" t="s"/>
+      <c r="S36" t="n">
+        <v>3</v>
+      </c>
       <c r="T36" t="s"/>
-      <c r="U36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s">
-        <v>312</v>
-      </c>
-      <c r="X36" t="s">
-        <v>313</v>
-      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>314</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37">
@@ -4048,7 +4913,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>315</v>
+        <v>257</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4057,47 +4922,43 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>316</v>
+        <v>258</v>
       </c>
       <c r="J37" t="s">
-        <v>317</v>
+        <v>259</v>
       </c>
       <c r="K37" t="s">
-        <v>318</v>
+        <v>260</v>
       </c>
       <c r="L37" t="s">
-        <v>319</v>
+        <v>261</v>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>303</v>
+        <v>152</v>
       </c>
       <c r="O37" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
       <c r="R37" t="s"/>
-      <c r="S37" t="n">
-        <v>5</v>
-      </c>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>5</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>320</v>
+        <v>230</v>
       </c>
       <c r="X37" t="s">
-        <v>321</v>
+        <v>231</v>
       </c>
       <c r="Y37" t="s">
-        <v>322</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38">
@@ -4113,7 +4974,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>323</v>
+        <v>263</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4122,43 +4983,47 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>324</v>
+        <v>264</v>
       </c>
       <c r="J38" t="s">
-        <v>325</v>
+        <v>265</v>
       </c>
       <c r="K38" t="s">
-        <v>326</v>
+        <v>266</v>
       </c>
       <c r="L38" t="s">
-        <v>327</v>
+        <v>267</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>303</v>
+        <v>268</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
       <c r="R38" t="s"/>
-      <c r="S38" t="s"/>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
       <c r="T38" t="s"/>
-      <c r="U38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>328</v>
+        <v>249</v>
       </c>
       <c r="X38" t="s">
-        <v>329</v>
+        <v>250</v>
       </c>
       <c r="Y38" t="s">
-        <v>330</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39">
@@ -4174,7 +5039,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>331</v>
+        <v>270</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4183,49 +5048,47 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>332</v>
+        <v>271</v>
       </c>
       <c r="J39" t="s">
-        <v>333</v>
+        <v>272</v>
       </c>
       <c r="K39" t="s">
-        <v>334</v>
+        <v>273</v>
       </c>
       <c r="L39" t="s">
-        <v>335</v>
+        <v>274</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>336</v>
+        <v>268</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q39" t="s"/>
-      <c r="R39" t="n">
-        <v>2</v>
-      </c>
+      <c r="R39" t="s"/>
       <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>337</v>
+        <v>275</v>
       </c>
       <c r="X39" t="s">
-        <v>338</v>
+        <v>276</v>
       </c>
       <c r="Y39" t="s">
-        <v>339</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40">
@@ -4241,7 +5104,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>340</v>
+        <v>278</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4250,47 +5113,43 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>341</v>
+        <v>279</v>
       </c>
       <c r="J40" t="s">
-        <v>342</v>
+        <v>280</v>
       </c>
       <c r="K40" t="s">
-        <v>343</v>
+        <v>281</v>
       </c>
       <c r="L40" t="s">
-        <v>344</v>
+        <v>282</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>336</v>
+        <v>268</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
-      </c>
-      <c r="P40" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
       <c r="R40" t="s"/>
       <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>5</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>337</v>
+        <v>283</v>
       </c>
       <c r="X40" t="s">
-        <v>338</v>
+        <v>284</v>
       </c>
       <c r="Y40" t="s">
-        <v>345</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41">
@@ -4306,7 +5165,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>346</v>
+        <v>286</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4315,49 +5174,43 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>347</v>
+        <v>287</v>
       </c>
       <c r="J41" t="s">
-        <v>348</v>
+        <v>288</v>
       </c>
       <c r="K41" t="s">
-        <v>349</v>
+        <v>289</v>
       </c>
       <c r="L41" t="s">
-        <v>350</v>
+        <v>290</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>336</v>
+        <v>268</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="P41" t="s"/>
-      <c r="Q41" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q41" t="s"/>
       <c r="R41" t="s"/>
-      <c r="S41" t="n">
-        <v>5</v>
-      </c>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="n">
-        <v>4</v>
-      </c>
+      <c r="U41" t="s"/>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>351</v>
+        <v>283</v>
       </c>
       <c r="X41" t="s">
-        <v>352</v>
+        <v>284</v>
       </c>
       <c r="Y41" t="s">
-        <v>353</v>
+        <v>291</v>
       </c>
     </row>
     <row r="42">
@@ -4373,7 +5226,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>354</v>
+        <v>292</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4382,49 +5235,43 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>355</v>
+        <v>293</v>
       </c>
       <c r="J42" t="s">
-        <v>356</v>
+        <v>294</v>
       </c>
       <c r="K42" t="s">
-        <v>357</v>
+        <v>295</v>
       </c>
       <c r="L42" t="s">
-        <v>358</v>
+        <v>296</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>336</v>
+        <v>268</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
-      </c>
-      <c r="P42" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>5</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
       <c r="R42" t="s"/>
       <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>5</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>359</v>
+        <v>283</v>
       </c>
       <c r="X42" t="s">
-        <v>360</v>
+        <v>284</v>
       </c>
       <c r="Y42" t="s">
-        <v>361</v>
+        <v>297</v>
       </c>
     </row>
     <row r="43">
@@ -4440,7 +5287,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>362</v>
+        <v>298</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4449,43 +5296,47 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>363</v>
+        <v>299</v>
       </c>
       <c r="J43" t="s">
-        <v>364</v>
+        <v>300</v>
       </c>
       <c r="K43" t="s">
-        <v>365</v>
+        <v>301</v>
       </c>
       <c r="L43" t="s">
-        <v>366</v>
+        <v>302</v>
       </c>
       <c r="M43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>336</v>
+        <v>268</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
       <c r="R43" t="s"/>
-      <c r="S43" t="s"/>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
       <c r="T43" t="s"/>
-      <c r="U43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>367</v>
+        <v>303</v>
       </c>
       <c r="X43" t="s">
-        <v>368</v>
+        <v>304</v>
       </c>
       <c r="Y43" t="s">
-        <v>369</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44">
@@ -4501,7 +5352,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>370</v>
+        <v>306</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4510,25 +5361,25 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>371</v>
+        <v>307</v>
       </c>
       <c r="J44" t="s">
-        <v>372</v>
+        <v>308</v>
       </c>
       <c r="K44" t="s">
-        <v>373</v>
+        <v>309</v>
       </c>
       <c r="L44" t="s">
-        <v>374</v>
+        <v>310</v>
       </c>
       <c r="M44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>336</v>
+        <v>268</v>
       </c>
       <c r="O44" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -4540,13 +5391,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>375</v>
+        <v>311</v>
       </c>
       <c r="X44" t="s">
-        <v>376</v>
+        <v>312</v>
       </c>
       <c r="Y44" t="s">
-        <v>377</v>
+        <v>313</v>
       </c>
     </row>
     <row r="45">
@@ -4562,7 +5413,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>378</v>
+        <v>314</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4571,47 +5422,49 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>379</v>
+        <v>315</v>
       </c>
       <c r="J45" t="s">
-        <v>380</v>
+        <v>316</v>
       </c>
       <c r="K45" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L45" t="s">
-        <v>382</v>
+        <v>318</v>
       </c>
       <c r="M45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>336</v>
+        <v>268</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
       <c r="R45" t="n">
-        <v>5</v>
-      </c>
-      <c r="S45" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>383</v>
+        <v>311</v>
       </c>
       <c r="X45" t="s">
-        <v>384</v>
+        <v>312</v>
       </c>
       <c r="Y45" t="s">
-        <v>385</v>
+        <v>319</v>
       </c>
     </row>
     <row r="46">
@@ -4627,7 +5480,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>386</v>
+        <v>320</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4636,25 +5489,25 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>387</v>
+        <v>321</v>
       </c>
       <c r="J46" t="s">
-        <v>388</v>
+        <v>322</v>
       </c>
       <c r="K46" t="s">
-        <v>389</v>
+        <v>323</v>
       </c>
       <c r="L46" t="s">
-        <v>390</v>
+        <v>324</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>391</v>
+        <v>325</v>
       </c>
       <c r="O46" t="s">
-        <v>248</v>
+        <v>59</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -4666,13 +5519,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>392</v>
+        <v>311</v>
       </c>
       <c r="X46" t="s">
-        <v>393</v>
+        <v>312</v>
       </c>
       <c r="Y46" t="s">
-        <v>394</v>
+        <v>326</v>
       </c>
     </row>
     <row r="47">
@@ -4688,7 +5541,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>395</v>
+        <v>327</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4697,49 +5550,43 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>396</v>
+        <v>328</v>
       </c>
       <c r="J47" t="s">
-        <v>397</v>
+        <v>329</v>
       </c>
       <c r="K47" t="s">
-        <v>398</v>
+        <v>330</v>
       </c>
       <c r="L47" t="s">
-        <v>399</v>
+        <v>331</v>
       </c>
       <c r="M47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>391</v>
+        <v>325</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
-      <c r="R47" t="n">
-        <v>5</v>
-      </c>
-      <c r="S47" t="n">
-        <v>5</v>
-      </c>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
-      <c r="U47" t="n">
-        <v>5</v>
-      </c>
+      <c r="U47" t="s"/>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>392</v>
+        <v>332</v>
       </c>
       <c r="X47" t="s">
-        <v>393</v>
+        <v>333</v>
       </c>
       <c r="Y47" t="s">
-        <v>400</v>
+        <v>334</v>
       </c>
     </row>
     <row r="48">
@@ -4755,7 +5602,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>401</v>
+        <v>335</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -4764,25 +5611,25 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>402</v>
+        <v>336</v>
       </c>
       <c r="J48" t="s">
-        <v>403</v>
+        <v>337</v>
       </c>
       <c r="K48" t="s">
-        <v>404</v>
+        <v>338</v>
       </c>
       <c r="L48" t="s">
-        <v>405</v>
+        <v>339</v>
       </c>
       <c r="M48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>391</v>
+        <v>340</v>
       </c>
       <c r="O48" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -4794,13 +5641,13 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>406</v>
+        <v>341</v>
       </c>
       <c r="X48" t="s">
-        <v>407</v>
+        <v>342</v>
       </c>
       <c r="Y48" t="s">
-        <v>408</v>
+        <v>343</v>
       </c>
     </row>
     <row r="49">
@@ -4816,7 +5663,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>409</v>
+        <v>344</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -4825,45 +5672,43 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>410</v>
+        <v>345</v>
       </c>
       <c r="J49" t="s">
-        <v>411</v>
+        <v>346</v>
       </c>
       <c r="K49" t="s">
-        <v>412</v>
+        <v>347</v>
       </c>
       <c r="L49" t="s">
-        <v>413</v>
+        <v>348</v>
       </c>
       <c r="M49" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>391</v>
+        <v>340</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
       <c r="R49" t="s"/>
       <c r="S49" t="s"/>
       <c r="T49" t="s"/>
-      <c r="U49" t="n">
-        <v>1</v>
-      </c>
+      <c r="U49" t="s"/>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>406</v>
+        <v>349</v>
       </c>
       <c r="X49" t="s">
-        <v>407</v>
+        <v>350</v>
       </c>
       <c r="Y49" t="s">
-        <v>414</v>
+        <v>351</v>
       </c>
     </row>
     <row r="50">
@@ -4879,7 +5724,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>415</v>
+        <v>352</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -4888,26 +5733,22 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>416</v>
+        <v>353</v>
       </c>
       <c r="J50" t="s">
-        <v>417</v>
+        <v>354</v>
       </c>
       <c r="K50" t="s">
-        <v>418</v>
+        <v>355</v>
       </c>
       <c r="L50" t="s">
-        <v>419</v>
+        <v>356</v>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
-      </c>
-      <c r="N50" t="s">
-        <v>420</v>
-      </c>
-      <c r="O50" t="s">
-        <v>53</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
       <c r="R50" t="s"/>
@@ -4918,13 +5759,13 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>421</v>
+        <v>357</v>
       </c>
       <c r="X50" t="s">
-        <v>422</v>
+        <v>358</v>
       </c>
       <c r="Y50" t="s">
-        <v>423</v>
+        <v>359</v>
       </c>
     </row>
     <row r="51">
@@ -4940,7 +5781,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>424</v>
+        <v>360</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -4949,25 +5790,25 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>425</v>
+        <v>361</v>
       </c>
       <c r="J51" t="s">
-        <v>426</v>
+        <v>354</v>
       </c>
       <c r="K51" t="s">
-        <v>427</v>
+        <v>362</v>
       </c>
       <c r="L51" t="s">
-        <v>428</v>
+        <v>363</v>
       </c>
       <c r="M51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>420</v>
+        <v>340</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -4979,13 +5820,3073 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
+        <v>349</v>
+      </c>
+      <c r="X51" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>365</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>366</v>
+      </c>
+      <c r="J52" t="s">
+        <v>367</v>
+      </c>
+      <c r="K52" t="s">
+        <v>368</v>
+      </c>
+      <c r="L52" t="s">
+        <v>369</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>340</v>
+      </c>
+      <c r="O52" t="s">
+        <v>69</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>370</v>
+      </c>
+      <c r="X52" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>373</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>374</v>
+      </c>
+      <c r="J53" t="s">
+        <v>375</v>
+      </c>
+      <c r="K53" t="s">
+        <v>376</v>
+      </c>
+      <c r="L53" t="s">
+        <v>377</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>340</v>
+      </c>
+      <c r="O53" t="s">
+        <v>75</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>370</v>
+      </c>
+      <c r="X53" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>379</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>380</v>
+      </c>
+      <c r="J54" t="s">
+        <v>381</v>
+      </c>
+      <c r="K54" t="s">
+        <v>382</v>
+      </c>
+      <c r="L54" t="s">
+        <v>383</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>384</v>
+      </c>
+      <c r="O54" t="s">
+        <v>59</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>385</v>
+      </c>
+      <c r="X54" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>388</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>389</v>
+      </c>
+      <c r="J55" t="s">
+        <v>390</v>
+      </c>
+      <c r="K55" t="s">
+        <v>391</v>
+      </c>
+      <c r="L55" t="s">
+        <v>392</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="s">
+        <v>393</v>
+      </c>
+      <c r="O55" t="s">
+        <v>69</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>2</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>394</v>
+      </c>
+      <c r="X55" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>397</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>398</v>
+      </c>
+      <c r="J56" t="s">
+        <v>399</v>
+      </c>
+      <c r="K56" t="s">
+        <v>400</v>
+      </c>
+      <c r="L56" t="s">
+        <v>401</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>384</v>
+      </c>
+      <c r="O56" t="s">
+        <v>69</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="s"/>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>402</v>
+      </c>
+      <c r="X56" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>405</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>406</v>
+      </c>
+      <c r="J57" t="s">
+        <v>407</v>
+      </c>
+      <c r="K57" t="s">
+        <v>408</v>
+      </c>
+      <c r="L57" t="s">
+        <v>409</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>384</v>
+      </c>
+      <c r="O57" t="s">
+        <v>59</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>410</v>
+      </c>
+      <c r="X57" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>413</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>414</v>
+      </c>
+      <c r="J58" t="s">
+        <v>407</v>
+      </c>
+      <c r="K58" t="s">
+        <v>415</v>
+      </c>
+      <c r="L58" t="s">
+        <v>416</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>384</v>
+      </c>
+      <c r="O58" t="s">
+        <v>69</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>410</v>
+      </c>
+      <c r="X58" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>418</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>419</v>
+      </c>
+      <c r="J59" t="s">
+        <v>420</v>
+      </c>
+      <c r="K59" t="s">
+        <v>421</v>
+      </c>
+      <c r="L59" t="s">
+        <v>422</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>384</v>
+      </c>
+      <c r="O59" t="s">
+        <v>69</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>423</v>
+      </c>
+      <c r="X59" t="s">
+        <v>424</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>426</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>427</v>
+      </c>
+      <c r="J60" t="s">
+        <v>428</v>
+      </c>
+      <c r="K60" t="s">
         <v>429</v>
       </c>
-      <c r="X51" t="s">
+      <c r="L60" t="s">
         <v>430</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>384</v>
+      </c>
+      <c r="O60" t="s">
+        <v>229</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
         <v>431</v>
+      </c>
+      <c r="X60" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>434</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>435</v>
+      </c>
+      <c r="J61" t="s">
+        <v>436</v>
+      </c>
+      <c r="K61" t="s">
+        <v>437</v>
+      </c>
+      <c r="L61" t="s">
+        <v>438</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>384</v>
+      </c>
+      <c r="O61" t="s">
+        <v>69</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>439</v>
+      </c>
+      <c r="X61" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>442</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>443</v>
+      </c>
+      <c r="J62" t="s">
+        <v>444</v>
+      </c>
+      <c r="K62" t="s">
+        <v>445</v>
+      </c>
+      <c r="L62" t="s">
+        <v>446</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>384</v>
+      </c>
+      <c r="O62" t="s">
+        <v>59</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>439</v>
+      </c>
+      <c r="X62" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>448</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>449</v>
+      </c>
+      <c r="J63" t="s">
+        <v>450</v>
+      </c>
+      <c r="K63" t="s">
+        <v>451</v>
+      </c>
+      <c r="L63" t="s">
+        <v>452</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>384</v>
+      </c>
+      <c r="O63" t="s">
+        <v>69</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>453</v>
+      </c>
+      <c r="X63" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>456</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>457</v>
+      </c>
+      <c r="J64" t="s">
+        <v>458</v>
+      </c>
+      <c r="K64" t="s">
+        <v>459</v>
+      </c>
+      <c r="L64" t="s">
+        <v>460</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>384</v>
+      </c>
+      <c r="O64" t="s">
+        <v>59</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>461</v>
+      </c>
+      <c r="X64" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>464</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>465</v>
+      </c>
+      <c r="J65" t="s">
+        <v>466</v>
+      </c>
+      <c r="K65" t="s">
+        <v>467</v>
+      </c>
+      <c r="L65" t="s">
+        <v>468</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>384</v>
+      </c>
+      <c r="O65" t="s">
+        <v>69</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>469</v>
+      </c>
+      <c r="X65" t="s">
+        <v>470</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>472</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>473</v>
+      </c>
+      <c r="J66" t="s">
+        <v>474</v>
+      </c>
+      <c r="K66" t="s">
+        <v>475</v>
+      </c>
+      <c r="L66" t="s">
+        <v>476</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>477</v>
+      </c>
+      <c r="O66" t="s">
+        <v>69</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>478</v>
+      </c>
+      <c r="X66" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>481</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>482</v>
+      </c>
+      <c r="J67" t="s">
+        <v>474</v>
+      </c>
+      <c r="K67" t="s">
+        <v>483</v>
+      </c>
+      <c r="L67" t="s">
+        <v>484</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>393</v>
+      </c>
+      <c r="O67" t="s">
+        <v>59</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>478</v>
+      </c>
+      <c r="X67" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>486</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>487</v>
+      </c>
+      <c r="J68" t="s">
+        <v>488</v>
+      </c>
+      <c r="K68" t="s">
+        <v>489</v>
+      </c>
+      <c r="L68" t="s">
+        <v>490</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>491</v>
+      </c>
+      <c r="X68" t="s">
+        <v>492</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>494</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>495</v>
+      </c>
+      <c r="J69" t="s">
+        <v>496</v>
+      </c>
+      <c r="K69" t="s">
+        <v>497</v>
+      </c>
+      <c r="L69" t="s">
+        <v>498</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>393</v>
+      </c>
+      <c r="O69" t="s">
+        <v>69</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>499</v>
+      </c>
+      <c r="X69" t="s">
+        <v>500</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>502</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>503</v>
+      </c>
+      <c r="J70" t="s">
+        <v>504</v>
+      </c>
+      <c r="K70" t="s">
+        <v>505</v>
+      </c>
+      <c r="L70" t="s">
+        <v>506</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>393</v>
+      </c>
+      <c r="O70" t="s">
+        <v>69</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>499</v>
+      </c>
+      <c r="X70" t="s">
+        <v>500</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>508</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>509</v>
+      </c>
+      <c r="J71" t="s">
+        <v>510</v>
+      </c>
+      <c r="K71" t="s">
+        <v>511</v>
+      </c>
+      <c r="L71" t="s">
+        <v>512</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>393</v>
+      </c>
+      <c r="O71" t="s">
+        <v>69</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>513</v>
+      </c>
+      <c r="X71" t="s">
+        <v>514</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>516</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>517</v>
+      </c>
+      <c r="J72" t="s">
+        <v>510</v>
+      </c>
+      <c r="K72" t="s">
+        <v>518</v>
+      </c>
+      <c r="L72" t="s">
+        <v>519</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>393</v>
+      </c>
+      <c r="O72" t="s">
+        <v>69</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>520</v>
+      </c>
+      <c r="X72" t="s">
+        <v>521</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>523</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>524</v>
+      </c>
+      <c r="J73" t="s">
+        <v>525</v>
+      </c>
+      <c r="K73" t="s">
+        <v>526</v>
+      </c>
+      <c r="L73" t="s">
+        <v>527</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>477</v>
+      </c>
+      <c r="O73" t="s">
+        <v>69</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>528</v>
+      </c>
+      <c r="X73" t="s">
+        <v>529</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>531</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>532</v>
+      </c>
+      <c r="J74" t="s">
+        <v>533</v>
+      </c>
+      <c r="K74" t="s">
+        <v>534</v>
+      </c>
+      <c r="L74" t="s">
+        <v>535</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s"/>
+      <c r="O74" t="s"/>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>536</v>
+      </c>
+      <c r="X74" t="s">
+        <v>537</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>539</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>540</v>
+      </c>
+      <c r="J75" t="s">
+        <v>541</v>
+      </c>
+      <c r="K75" t="s">
+        <v>542</v>
+      </c>
+      <c r="L75" t="s">
+        <v>543</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>477</v>
+      </c>
+      <c r="O75" t="s">
+        <v>59</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>544</v>
+      </c>
+      <c r="X75" t="s">
+        <v>545</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>547</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>548</v>
+      </c>
+      <c r="J76" t="s">
+        <v>549</v>
+      </c>
+      <c r="K76" t="s">
+        <v>550</v>
+      </c>
+      <c r="L76" t="s">
+        <v>551</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>477</v>
+      </c>
+      <c r="O76" t="s">
+        <v>75</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>552</v>
+      </c>
+      <c r="X76" t="s">
+        <v>553</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>555</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>556</v>
+      </c>
+      <c r="J77" t="s">
+        <v>557</v>
+      </c>
+      <c r="K77" t="s">
+        <v>558</v>
+      </c>
+      <c r="L77" t="s">
+        <v>559</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>477</v>
+      </c>
+      <c r="O77" t="s">
+        <v>59</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>560</v>
+      </c>
+      <c r="X77" t="s">
+        <v>561</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>563</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>564</v>
+      </c>
+      <c r="J78" t="s">
+        <v>565</v>
+      </c>
+      <c r="K78" t="s">
+        <v>566</v>
+      </c>
+      <c r="L78" t="s">
+        <v>567</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>477</v>
+      </c>
+      <c r="O78" t="s">
+        <v>69</v>
+      </c>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="s"/>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>560</v>
+      </c>
+      <c r="X78" t="s">
+        <v>561</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>569</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>570</v>
+      </c>
+      <c r="J79" t="s">
+        <v>571</v>
+      </c>
+      <c r="K79" t="s">
+        <v>572</v>
+      </c>
+      <c r="L79" t="s">
+        <v>573</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="s">
+        <v>574</v>
+      </c>
+      <c r="O79" t="s">
+        <v>69</v>
+      </c>
+      <c r="P79" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="n">
+        <v>2</v>
+      </c>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>1</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>575</v>
+      </c>
+      <c r="X79" t="s">
+        <v>576</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>578</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>579</v>
+      </c>
+      <c r="J80" t="s">
+        <v>580</v>
+      </c>
+      <c r="K80" t="s">
+        <v>581</v>
+      </c>
+      <c r="L80" t="s">
+        <v>582</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>574</v>
+      </c>
+      <c r="O80" t="s">
+        <v>69</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>575</v>
+      </c>
+      <c r="X80" t="s">
+        <v>576</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>584</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>585</v>
+      </c>
+      <c r="J81" t="s">
+        <v>580</v>
+      </c>
+      <c r="K81" t="s">
+        <v>586</v>
+      </c>
+      <c r="L81" t="s">
+        <v>587</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>574</v>
+      </c>
+      <c r="O81" t="s">
+        <v>69</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>575</v>
+      </c>
+      <c r="X81" t="s">
+        <v>576</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>589</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>590</v>
+      </c>
+      <c r="J82" t="s">
+        <v>580</v>
+      </c>
+      <c r="K82" t="s">
+        <v>591</v>
+      </c>
+      <c r="L82" t="s">
+        <v>592</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>574</v>
+      </c>
+      <c r="O82" t="s">
+        <v>69</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="s"/>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>575</v>
+      </c>
+      <c r="X82" t="s">
+        <v>576</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>594</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>595</v>
+      </c>
+      <c r="J83" t="s">
+        <v>596</v>
+      </c>
+      <c r="K83" t="s">
+        <v>597</v>
+      </c>
+      <c r="L83" t="s">
+        <v>598</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>574</v>
+      </c>
+      <c r="O83" t="s">
+        <v>69</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="s"/>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>599</v>
+      </c>
+      <c r="X83" t="s">
+        <v>600</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>602</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>603</v>
+      </c>
+      <c r="J84" t="s">
+        <v>604</v>
+      </c>
+      <c r="K84" t="s">
+        <v>605</v>
+      </c>
+      <c r="L84" t="s">
+        <v>606</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>574</v>
+      </c>
+      <c r="O84" t="s">
+        <v>69</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="s"/>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>607</v>
+      </c>
+      <c r="X84" t="s">
+        <v>608</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>610</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>611</v>
+      </c>
+      <c r="J85" t="s">
+        <v>612</v>
+      </c>
+      <c r="K85" t="s">
+        <v>613</v>
+      </c>
+      <c r="L85" t="s">
+        <v>614</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>574</v>
+      </c>
+      <c r="O85" t="s">
+        <v>69</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="s"/>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>615</v>
+      </c>
+      <c r="X85" t="s">
+        <v>616</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>618</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>619</v>
+      </c>
+      <c r="J86" t="s">
+        <v>620</v>
+      </c>
+      <c r="K86" t="s">
+        <v>621</v>
+      </c>
+      <c r="L86" t="s">
+        <v>622</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>623</v>
+      </c>
+      <c r="O86" t="s">
+        <v>69</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="s"/>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>624</v>
+      </c>
+      <c r="X86" t="s">
+        <v>625</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>627</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>628</v>
+      </c>
+      <c r="J87" t="s">
+        <v>620</v>
+      </c>
+      <c r="K87" t="s">
+        <v>629</v>
+      </c>
+      <c r="L87" t="s">
+        <v>630</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>623</v>
+      </c>
+      <c r="O87" t="s">
+        <v>59</v>
+      </c>
+      <c r="P87" t="s"/>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="s"/>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>631</v>
+      </c>
+      <c r="X87" t="s">
+        <v>632</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>634</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>635</v>
+      </c>
+      <c r="J88" t="s">
+        <v>620</v>
+      </c>
+      <c r="K88" t="s">
+        <v>636</v>
+      </c>
+      <c r="L88" t="s">
+        <v>637</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="s">
+        <v>574</v>
+      </c>
+      <c r="O88" t="s">
+        <v>75</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="s"/>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>631</v>
+      </c>
+      <c r="X88" t="s">
+        <v>632</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>639</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>640</v>
+      </c>
+      <c r="J89" t="s">
+        <v>641</v>
+      </c>
+      <c r="K89" t="s">
+        <v>642</v>
+      </c>
+      <c r="L89" t="s">
+        <v>643</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>574</v>
+      </c>
+      <c r="O89" t="s">
+        <v>69</v>
+      </c>
+      <c r="P89" t="s"/>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="s"/>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>644</v>
+      </c>
+      <c r="X89" t="s">
+        <v>645</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>647</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>648</v>
+      </c>
+      <c r="J90" t="s">
+        <v>649</v>
+      </c>
+      <c r="K90" t="s">
+        <v>650</v>
+      </c>
+      <c r="L90" t="s">
+        <v>651</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>623</v>
+      </c>
+      <c r="O90" t="s">
+        <v>229</v>
+      </c>
+      <c r="P90" t="s"/>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="s"/>
+      <c r="T90" t="s"/>
+      <c r="U90" t="s"/>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>652</v>
+      </c>
+      <c r="X90" t="s">
+        <v>653</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>655</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>656</v>
+      </c>
+      <c r="J91" t="s">
+        <v>657</v>
+      </c>
+      <c r="K91" t="s">
+        <v>658</v>
+      </c>
+      <c r="L91" t="s">
+        <v>659</v>
+      </c>
+      <c r="M91" t="n">
+        <v>2</v>
+      </c>
+      <c r="N91" t="s">
+        <v>623</v>
+      </c>
+      <c r="O91" t="s">
+        <v>69</v>
+      </c>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="s"/>
+      <c r="T91" t="s"/>
+      <c r="U91" t="s"/>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>652</v>
+      </c>
+      <c r="X91" t="s">
+        <v>653</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>661</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>662</v>
+      </c>
+      <c r="J92" t="s">
+        <v>657</v>
+      </c>
+      <c r="K92" t="s">
+        <v>663</v>
+      </c>
+      <c r="L92" t="s">
+        <v>664</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="s">
+        <v>623</v>
+      </c>
+      <c r="O92" t="s">
+        <v>59</v>
+      </c>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="s"/>
+      <c r="T92" t="s"/>
+      <c r="U92" t="s"/>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>652</v>
+      </c>
+      <c r="X92" t="s">
+        <v>653</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>666</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>667</v>
+      </c>
+      <c r="J93" t="s">
+        <v>668</v>
+      </c>
+      <c r="K93" t="s">
+        <v>669</v>
+      </c>
+      <c r="L93" t="s">
+        <v>670</v>
+      </c>
+      <c r="M93" t="n">
+        <v>3</v>
+      </c>
+      <c r="N93" t="s">
+        <v>623</v>
+      </c>
+      <c r="O93" t="s">
+        <v>69</v>
+      </c>
+      <c r="P93" t="s"/>
+      <c r="Q93" t="s"/>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>652</v>
+      </c>
+      <c r="X93" t="s">
+        <v>653</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>672</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>673</v>
+      </c>
+      <c r="J94" t="s">
+        <v>674</v>
+      </c>
+      <c r="K94" t="s">
+        <v>675</v>
+      </c>
+      <c r="L94" t="s">
+        <v>676</v>
+      </c>
+      <c r="M94" t="n">
+        <v>3</v>
+      </c>
+      <c r="N94" t="s">
+        <v>623</v>
+      </c>
+      <c r="O94" t="s">
+        <v>75</v>
+      </c>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="s"/>
+      <c r="T94" t="s"/>
+      <c r="U94" t="s"/>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>677</v>
+      </c>
+      <c r="X94" t="s">
+        <v>678</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>680</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>681</v>
+      </c>
+      <c r="J95" t="s">
+        <v>682</v>
+      </c>
+      <c r="K95" t="s">
+        <v>683</v>
+      </c>
+      <c r="L95" t="s">
+        <v>684</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="s">
+        <v>623</v>
+      </c>
+      <c r="O95" t="s">
+        <v>69</v>
+      </c>
+      <c r="P95" t="s"/>
+      <c r="Q95" t="s"/>
+      <c r="R95" t="s"/>
+      <c r="S95" t="s"/>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>1</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>677</v>
+      </c>
+      <c r="X95" t="s">
+        <v>678</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>686</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>687</v>
+      </c>
+      <c r="J96" t="s">
+        <v>688</v>
+      </c>
+      <c r="K96" t="s">
+        <v>689</v>
+      </c>
+      <c r="L96" t="s">
+        <v>690</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>623</v>
+      </c>
+      <c r="O96" t="s">
+        <v>69</v>
+      </c>
+      <c r="P96" t="s"/>
+      <c r="Q96" t="s"/>
+      <c r="R96" t="s"/>
+      <c r="S96" t="s"/>
+      <c r="T96" t="s"/>
+      <c r="U96" t="s"/>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>691</v>
+      </c>
+      <c r="X96" t="s">
+        <v>692</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>694</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>695</v>
+      </c>
+      <c r="J97" t="s">
+        <v>696</v>
+      </c>
+      <c r="K97" t="s">
+        <v>697</v>
+      </c>
+      <c r="L97" t="s">
+        <v>698</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>623</v>
+      </c>
+      <c r="O97" t="s">
+        <v>69</v>
+      </c>
+      <c r="P97" t="s"/>
+      <c r="Q97" t="s"/>
+      <c r="R97" t="s"/>
+      <c r="S97" t="s"/>
+      <c r="T97" t="s"/>
+      <c r="U97" t="s"/>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>691</v>
+      </c>
+      <c r="X97" t="s">
+        <v>692</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>700</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>701</v>
+      </c>
+      <c r="J98" t="s">
+        <v>702</v>
+      </c>
+      <c r="K98" t="s">
+        <v>703</v>
+      </c>
+      <c r="L98" t="s">
+        <v>704</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>705</v>
+      </c>
+      <c r="O98" t="s">
+        <v>69</v>
+      </c>
+      <c r="P98" t="s"/>
+      <c r="Q98" t="s"/>
+      <c r="R98" t="s"/>
+      <c r="S98" t="s"/>
+      <c r="T98" t="s"/>
+      <c r="U98" t="s"/>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>706</v>
+      </c>
+      <c r="X98" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>66303</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>709</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>710</v>
+      </c>
+      <c r="J99" t="s">
+        <v>711</v>
+      </c>
+      <c r="K99" t="s">
+        <v>712</v>
+      </c>
+      <c r="L99" t="s">
+        <v>713</v>
+      </c>
+      <c r="M99" t="n">
+        <v>4</v>
+      </c>
+      <c r="N99" t="s">
+        <v>705</v>
+      </c>
+      <c r="O99" t="s">
+        <v>69</v>
+      </c>
+      <c r="P99" t="s"/>
+      <c r="Q99" t="s"/>
+      <c r="R99" t="s"/>
+      <c r="S99" t="s"/>
+      <c r="T99" t="s"/>
+      <c r="U99" t="s"/>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>714</v>
+      </c>
+      <c r="X99" t="s">
+        <v>715</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>716</v>
       </c>
     </row>
   </sheetData>
